--- a/BackTest/2019-10-12 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-12 BackTest VALOR.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>25</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>62.5</v>
+      </c>
       <c r="L12" t="n">
         <v>683.3</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>25</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>684.3</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>25</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>684.6</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>29</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>45.45454545454545</v>
+      </c>
       <c r="L15" t="n">
         <v>685.3</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>29</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>77.77777777777779</v>
+      </c>
       <c r="L16" t="n">
         <v>685.8</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>33</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>686.1</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>37</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L18" t="n">
         <v>686.9</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>37</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>38.46153846153847</v>
+      </c>
       <c r="L19" t="n">
         <v>687.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>37</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L20" t="n">
         <v>688</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>37</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>688.4</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>45</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>60</v>
+      </c>
       <c r="L22" t="n">
         <v>689.6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>48</v>
       </c>
       <c r="K23" t="n">
-        <v>48.71794871794872</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L23" t="n">
         <v>690.5</v>
@@ -1466,7 +1488,7 @@
         <v>51</v>
       </c>
       <c r="K24" t="n">
-        <v>42.85714285714285</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L24" t="n">
         <v>691.7</v>
@@ -1515,7 +1537,7 @@
         <v>51</v>
       </c>
       <c r="K25" t="n">
-        <v>42.85714285714285</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L25" t="n">
         <v>692.5</v>
@@ -1564,7 +1586,7 @@
         <v>53</v>
       </c>
       <c r="K26" t="n">
-        <v>42.85714285714285</v>
+        <v>70</v>
       </c>
       <c r="L26" t="n">
         <v>693.5</v>
@@ -1613,7 +1635,7 @@
         <v>60</v>
       </c>
       <c r="K27" t="n">
-        <v>25</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L27" t="n">
         <v>694.2</v>
@@ -1662,7 +1684,7 @@
         <v>67</v>
       </c>
       <c r="K28" t="n">
-        <v>39.1304347826087</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>695.2</v>
@@ -1711,7 +1733,7 @@
         <v>74</v>
       </c>
       <c r="K29" t="n">
-        <v>45.09803921568628</v>
+        <v>45.94594594594595</v>
       </c>
       <c r="L29" t="n">
         <v>696.9</v>
@@ -1760,7 +1782,7 @@
         <v>74</v>
       </c>
       <c r="K30" t="n">
-        <v>44</v>
+        <v>45.94594594594595</v>
       </c>
       <c r="L30" t="n">
         <v>698.6</v>
@@ -1809,7 +1831,7 @@
         <v>82</v>
       </c>
       <c r="K31" t="n">
-        <v>50.87719298245614</v>
+        <v>45.94594594594595</v>
       </c>
       <c r="L31" t="n">
         <v>701.1</v>
@@ -1860,7 +1882,7 @@
         <v>89</v>
       </c>
       <c r="K32" t="n">
-        <v>56.25</v>
+        <v>65.85365853658537</v>
       </c>
       <c r="L32" t="n">
         <v>703.5</v>
@@ -1911,7 +1933,7 @@
         <v>98</v>
       </c>
       <c r="K33" t="n">
-        <v>61.64383561643836</v>
+        <v>70.21276595744681</v>
       </c>
       <c r="L33" t="n">
         <v>707.1</v>
@@ -1962,7 +1984,7 @@
         <v>104</v>
       </c>
       <c r="K34" t="n">
-        <v>64.55696202531645</v>
+        <v>73.58490566037736</v>
       </c>
       <c r="L34" t="n">
         <v>711</v>
@@ -2013,7 +2035,7 @@
         <v>106</v>
       </c>
       <c r="K35" t="n">
-        <v>58.44155844155844</v>
+        <v>66.0377358490566</v>
       </c>
       <c r="L35" t="n">
         <v>714.7</v>
@@ -2064,7 +2086,7 @@
         <v>106</v>
       </c>
       <c r="K36" t="n">
-        <v>58.44155844155844</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="L36" t="n">
         <v>718.2</v>
@@ -2115,7 +2137,7 @@
         <v>116</v>
       </c>
       <c r="K37" t="n">
-        <v>46.98795180722892</v>
+        <v>51.02040816326531</v>
       </c>
       <c r="L37" t="n">
         <v>721.4</v>
@@ -2166,7 +2188,7 @@
         <v>118</v>
       </c>
       <c r="K38" t="n">
-        <v>40.74074074074074</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L38" t="n">
         <v>723.7</v>
@@ -2217,7 +2239,7 @@
         <v>133</v>
       </c>
       <c r="K39" t="n">
-        <v>18.75</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="L39" t="n">
         <v>723.8</v>
@@ -2268,7 +2290,7 @@
         <v>137</v>
       </c>
       <c r="K40" t="n">
-        <v>22</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L40" t="n">
         <v>724.3</v>
@@ -2319,7 +2341,7 @@
         <v>137</v>
       </c>
       <c r="K41" t="n">
-        <v>22</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="L41" t="n">
         <v>724</v>
@@ -2370,7 +2392,7 @@
         <v>137</v>
       </c>
       <c r="K42" t="n">
-        <v>15.21739130434783</v>
+        <v>-48.71794871794872</v>
       </c>
       <c r="L42" t="n">
         <v>723</v>
@@ -2421,7 +2443,7 @@
         <v>138</v>
       </c>
       <c r="K43" t="n">
-        <v>20</v>
+        <v>-70.58823529411765</v>
       </c>
       <c r="L43" t="n">
         <v>721.2</v>
@@ -2472,7 +2494,7 @@
         <v>142</v>
       </c>
       <c r="K44" t="n">
-        <v>12.08791208791209</v>
+        <v>-72.22222222222221</v>
       </c>
       <c r="L44" t="n">
         <v>718.4</v>
@@ -2523,7 +2545,7 @@
         <v>145</v>
       </c>
       <c r="K45" t="n">
-        <v>14.8936170212766</v>
+        <v>-58.97435897435898</v>
       </c>
       <c r="L45" t="n">
         <v>716.1</v>
@@ -2574,7 +2596,7 @@
         <v>148</v>
       </c>
       <c r="K46" t="n">
-        <v>9.473684210526317</v>
+        <v>-50</v>
       </c>
       <c r="L46" t="n">
         <v>713.5</v>
@@ -2625,7 +2647,7 @@
         <v>149</v>
       </c>
       <c r="K47" t="n">
-        <v>19.10112359550562</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L47" t="n">
         <v>712</v>
@@ -2676,7 +2698,7 @@
         <v>155</v>
       </c>
       <c r="K48" t="n">
-        <v>4.545454545454546</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L48" t="n">
         <v>710.1</v>
@@ -2727,7 +2749,7 @@
         <v>159</v>
       </c>
       <c r="K49" t="n">
-        <v>-8.235294117647058</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L49" t="n">
         <v>709.3</v>
@@ -2778,7 +2800,7 @@
         <v>159</v>
       </c>
       <c r="K50" t="n">
-        <v>-8.235294117647058</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L50" t="n">
         <v>708.1</v>
@@ -2829,7 +2851,7 @@
         <v>176</v>
       </c>
       <c r="K51" t="n">
-        <v>2.127659574468085</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L51" t="n">
         <v>708.6</v>
@@ -2880,7 +2902,7 @@
         <v>179</v>
       </c>
       <c r="K52" t="n">
-        <v>-2.222222222222222</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="L52" t="n">
         <v>709.4</v>
@@ -2931,7 +2953,7 @@
         <v>179</v>
       </c>
       <c r="K53" t="n">
-        <v>-13.58024691358025</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L53" t="n">
         <v>710.1</v>
@@ -2982,7 +3004,7 @@
         <v>179</v>
       </c>
       <c r="K54" t="n">
-        <v>-22.66666666666666</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L54" t="n">
         <v>711.2</v>
@@ -3033,7 +3055,7 @@
         <v>185</v>
       </c>
       <c r="K55" t="n">
-        <v>-26.58227848101265</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L55" t="n">
         <v>711.4</v>
@@ -3084,7 +3106,7 @@
         <v>186</v>
       </c>
       <c r="K56" t="n">
-        <v>-25</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L56" t="n">
         <v>712</v>
@@ -3135,7 +3157,7 @@
         <v>187</v>
       </c>
       <c r="K57" t="n">
-        <v>-15.49295774647887</v>
+        <v>31.25</v>
       </c>
       <c r="L57" t="n">
         <v>712.4</v>
@@ -3186,7 +3208,7 @@
         <v>188</v>
       </c>
       <c r="K58" t="n">
-        <v>-11.42857142857143</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L58" t="n">
         <v>713.5</v>
@@ -3237,7 +3259,7 @@
         <v>189</v>
       </c>
       <c r="K59" t="n">
-        <v>10.71428571428571</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L59" t="n">
         <v>714.9</v>
@@ -3288,7 +3310,7 @@
         <v>193</v>
       </c>
       <c r="K60" t="n">
-        <v>-3.571428571428571</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L60" t="n">
         <v>715.9</v>
@@ -3339,7 +3361,7 @@
         <v>210</v>
       </c>
       <c r="K61" t="n">
-        <v>-26.02739726027397</v>
+        <v>-87.09677419354838</v>
       </c>
       <c r="L61" t="n">
         <v>713.5</v>
@@ -3390,7 +3412,7 @@
         <v>219</v>
       </c>
       <c r="K62" t="n">
-        <v>-12.19512195121951</v>
+        <v>-45</v>
       </c>
       <c r="L62" t="n">
         <v>711.7</v>
@@ -3441,7 +3463,7 @@
         <v>220</v>
       </c>
       <c r="K63" t="n">
-        <v>-14.63414634146341</v>
+        <v>-46.34146341463415</v>
       </c>
       <c r="L63" t="n">
         <v>709.8</v>
@@ -3492,7 +3514,7 @@
         <v>224</v>
       </c>
       <c r="K64" t="n">
-        <v>-4.878048780487805</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L64" t="n">
         <v>708.3</v>
@@ -3543,7 +3565,7 @@
         <v>229</v>
       </c>
       <c r="K65" t="n">
-        <v>-2.380952380952381</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="L65" t="n">
         <v>707.9</v>
@@ -3594,7 +3616,7 @@
         <v>237</v>
       </c>
       <c r="K66" t="n">
-        <v>-7.865168539325842</v>
+        <v>-24</v>
       </c>
       <c r="L66" t="n">
         <v>706.6</v>
@@ -3645,7 +3667,7 @@
         <v>243</v>
       </c>
       <c r="K67" t="n">
-        <v>-2.127659574468085</v>
+        <v>-12.72727272727273</v>
       </c>
       <c r="L67" t="n">
         <v>706</v>
@@ -3696,7 +3718,7 @@
         <v>243</v>
       </c>
       <c r="K68" t="n">
-        <v>4.545454545454546</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L68" t="n">
         <v>705.3</v>
@@ -3747,7 +3769,7 @@
         <v>244</v>
       </c>
       <c r="K69" t="n">
-        <v>10.58823529411765</v>
+        <v>-1.96078431372549</v>
       </c>
       <c r="L69" t="n">
         <v>704.8</v>
@@ -3798,7 +3820,7 @@
         <v>245</v>
       </c>
       <c r="K70" t="n">
-        <v>11.62790697674419</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="L70" t="n">
         <v>704.8</v>
@@ -3849,7 +3871,7 @@
         <v>255</v>
       </c>
       <c r="K71" t="n">
-        <v>-21.51898734177215</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L71" t="n">
         <v>705.5</v>
@@ -3900,7 +3922,7 @@
         <v>259</v>
       </c>
       <c r="K72" t="n">
-        <v>-20</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L72" t="n">
         <v>705.7</v>
@@ -3951,7 +3973,7 @@
         <v>268</v>
       </c>
       <c r="K73" t="n">
-        <v>-28.08988764044944</v>
+        <v>-22.72727272727273</v>
       </c>
       <c r="L73" t="n">
         <v>705.1</v>
@@ -4002,7 +4024,7 @@
         <v>272</v>
       </c>
       <c r="K74" t="n">
-        <v>-31.18279569892473</v>
+        <v>-44.18604651162791</v>
       </c>
       <c r="L74" t="n">
         <v>703.7</v>
@@ -4053,7 +4075,7 @@
         <v>277</v>
       </c>
       <c r="K75" t="n">
-        <v>-30.43478260869566</v>
+        <v>-40</v>
       </c>
       <c r="L75" t="n">
         <v>701.3</v>
@@ -4104,7 +4126,7 @@
         <v>277</v>
       </c>
       <c r="K76" t="n">
-        <v>-31.86813186813187</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L76" t="n">
         <v>699.7</v>
@@ -4155,7 +4177,7 @@
         <v>282</v>
       </c>
       <c r="K77" t="n">
-        <v>-24.21052631578947</v>
+        <v>-43.58974358974359</v>
       </c>
       <c r="L77" t="n">
         <v>698</v>
@@ -4206,7 +4228,7 @@
         <v>300</v>
       </c>
       <c r="K78" t="n">
-        <v>-5.357142857142857</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>698.1</v>
@@ -4257,7 +4279,7 @@
         <v>300</v>
       </c>
       <c r="K79" t="n">
-        <v>-4.504504504504505</v>
+        <v>-1.818181818181818</v>
       </c>
       <c r="L79" t="n">
         <v>698.1</v>
@@ -4308,7 +4330,7 @@
         <v>323</v>
       </c>
       <c r="K80" t="n">
-        <v>-18.46153846153846</v>
+        <v>-20.58823529411764</v>
       </c>
       <c r="L80" t="n">
         <v>695.7</v>
@@ -4359,7 +4381,7 @@
         <v>325</v>
       </c>
       <c r="K81" t="n">
-        <v>-4.347826086956522</v>
+        <v>-24.24242424242424</v>
       </c>
       <c r="L81" t="n">
         <v>694.5</v>
@@ -4410,7 +4432,7 @@
         <v>327</v>
       </c>
       <c r="K82" t="n">
-        <v>-14.81481481481481</v>
+        <v>-15.25423728813559</v>
       </c>
       <c r="L82" t="n">
         <v>692.7</v>
@@ -4461,7 +4483,7 @@
         <v>337</v>
       </c>
       <c r="K83" t="n">
-        <v>-21.36752136752137</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L83" t="n">
         <v>690.8</v>
@@ -4512,7 +4534,7 @@
         <v>341</v>
       </c>
       <c r="K84" t="n">
-        <v>-28.2051282051282</v>
+        <v>-21.875</v>
       </c>
       <c r="L84" t="n">
         <v>688.9</v>
@@ -4563,7 +4585,7 @@
         <v>360</v>
       </c>
       <c r="K85" t="n">
-        <v>-14.50381679389313</v>
+        <v>6.024096385542169</v>
       </c>
       <c r="L85" t="n">
         <v>689.4</v>
@@ -4614,7 +4636,7 @@
         <v>364</v>
       </c>
       <c r="K86" t="n">
-        <v>-11.81102362204724</v>
+        <v>-4.878048780487805</v>
       </c>
       <c r="L86" t="n">
         <v>689.5</v>
@@ -4665,7 +4687,7 @@
         <v>371</v>
       </c>
       <c r="K87" t="n">
-        <v>-21.875</v>
+        <v>-40.84507042253522</v>
       </c>
       <c r="L87" t="n">
         <v>688.4</v>
@@ -4716,7 +4738,7 @@
         <v>387</v>
       </c>
       <c r="K88" t="n">
-        <v>-8.333333333333332</v>
+        <v>-14.94252873563219</v>
       </c>
       <c r="L88" t="n">
         <v>687.1</v>
@@ -4767,7 +4789,7 @@
         <v>397</v>
       </c>
       <c r="K89" t="n">
-        <v>-15.03267973856209</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>684.8</v>
@@ -4818,7 +4840,7 @@
         <v>409</v>
       </c>
       <c r="K90" t="n">
-        <v>-7.317073170731707</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="L90" t="n">
         <v>686</v>
@@ -4869,7 +4891,7 @@
         <v>417</v>
       </c>
       <c r="K91" t="n">
-        <v>-6.172839506172839</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="L91" t="n">
         <v>686.2</v>
@@ -4920,7 +4942,7 @@
         <v>421</v>
       </c>
       <c r="K92" t="n">
-        <v>-11.11111111111111</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="L92" t="n">
         <v>686.2</v>
@@ -4971,7 +4993,7 @@
         <v>437</v>
       </c>
       <c r="K93" t="n">
-        <v>4.142011834319527</v>
+        <v>31.25</v>
       </c>
       <c r="L93" t="n">
         <v>688.8</v>
@@ -5022,7 +5044,7 @@
         <v>440</v>
       </c>
       <c r="K94" t="n">
-        <v>4.761904761904762</v>
+        <v>10</v>
       </c>
       <c r="L94" t="n">
         <v>691.5</v>
@@ -5073,7 +5095,7 @@
         <v>445</v>
       </c>
       <c r="K95" t="n">
-        <v>4.761904761904762</v>
+        <v>8.641975308641975</v>
       </c>
       <c r="L95" t="n">
         <v>691.8</v>
@@ -5124,7 +5146,7 @@
         <v>448</v>
       </c>
       <c r="K96" t="n">
-        <v>6.432748538011696</v>
+        <v>22.07792207792208</v>
       </c>
       <c r="L96" t="n">
         <v>692.8</v>
@@ -5175,7 +5197,7 @@
         <v>449</v>
       </c>
       <c r="K97" t="n">
-        <v>2.994011976047904</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>694.4</v>
@@ -5226,7 +5248,7 @@
         <v>450</v>
       </c>
       <c r="K98" t="n">
-        <v>-9.333333333333334</v>
+        <v>16.9811320754717</v>
       </c>
       <c r="L98" t="n">
         <v>694.3</v>
@@ -5277,7 +5299,7 @@
         <v>457</v>
       </c>
       <c r="K99" t="n">
-        <v>-4.45859872611465</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L99" t="n">
         <v>695.9</v>
@@ -5328,7 +5350,7 @@
         <v>473</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L100" t="n">
         <v>694.7</v>
@@ -5379,7 +5401,7 @@
         <v>476</v>
       </c>
       <c r="K101" t="n">
-        <v>-3.311258278145695</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L101" t="n">
         <v>694</v>
@@ -5430,7 +5452,7 @@
         <v>477</v>
       </c>
       <c r="K102" t="n">
-        <v>-1.333333333333333</v>
+        <v>-45</v>
       </c>
       <c r="L102" t="n">
         <v>693.8</v>
@@ -5481,7 +5503,7 @@
         <v>477</v>
       </c>
       <c r="K103" t="n">
-        <v>5.714285714285714</v>
+        <v>-40.54054054054054</v>
       </c>
       <c r="L103" t="n">
         <v>692</v>
@@ -5532,7 +5554,7 @@
         <v>481</v>
       </c>
       <c r="K104" t="n">
-        <v>5.714285714285714</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L104" t="n">
         <v>690.1</v>
@@ -5583,7 +5605,7 @@
         <v>482</v>
       </c>
       <c r="K105" t="n">
-        <v>-8.196721311475409</v>
+        <v>-47.05882352941176</v>
       </c>
       <c r="L105" t="n">
         <v>688.8</v>
@@ -5634,7 +5656,7 @@
         <v>483</v>
       </c>
       <c r="K106" t="n">
-        <v>-5.88235294117647</v>
+        <v>-47.05882352941176</v>
       </c>
       <c r="L106" t="n">
         <v>687.1</v>

--- a/BackTest/2019-10-12 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-12 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S106"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -466,34 +436,30 @@
         <v>678</v>
       </c>
       <c r="C2" t="n">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="D2" t="n">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E2" t="n">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F2" t="n">
-        <v>28.9313</v>
+        <v>517.8114</v>
       </c>
       <c r="G2" t="n">
-        <v>684.5166666666667</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -505,38 +471,34 @@
         <v>677</v>
       </c>
       <c r="C3" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D3" t="n">
         <v>677</v>
       </c>
       <c r="E3" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F3" t="n">
-        <v>2400</v>
+        <v>182</v>
       </c>
       <c r="G3" t="n">
-        <v>684.4166666666666</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>677</v>
+      </c>
+      <c r="K3" t="n">
+        <v>677</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,41 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C4" t="n">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D4" t="n">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E4" t="n">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="F4" t="n">
-        <v>843.0599</v>
+        <v>0.1886</v>
       </c>
       <c r="G4" t="n">
-        <v>684.3833333333333</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>16</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>677</v>
+      </c>
+      <c r="K4" t="n">
+        <v>677</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,41 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C5" t="n">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D5" t="n">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E5" t="n">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>950.6187</v>
       </c>
       <c r="G5" t="n">
-        <v>684.3333333333334</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>16</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+        <v>677</v>
+      </c>
+      <c r="K5" t="n">
+        <v>677</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,41 +593,41 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="C6" t="n">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D6" t="n">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E6" t="n">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>367</v>
       </c>
       <c r="G6" t="n">
-        <v>684.2833333333333</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>18</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+        <v>678</v>
+      </c>
+      <c r="K6" t="n">
+        <v>677</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,41 +636,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C7" t="n">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D7" t="n">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E7" t="n">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>135.846</v>
       </c>
       <c r="G7" t="n">
-        <v>684.15</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>679</v>
+      </c>
+      <c r="K7" t="n">
+        <v>677</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -717,41 +679,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>683</v>
+      </c>
+      <c r="C8" t="n">
+        <v>683</v>
+      </c>
+      <c r="D8" t="n">
+        <v>683</v>
+      </c>
+      <c r="E8" t="n">
+        <v>683</v>
+      </c>
+      <c r="F8" t="n">
+        <v>290.748</v>
+      </c>
+      <c r="G8" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
         <v>682</v>
       </c>
-      <c r="C8" t="n">
-        <v>682</v>
-      </c>
-      <c r="D8" t="n">
-        <v>682</v>
-      </c>
-      <c r="E8" t="n">
-        <v>682</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>683.95</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>21</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="K8" t="n">
+        <v>677</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,41 +722,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C9" t="n">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D9" t="n">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E9" t="n">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F9" t="n">
-        <v>15.5646</v>
+        <v>146.6275</v>
       </c>
       <c r="G9" t="n">
-        <v>683.7833333333333</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>23</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+        <v>683</v>
+      </c>
+      <c r="K9" t="n">
+        <v>677</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,41 +765,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C10" t="n">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D10" t="n">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E10" t="n">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F10" t="n">
-        <v>317.4693297810219</v>
+        <v>53.3263</v>
       </c>
       <c r="G10" t="n">
-        <v>683.6333333333333</v>
+        <v>-40</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>24</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>682</v>
+      </c>
+      <c r="K10" t="n">
+        <v>677</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,43 +808,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C11" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D11" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E11" t="n">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F11" t="n">
-        <v>35</v>
+        <v>9.0938</v>
       </c>
       <c r="G11" t="n">
-        <v>683.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>683.2</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>680</v>
+      </c>
+      <c r="K11" t="n">
+        <v>677</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,45 +851,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C12" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D12" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E12" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>683.35</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>680</v>
       </c>
       <c r="K12" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>683.3</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>677</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,45 +894,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C13" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D13" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E13" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>145.7832</v>
       </c>
       <c r="G13" t="n">
-        <v>683.3</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>680</v>
       </c>
       <c r="K13" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L13" t="n">
-        <v>684.3</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>677</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -985,45 +937,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C14" t="n">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D14" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E14" t="n">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="F14" t="n">
-        <v>526.4404702189781</v>
+        <v>1591.6707</v>
       </c>
       <c r="G14" t="n">
-        <v>683.15</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>680</v>
       </c>
       <c r="K14" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L14" t="n">
-        <v>684.6</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>677</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1032,45 +980,41 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="C15" t="n">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="D15" t="n">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="E15" t="n">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="F15" t="n">
-        <v>1631.7564</v>
+        <v>8.3293</v>
       </c>
       <c r="G15" t="n">
-        <v>683.0833333333334</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>29</v>
+        <v>679</v>
       </c>
       <c r="K15" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L15" t="n">
-        <v>685.3</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>677</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,45 +1023,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="C16" t="n">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="D16" t="n">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="E16" t="n">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="F16" t="n">
-        <v>386.1897</v>
+        <v>290</v>
       </c>
       <c r="G16" t="n">
-        <v>683</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>29</v>
+        <v>679</v>
       </c>
       <c r="K16" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L16" t="n">
-        <v>685.8</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>677</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,46 +1066,42 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C17" t="n">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D17" t="n">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="E17" t="n">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F17" t="n">
-        <v>86.1237</v>
+        <v>0.748</v>
       </c>
       <c r="G17" t="n">
-        <v>682.6666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>33</v>
+        <v>681</v>
       </c>
       <c r="K17" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L17" t="n">
-        <v>686.1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1</v>
+        <v>677</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>1.000908419497784</v>
       </c>
     </row>
     <row r="18">
@@ -1173,45 +1109,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C18" t="n">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="D18" t="n">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="E18" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>286.8788</v>
       </c>
       <c r="G18" t="n">
-        <v>682.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>37</v>
+        <v>681</v>
       </c>
       <c r="K18" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L18" t="n">
-        <v>686.9</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>681</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,45 +1148,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="C19" t="n">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="D19" t="n">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="E19" t="n">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>1903.9652</v>
       </c>
       <c r="G19" t="n">
-        <v>682.35</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>37</v>
+        <v>682</v>
       </c>
       <c r="K19" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L19" t="n">
-        <v>687.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>681</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1267,45 +1191,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C20" t="n">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D20" t="n">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E20" t="n">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F20" t="n">
-        <v>3.4551</v>
+        <v>9.7254</v>
       </c>
       <c r="G20" t="n">
-        <v>682.2666666666667</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>37</v>
+        <v>677</v>
       </c>
       <c r="K20" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L20" t="n">
-        <v>688</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>681</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,47 +1234,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="C21" t="n">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="D21" t="n">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="E21" t="n">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="F21" t="n">
-        <v>305.7723</v>
+        <v>255.3233</v>
       </c>
       <c r="G21" t="n">
-        <v>682.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>37</v>
+        <v>685</v>
       </c>
       <c r="K21" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L21" t="n">
-        <v>688.4</v>
+        <v>681</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>685.8</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,47 +1277,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="C22" t="n">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="D22" t="n">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="E22" t="n">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="F22" t="n">
-        <v>273.1518</v>
+        <v>116.0603</v>
       </c>
       <c r="G22" t="n">
-        <v>682.5333333333333</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>45</v>
+        <v>680</v>
       </c>
       <c r="K22" t="n">
-        <v>60</v>
-      </c>
-      <c r="L22" t="n">
-        <v>689.6</v>
+        <v>681</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>686.45</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,47 +1320,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="C23" t="n">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="D23" t="n">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="E23" t="n">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="F23" t="n">
-        <v>811.7913</v>
+        <v>65.3815</v>
       </c>
       <c r="G23" t="n">
-        <v>682.6666666666666</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>48</v>
+        <v>676</v>
       </c>
       <c r="K23" t="n">
-        <v>39.1304347826087</v>
-      </c>
-      <c r="L23" t="n">
-        <v>690.5</v>
+        <v>681</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>687.4</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,47 +1363,41 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="C24" t="n">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="D24" t="n">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="E24" t="n">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="F24" t="n">
-        <v>711.3327</v>
+        <v>333.9391</v>
       </c>
       <c r="G24" t="n">
-        <v>682.85</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>51</v>
+        <v>675</v>
       </c>
       <c r="K24" t="n">
-        <v>36.36363636363637</v>
-      </c>
-      <c r="L24" t="n">
-        <v>691.7</v>
+        <v>681</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>688.15</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,47 +1406,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="C25" t="n">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="D25" t="n">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="E25" t="n">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="F25" t="n">
-        <v>907.3094</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>683.0333333333333</v>
+        <v>-20</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>51</v>
+        <v>676</v>
       </c>
       <c r="K25" t="n">
-        <v>36.36363636363637</v>
-      </c>
-      <c r="L25" t="n">
-        <v>692.5</v>
+        <v>681</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>688.9</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,47 +1449,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>699</v>
+        <v>676</v>
       </c>
       <c r="C26" t="n">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="D26" t="n">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="E26" t="n">
-        <v>699</v>
+        <v>676</v>
       </c>
       <c r="F26" t="n">
-        <v>623.9759</v>
+        <v>140</v>
       </c>
       <c r="G26" t="n">
-        <v>683.2666666666667</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>53</v>
+        <v>676</v>
       </c>
       <c r="K26" t="n">
-        <v>70</v>
-      </c>
-      <c r="L26" t="n">
-        <v>693.5</v>
+        <v>681</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>689.65</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1608,47 +1492,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="C27" t="n">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="D27" t="n">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="E27" t="n">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="F27" t="n">
-        <v>92</v>
+        <v>142.3434</v>
       </c>
       <c r="G27" t="n">
-        <v>683.3666666666667</v>
+        <v>-15</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>60</v>
+        <v>684</v>
       </c>
       <c r="K27" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L27" t="n">
-        <v>694.2</v>
+        <v>681</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>690.15</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1657,47 +1535,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="C28" t="n">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="D28" t="n">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="E28" t="n">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="F28" t="n">
-        <v>46.4312</v>
+        <v>30</v>
       </c>
       <c r="G28" t="n">
-        <v>683.7333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>67</v>
+        <v>676</v>
       </c>
       <c r="K28" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L28" t="n">
-        <v>695.2</v>
+        <v>681</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>691.05</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1706,47 +1578,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="C29" t="n">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="D29" t="n">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="E29" t="n">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="F29" t="n">
-        <v>2949.4677</v>
+        <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>684.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>74</v>
+        <v>683</v>
       </c>
       <c r="K29" t="n">
-        <v>45.94594594594595</v>
-      </c>
-      <c r="L29" t="n">
-        <v>696.9</v>
+        <v>681</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>692.2</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1755,48 +1621,42 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="C30" t="n">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="D30" t="n">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="E30" t="n">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="F30" t="n">
-        <v>800</v>
+        <v>74.5887</v>
       </c>
       <c r="G30" t="n">
-        <v>684.7333333333333</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>74</v>
+        <v>685</v>
       </c>
       <c r="K30" t="n">
-        <v>45.94594594594595</v>
-      </c>
-      <c r="L30" t="n">
-        <v>698.6</v>
+        <v>681</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>693.3</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
-        <v>1</v>
+        <v>0.9905947136563876</v>
       </c>
     </row>
     <row r="31">
@@ -1804,49 +1664,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="C31" t="n">
-        <v>715</v>
+        <v>676</v>
       </c>
       <c r="D31" t="n">
-        <v>715</v>
+        <v>677</v>
       </c>
       <c r="E31" t="n">
-        <v>707</v>
+        <v>676</v>
       </c>
       <c r="F31" t="n">
-        <v>884.785</v>
+        <v>155.8222</v>
       </c>
       <c r="G31" t="n">
-        <v>685.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>82</v>
+        <v>678</v>
       </c>
       <c r="K31" t="n">
-        <v>45.94594594594595</v>
-      </c>
-      <c r="L31" t="n">
-        <v>701.1</v>
+        <v>676</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>694.75</v>
-      </c>
-      <c r="N31" t="n">
-        <v>690.9</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1855,49 +1707,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>715</v>
+        <v>678</v>
       </c>
       <c r="C32" t="n">
-        <v>722</v>
+        <v>685</v>
       </c>
       <c r="D32" t="n">
-        <v>722</v>
+        <v>685</v>
       </c>
       <c r="E32" t="n">
-        <v>715</v>
+        <v>678</v>
       </c>
       <c r="F32" t="n">
-        <v>2288.2228</v>
+        <v>28.9313</v>
       </c>
       <c r="G32" t="n">
-        <v>685.9333333333333</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>89</v>
+        <v>676</v>
       </c>
       <c r="K32" t="n">
-        <v>65.85365853658537</v>
-      </c>
-      <c r="L32" t="n">
-        <v>703.5</v>
+        <v>676</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>696.55</v>
-      </c>
-      <c r="N32" t="n">
-        <v>692.1333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,49 +1750,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>721</v>
+        <v>677</v>
       </c>
       <c r="C33" t="n">
-        <v>731</v>
+        <v>676</v>
       </c>
       <c r="D33" t="n">
-        <v>731</v>
+        <v>677</v>
       </c>
       <c r="E33" t="n">
-        <v>721</v>
+        <v>676</v>
       </c>
       <c r="F33" t="n">
-        <v>16293.7104</v>
+        <v>2400</v>
       </c>
       <c r="G33" t="n">
-        <v>686.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>98</v>
+        <v>685</v>
       </c>
       <c r="K33" t="n">
-        <v>70.21276595744681</v>
-      </c>
-      <c r="L33" t="n">
-        <v>707.1</v>
+        <v>676</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>698.8</v>
-      </c>
-      <c r="N33" t="n">
-        <v>693.9666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,49 +1793,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>731</v>
+        <v>676</v>
       </c>
       <c r="C34" t="n">
-        <v>737</v>
+        <v>683</v>
       </c>
       <c r="D34" t="n">
-        <v>737</v>
+        <v>683</v>
       </c>
       <c r="E34" t="n">
-        <v>730</v>
+        <v>673</v>
       </c>
       <c r="F34" t="n">
-        <v>10272.7509</v>
+        <v>843.0599</v>
       </c>
       <c r="G34" t="n">
-        <v>687.8333333333334</v>
+        <v>11.86440677966102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>104</v>
+        <v>676</v>
       </c>
       <c r="K34" t="n">
-        <v>73.58490566037736</v>
-      </c>
-      <c r="L34" t="n">
-        <v>711</v>
+        <v>676</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>701.35</v>
-      </c>
-      <c r="N34" t="n">
-        <v>695.7666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,49 +1836,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>737</v>
+        <v>683</v>
       </c>
       <c r="C35" t="n">
-        <v>735</v>
+        <v>683</v>
       </c>
       <c r="D35" t="n">
-        <v>737</v>
+        <v>683</v>
       </c>
       <c r="E35" t="n">
-        <v>730</v>
+        <v>683</v>
       </c>
       <c r="F35" t="n">
-        <v>12885.05793972789</v>
+        <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>688.7833333333333</v>
+        <v>-1.96078431372549</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>106</v>
+        <v>683</v>
       </c>
       <c r="K35" t="n">
-        <v>66.0377358490566</v>
-      </c>
-      <c r="L35" t="n">
-        <v>714.7</v>
+        <v>676</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>703.6</v>
-      </c>
-      <c r="N35" t="n">
-        <v>697.5</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,49 +1879,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>735</v>
+        <v>685</v>
       </c>
       <c r="C36" t="n">
-        <v>735</v>
+        <v>685</v>
       </c>
       <c r="D36" t="n">
-        <v>735</v>
+        <v>685</v>
       </c>
       <c r="E36" t="n">
-        <v>735</v>
+        <v>685</v>
       </c>
       <c r="F36" t="n">
-        <v>440.2394</v>
+        <v>15</v>
       </c>
       <c r="G36" t="n">
-        <v>689.7166666666667</v>
+        <v>20</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>106</v>
+        <v>683</v>
       </c>
       <c r="K36" t="n">
-        <v>91.30434782608695</v>
-      </c>
-      <c r="L36" t="n">
-        <v>718.2</v>
+        <v>676</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>705.85</v>
-      </c>
-      <c r="N36" t="n">
-        <v>699.1666666666666</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,49 +1922,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>726</v>
+        <v>684</v>
       </c>
       <c r="C37" t="n">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="D37" t="n">
-        <v>726</v>
+        <v>684</v>
       </c>
       <c r="E37" t="n">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="F37" t="n">
-        <v>462.6474</v>
+        <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>690.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>116</v>
+        <v>685</v>
       </c>
       <c r="K37" t="n">
-        <v>51.02040816326531</v>
-      </c>
-      <c r="L37" t="n">
-        <v>721.4</v>
+        <v>676</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>707.8</v>
-      </c>
-      <c r="N37" t="n">
-        <v>700.5666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2161,49 +1965,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>709</v>
+        <v>682</v>
       </c>
       <c r="C38" t="n">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="D38" t="n">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="E38" t="n">
-        <v>709</v>
+        <v>682</v>
       </c>
       <c r="F38" t="n">
-        <v>197.2136</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>691.1</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>118</v>
+        <v>683</v>
       </c>
       <c r="K38" t="n">
-        <v>36.36363636363637</v>
-      </c>
-      <c r="L38" t="n">
-        <v>723.7</v>
+        <v>676</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>709.45</v>
-      </c>
-      <c r="N38" t="n">
-        <v>701.9333333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,49 +2008,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="C39" t="n">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="D39" t="n">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="E39" t="n">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="F39" t="n">
-        <v>176.2241</v>
+        <v>15.5646</v>
       </c>
       <c r="G39" t="n">
-        <v>691.5333333333333</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>133</v>
+        <v>682</v>
       </c>
       <c r="K39" t="n">
-        <v>1.694915254237288</v>
-      </c>
-      <c r="L39" t="n">
-        <v>723.8</v>
+        <v>676</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>710.35</v>
-      </c>
-      <c r="N39" t="n">
-        <v>702.7333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,49 +2051,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>711</v>
+        <v>684</v>
       </c>
       <c r="C40" t="n">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="D40" t="n">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="E40" t="n">
-        <v>711</v>
+        <v>684</v>
       </c>
       <c r="F40" t="n">
-        <v>1795.2618</v>
+        <v>317.4693297810219</v>
       </c>
       <c r="G40" t="n">
-        <v>692.0666666666667</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>137</v>
+        <v>684</v>
       </c>
       <c r="K40" t="n">
-        <v>-5.454545454545454</v>
-      </c>
-      <c r="L40" t="n">
-        <v>724.3</v>
+        <v>676</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>711.45</v>
-      </c>
-      <c r="N40" t="n">
-        <v>703.6333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,49 +2094,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="C41" t="n">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="D41" t="n">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="E41" t="n">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="G41" t="n">
-        <v>692.6</v>
+        <v>4</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>137</v>
+        <v>685</v>
       </c>
       <c r="K41" t="n">
-        <v>-20.83333333333334</v>
-      </c>
-      <c r="L41" t="n">
-        <v>724</v>
+        <v>676</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>712.55</v>
-      </c>
-      <c r="N41" t="n">
-        <v>704.5</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2365,50 +2137,42 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="C42" t="n">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="D42" t="n">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="E42" t="n">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="F42" t="n">
-        <v>337.0830949438202</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>693.1333333333333</v>
+        <v>62.5</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>137</v>
+        <v>686</v>
       </c>
       <c r="K42" t="n">
-        <v>-48.71794871794872</v>
-      </c>
-      <c r="L42" t="n">
-        <v>723</v>
+        <v>676</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>713.25</v>
-      </c>
-      <c r="N42" t="n">
-        <v>705.3666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
-        <v>1</v>
+        <v>1.009792899408284</v>
       </c>
     </row>
     <row r="43">
@@ -2416,49 +2180,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="C43" t="n">
-        <v>713</v>
+        <v>686</v>
       </c>
       <c r="D43" t="n">
-        <v>713</v>
+        <v>686</v>
       </c>
       <c r="E43" t="n">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="F43" t="n">
-        <v>864.8949</v>
+        <v>12</v>
       </c>
       <c r="G43" t="n">
-        <v>693.6833333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>138</v>
+        <v>686</v>
       </c>
       <c r="K43" t="n">
-        <v>-70.58823529411765</v>
-      </c>
-      <c r="L43" t="n">
-        <v>721.2</v>
+        <v>686</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>714.15</v>
-      </c>
-      <c r="N43" t="n">
-        <v>706.2666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,49 +2223,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="C44" t="n">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="D44" t="n">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="E44" t="n">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="F44" t="n">
-        <v>99.75</v>
+        <v>526.4404702189781</v>
       </c>
       <c r="G44" t="n">
-        <v>694.1833333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>142</v>
+        <v>686</v>
       </c>
       <c r="K44" t="n">
-        <v>-72.22222222222221</v>
-      </c>
-      <c r="L44" t="n">
-        <v>718.4</v>
+        <v>686</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>714.7</v>
-      </c>
-      <c r="N44" t="n">
-        <v>707.0333333333333</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,49 +2266,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="C45" t="n">
-        <v>712</v>
+        <v>690</v>
       </c>
       <c r="D45" t="n">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="E45" t="n">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="F45" t="n">
-        <v>1069.4467</v>
+        <v>1631.7564</v>
       </c>
       <c r="G45" t="n">
-        <v>694.7333333333333</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>145</v>
+        <v>686</v>
       </c>
       <c r="K45" t="n">
-        <v>-58.97435897435898</v>
-      </c>
-      <c r="L45" t="n">
-        <v>716.1</v>
+        <v>686</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>715.4</v>
-      </c>
-      <c r="N45" t="n">
-        <v>707.7666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2569,49 +2309,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="C46" t="n">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="D46" t="n">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="E46" t="n">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="F46" t="n">
-        <v>1708.29</v>
+        <v>386.1897</v>
       </c>
       <c r="G46" t="n">
-        <v>695.2</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>148</v>
+        <v>690</v>
       </c>
       <c r="K46" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L46" t="n">
-        <v>713.5</v>
+        <v>686</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>715.85</v>
-      </c>
-      <c r="N46" t="n">
-        <v>708.4</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,49 +2352,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="C47" t="n">
-        <v>710</v>
+        <v>686</v>
       </c>
       <c r="D47" t="n">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="E47" t="n">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="F47" t="n">
-        <v>1032.8815</v>
+        <v>86.1237</v>
       </c>
       <c r="G47" t="n">
-        <v>695.6833333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>149</v>
+        <v>690</v>
       </c>
       <c r="K47" t="n">
-        <v>-41.93548387096774</v>
-      </c>
-      <c r="L47" t="n">
-        <v>712</v>
+        <v>686</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>716.7</v>
-      </c>
-      <c r="N47" t="n">
-        <v>709.2</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,49 +2395,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="C48" t="n">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="D48" t="n">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="E48" t="n">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="F48" t="n">
-        <v>874.4203</v>
+        <v>17</v>
       </c>
       <c r="G48" t="n">
-        <v>696.05</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>155</v>
+        <v>686</v>
       </c>
       <c r="K48" t="n">
-        <v>-18.18181818181818</v>
-      </c>
-      <c r="L48" t="n">
-        <v>710.1</v>
+        <v>686</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>716.9</v>
-      </c>
-      <c r="N48" t="n">
-        <v>709.6666666666666</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,49 +2438,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="C49" t="n">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="D49" t="n">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="E49" t="n">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="F49" t="n">
-        <v>4599.0366</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>696.4333333333333</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>159</v>
+        <v>690</v>
       </c>
       <c r="K49" t="n">
-        <v>-54.54545454545454</v>
-      </c>
-      <c r="L49" t="n">
-        <v>709.3</v>
+        <v>686</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>716.55</v>
-      </c>
-      <c r="N49" t="n">
-        <v>710</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2773,49 +2481,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="C50" t="n">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="D50" t="n">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="E50" t="n">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="F50" t="n">
-        <v>2354.7693</v>
+        <v>3.4551</v>
       </c>
       <c r="G50" t="n">
-        <v>696.6833333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>159</v>
+        <v>690</v>
       </c>
       <c r="K50" t="n">
-        <v>-54.54545454545454</v>
-      </c>
-      <c r="L50" t="n">
-        <v>708.1</v>
+        <v>686</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>716.2</v>
-      </c>
-      <c r="N50" t="n">
-        <v>710.3333333333334</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2824,49 +2524,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="C51" t="n">
-        <v>717</v>
+        <v>690</v>
       </c>
       <c r="D51" t="n">
-        <v>717</v>
+        <v>690</v>
       </c>
       <c r="E51" t="n">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="F51" t="n">
-        <v>4006.6039</v>
+        <v>305.7723</v>
       </c>
       <c r="G51" t="n">
-        <v>697.3</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>176</v>
+        <v>690</v>
       </c>
       <c r="K51" t="n">
-        <v>12.82051282051282</v>
-      </c>
-      <c r="L51" t="n">
-        <v>708.6</v>
+        <v>686</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>716.3</v>
-      </c>
-      <c r="N51" t="n">
-        <v>711.2333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2875,49 +2567,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="C52" t="n">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="D52" t="n">
-        <v>722</v>
+        <v>698</v>
       </c>
       <c r="E52" t="n">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="F52" t="n">
-        <v>12035.275</v>
+        <v>273.1518</v>
       </c>
       <c r="G52" t="n">
-        <v>698.0333333333333</v>
+        <v>60</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>179</v>
+        <v>690</v>
       </c>
       <c r="K52" t="n">
-        <v>17.07317073170732</v>
-      </c>
-      <c r="L52" t="n">
-        <v>709.4</v>
+        <v>686</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>716.2</v>
-      </c>
-      <c r="N52" t="n">
-        <v>711.9666666666667</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,49 +2610,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>721</v>
+        <v>694</v>
       </c>
       <c r="C53" t="n">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="D53" t="n">
-        <v>721</v>
+        <v>695</v>
       </c>
       <c r="E53" t="n">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="F53" t="n">
-        <v>10.775</v>
+        <v>811.7913</v>
       </c>
       <c r="G53" t="n">
-        <v>698.7833333333333</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>179</v>
+        <v>698</v>
       </c>
       <c r="K53" t="n">
-        <v>29.72972972972973</v>
-      </c>
-      <c r="L53" t="n">
-        <v>710.1</v>
+        <v>686</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>715.65</v>
-      </c>
-      <c r="N53" t="n">
-        <v>712.8</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2977,49 +2653,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="C54" t="n">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="D54" t="n">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="E54" t="n">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="F54" t="n">
-        <v>1943.6333</v>
+        <v>711.3327</v>
       </c>
       <c r="G54" t="n">
-        <v>699.5166666666667</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>179</v>
+        <v>695</v>
       </c>
       <c r="K54" t="n">
-        <v>23.52941176470588</v>
-      </c>
-      <c r="L54" t="n">
-        <v>711.2</v>
+        <v>686</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>714.8</v>
-      </c>
-      <c r="N54" t="n">
-        <v>713.5333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3028,49 +2696,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="C55" t="n">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="D55" t="n">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="E55" t="n">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="F55" t="n">
-        <v>634.2564</v>
+        <v>907.3094</v>
       </c>
       <c r="G55" t="n">
-        <v>700.15</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>185</v>
+        <v>698</v>
       </c>
       <c r="K55" t="n">
-        <v>13.51351351351351</v>
-      </c>
-      <c r="L55" t="n">
-        <v>711.4</v>
+        <v>686</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>713.75</v>
-      </c>
-      <c r="N55" t="n">
-        <v>714.0666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,50 +2739,42 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="C56" t="n">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="D56" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="E56" t="n">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="F56" t="n">
-        <v>67.34</v>
+        <v>623.9759</v>
       </c>
       <c r="G56" t="n">
-        <v>700.6666666666666</v>
+        <v>70</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>186</v>
+        <v>698</v>
       </c>
       <c r="K56" t="n">
-        <v>13.51351351351351</v>
-      </c>
-      <c r="L56" t="n">
-        <v>712</v>
+        <v>686</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>712.75</v>
-      </c>
-      <c r="N56" t="n">
-        <v>714.5666666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
-        <v>1</v>
+        <v>1.015408163265306</v>
       </c>
     </row>
     <row r="57">
@@ -3130,49 +2782,41 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="C57" t="n">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="D57" t="n">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="E57" t="n">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="F57" t="n">
-        <v>384.8154</v>
+        <v>92</v>
       </c>
       <c r="G57" t="n">
-        <v>701.3</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>187</v>
+        <v>700</v>
       </c>
       <c r="K57" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="L57" t="n">
-        <v>712.4</v>
+        <v>695</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>712.2</v>
-      </c>
-      <c r="N57" t="n">
-        <v>715.2666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,49 +2825,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="C58" t="n">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="D58" t="n">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="E58" t="n">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>46.4312</v>
       </c>
       <c r="G58" t="n">
-        <v>701.8333333333334</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>188</v>
+        <v>693</v>
       </c>
       <c r="K58" t="n">
-        <v>51.72413793103448</v>
-      </c>
-      <c r="L58" t="n">
-        <v>713.5</v>
+        <v>695</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>711.8</v>
-      </c>
-      <c r="N58" t="n">
-        <v>715.7666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,49 +2868,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="C59" t="n">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="D59" t="n">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E59" t="n">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="F59" t="n">
-        <v>150</v>
+        <v>2949.4677</v>
       </c>
       <c r="G59" t="n">
-        <v>702.3166666666667</v>
+        <v>45.94594594594595</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>189</v>
+        <v>700</v>
       </c>
       <c r="K59" t="n">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="L59" t="n">
-        <v>714.9</v>
+        <v>695</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>712.1</v>
-      </c>
-      <c r="N59" t="n">
-        <v>716</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,49 +2911,41 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C60" t="n">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D60" t="n">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E60" t="n">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F60" t="n">
-        <v>2097.9026</v>
+        <v>800</v>
       </c>
       <c r="G60" t="n">
-        <v>702.85</v>
+        <v>45.94594594594595</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>193</v>
+        <v>707</v>
       </c>
       <c r="K60" t="n">
-        <v>-41.17647058823529</v>
-      </c>
-      <c r="L60" t="n">
-        <v>715.9</v>
+        <v>695</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>712</v>
-      </c>
-      <c r="N60" t="n">
-        <v>716.1</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,49 +2954,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C61" t="n">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="D61" t="n">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="E61" t="n">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="F61" t="n">
-        <v>13400.9083</v>
+        <v>884.785</v>
       </c>
       <c r="G61" t="n">
-        <v>703.1333333333333</v>
+        <v>45.94594594594595</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>210</v>
+        <v>707</v>
       </c>
       <c r="K61" t="n">
-        <v>-87.09677419354838</v>
-      </c>
-      <c r="L61" t="n">
-        <v>713.5</v>
+        <v>695</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>711.05</v>
-      </c>
-      <c r="N61" t="n">
-        <v>715.3666666666667</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3385,49 +2997,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="C62" t="n">
-        <v>702</v>
+        <v>722</v>
       </c>
       <c r="D62" t="n">
-        <v>702</v>
+        <v>722</v>
       </c>
       <c r="E62" t="n">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="F62" t="n">
-        <v>927.2435</v>
+        <v>2288.2228</v>
       </c>
       <c r="G62" t="n">
-        <v>703.4166666666666</v>
+        <v>65.85365853658537</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>219</v>
+        <v>715</v>
       </c>
       <c r="K62" t="n">
-        <v>-45</v>
-      </c>
-      <c r="L62" t="n">
-        <v>711.7</v>
+        <v>695</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>710.55</v>
-      </c>
-      <c r="N62" t="n">
-        <v>714.7</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,49 +3040,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="C63" t="n">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="D63" t="n">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="E63" t="n">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="F63" t="n">
-        <v>546.4466</v>
+        <v>16293.7104</v>
       </c>
       <c r="G63" t="n">
-        <v>703.8333333333334</v>
+        <v>70.21276595744681</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>220</v>
+        <v>722</v>
       </c>
       <c r="K63" t="n">
-        <v>-46.34146341463415</v>
-      </c>
-      <c r="L63" t="n">
-        <v>709.8</v>
+        <v>695</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>709.95</v>
-      </c>
-      <c r="N63" t="n">
-        <v>713.7</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3487,49 +3083,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="C64" t="n">
-        <v>705</v>
+        <v>737</v>
       </c>
       <c r="D64" t="n">
-        <v>705</v>
+        <v>737</v>
       </c>
       <c r="E64" t="n">
-        <v>701</v>
+        <v>730</v>
       </c>
       <c r="F64" t="n">
-        <v>410.8349</v>
+        <v>10272.7509</v>
       </c>
       <c r="G64" t="n">
-        <v>704.2</v>
+        <v>73.58490566037736</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>224</v>
+        <v>731</v>
       </c>
       <c r="K64" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L64" t="n">
-        <v>708.3</v>
+        <v>695</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>709.75</v>
-      </c>
-      <c r="N64" t="n">
-        <v>712.6333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,49 +3126,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>703</v>
+        <v>737</v>
       </c>
       <c r="C65" t="n">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="D65" t="n">
-        <v>710</v>
+        <v>737</v>
       </c>
       <c r="E65" t="n">
-        <v>703</v>
+        <v>730</v>
       </c>
       <c r="F65" t="n">
-        <v>101</v>
+        <v>12885.05793972789</v>
       </c>
       <c r="G65" t="n">
-        <v>704.65</v>
+        <v>66.0377358490566</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>229</v>
+        <v>737</v>
       </c>
       <c r="K65" t="n">
-        <v>-11.62790697674419</v>
-      </c>
-      <c r="L65" t="n">
-        <v>707.9</v>
+        <v>695</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>709.65</v>
-      </c>
-      <c r="N65" t="n">
-        <v>711.8</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3589,49 +3169,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>702</v>
+        <v>735</v>
       </c>
       <c r="C66" t="n">
-        <v>702</v>
+        <v>735</v>
       </c>
       <c r="D66" t="n">
-        <v>702</v>
+        <v>735</v>
       </c>
       <c r="E66" t="n">
-        <v>702</v>
+        <v>735</v>
       </c>
       <c r="F66" t="n">
-        <v>387.7222</v>
+        <v>440.2394</v>
       </c>
       <c r="G66" t="n">
-        <v>704.9333333333333</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>237</v>
+        <v>735</v>
       </c>
       <c r="K66" t="n">
-        <v>-24</v>
-      </c>
-      <c r="L66" t="n">
-        <v>706.6</v>
+        <v>695</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>709.3</v>
-      </c>
-      <c r="N66" t="n">
-        <v>710.7</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,49 +3212,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>708</v>
+        <v>726</v>
       </c>
       <c r="C67" t="n">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="D67" t="n">
-        <v>708</v>
+        <v>726</v>
       </c>
       <c r="E67" t="n">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>462.6474</v>
       </c>
       <c r="G67" t="n">
-        <v>705.35</v>
+        <v>51.02040816326531</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>243</v>
+        <v>735</v>
       </c>
       <c r="K67" t="n">
-        <v>-12.72727272727273</v>
-      </c>
-      <c r="L67" t="n">
-        <v>706</v>
+        <v>695</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>709.2</v>
-      </c>
-      <c r="N67" t="n">
-        <v>710.1333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3691,50 +3255,42 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C68" t="n">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="D68" t="n">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="E68" t="n">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>197.2136</v>
       </c>
       <c r="G68" t="n">
-        <v>705.7833333333333</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>243</v>
+        <v>725</v>
       </c>
       <c r="K68" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L68" t="n">
-        <v>705.3</v>
+        <v>695</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>709.4</v>
-      </c>
-      <c r="N68" t="n">
-        <v>709.6333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
-        <v>1</v>
+        <v>1.035287769784173</v>
       </c>
     </row>
     <row r="69">
@@ -3742,49 +3298,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="C69" t="n">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D69" t="n">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E69" t="n">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="F69" t="n">
-        <v>1419.8833</v>
+        <v>176.2241</v>
       </c>
       <c r="G69" t="n">
-        <v>706.2</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>244</v>
+        <v>723</v>
       </c>
       <c r="K69" t="n">
-        <v>-1.96078431372549</v>
-      </c>
-      <c r="L69" t="n">
-        <v>704.8</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>709.85</v>
-      </c>
-      <c r="N69" t="n">
-        <v>709.6666666666666</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,49 +3337,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="C70" t="n">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D70" t="n">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E70" t="n">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="F70" t="n">
-        <v>410.2738</v>
+        <v>1795.2618</v>
       </c>
       <c r="G70" t="n">
-        <v>706.6166666666667</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>245</v>
+        <v>708</v>
       </c>
       <c r="K70" t="n">
-        <v>48.57142857142857</v>
-      </c>
-      <c r="L70" t="n">
-        <v>704.8</v>
+        <v>723</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>710.35</v>
-      </c>
-      <c r="N70" t="n">
-        <v>709.6</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,49 +3380,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="C71" t="n">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="D71" t="n">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="E71" t="n">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="F71" t="n">
-        <v>339.9547</v>
+        <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>706.85</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>255</v>
+        <v>712</v>
       </c>
       <c r="K71" t="n">
-        <v>-5.555555555555555</v>
-      </c>
-      <c r="L71" t="n">
-        <v>705.5</v>
+        <v>723</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>709.5</v>
-      </c>
-      <c r="N71" t="n">
-        <v>709.2</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3895,49 +3423,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="C72" t="n">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="D72" t="n">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="E72" t="n">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>337.0830949438202</v>
       </c>
       <c r="G72" t="n">
-        <v>707.15</v>
+        <v>-48.71794871794872</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>259</v>
+        <v>712</v>
       </c>
       <c r="K72" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L72" t="n">
-        <v>705.7</v>
+        <v>723</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>708.7</v>
-      </c>
-      <c r="N72" t="n">
-        <v>708.9333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,49 +3466,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="C73" t="n">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="D73" t="n">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="E73" t="n">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="F73" t="n">
-        <v>933.4361</v>
+        <v>864.8949</v>
       </c>
       <c r="G73" t="n">
-        <v>707.3</v>
+        <v>-70.58823529411765</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>268</v>
+        <v>712</v>
       </c>
       <c r="K73" t="n">
-        <v>-22.72727272727273</v>
-      </c>
-      <c r="L73" t="n">
-        <v>705.1</v>
+        <v>723</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>707.45</v>
-      </c>
-      <c r="N73" t="n">
-        <v>708.3333333333334</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3997,49 +3509,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="C74" t="n">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="D74" t="n">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="E74" t="n">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="F74" t="n">
-        <v>399.4978</v>
+        <v>99.75</v>
       </c>
       <c r="G74" t="n">
-        <v>707.3833333333333</v>
+        <v>-72.22222222222221</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>272</v>
+        <v>713</v>
       </c>
       <c r="K74" t="n">
-        <v>-44.18604651162791</v>
-      </c>
-      <c r="L74" t="n">
-        <v>703.7</v>
+        <v>723</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>706</v>
-      </c>
-      <c r="N74" t="n">
-        <v>707.7333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,49 +3552,41 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="C75" t="n">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="D75" t="n">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="E75" t="n">
-        <v>686</v>
+        <v>709</v>
       </c>
       <c r="F75" t="n">
-        <v>821.4627</v>
+        <v>1069.4467</v>
       </c>
       <c r="G75" t="n">
-        <v>707.3166666666667</v>
+        <v>-58.97435897435898</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>277</v>
+        <v>709</v>
       </c>
       <c r="K75" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L75" t="n">
-        <v>701.3</v>
+        <v>723</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>704.6</v>
-      </c>
-      <c r="N75" t="n">
-        <v>706.8666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4099,49 +3595,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="C76" t="n">
-        <v>686</v>
+        <v>709</v>
       </c>
       <c r="D76" t="n">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="E76" t="n">
-        <v>686</v>
+        <v>709</v>
       </c>
       <c r="F76" t="n">
-        <v>170.139</v>
+        <v>1708.29</v>
       </c>
       <c r="G76" t="n">
-        <v>707.25</v>
+        <v>-50</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>277</v>
+        <v>712</v>
       </c>
       <c r="K76" t="n">
-        <v>-64.70588235294117</v>
-      </c>
-      <c r="L76" t="n">
-        <v>699.7</v>
+        <v>723</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>703.15</v>
-      </c>
-      <c r="N76" t="n">
-        <v>706.1</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,49 +3638,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="C77" t="n">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="D77" t="n">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="E77" t="n">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>1032.8815</v>
       </c>
       <c r="G77" t="n">
-        <v>707.3333333333334</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>282</v>
+        <v>709</v>
       </c>
       <c r="K77" t="n">
-        <v>-43.58974358974359</v>
-      </c>
-      <c r="L77" t="n">
-        <v>698</v>
+        <v>723</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>702</v>
-      </c>
-      <c r="N77" t="n">
-        <v>705.4666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4201,49 +3681,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="C78" t="n">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D78" t="n">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E78" t="n">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="F78" t="n">
-        <v>999.7</v>
+        <v>874.4203</v>
       </c>
       <c r="G78" t="n">
-        <v>707.65</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>300</v>
+        <v>710</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>698.1</v>
+        <v>723</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>701.7</v>
-      </c>
-      <c r="N78" t="n">
-        <v>705.6333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,49 +3724,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C79" t="n">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="D79" t="n">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="E79" t="n">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F79" t="n">
-        <v>381.1563</v>
+        <v>4599.0366</v>
       </c>
       <c r="G79" t="n">
-        <v>707.9666666666667</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>300</v>
+        <v>704</v>
       </c>
       <c r="K79" t="n">
-        <v>-1.818181818181818</v>
-      </c>
-      <c r="L79" t="n">
-        <v>698.1</v>
+        <v>723</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>701.45</v>
-      </c>
-      <c r="N79" t="n">
-        <v>705.9333333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4303,49 +3767,41 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="C80" t="n">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="D80" t="n">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="E80" t="n">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>2354.7693</v>
       </c>
       <c r="G80" t="n">
-        <v>707.9</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>323</v>
+        <v>700</v>
       </c>
       <c r="K80" t="n">
-        <v>-20.58823529411764</v>
-      </c>
-      <c r="L80" t="n">
-        <v>695.7</v>
+        <v>723</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>700.25</v>
-      </c>
-      <c r="N80" t="n">
-        <v>705.4666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,50 +3810,42 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="C81" t="n">
-        <v>688</v>
+        <v>717</v>
       </c>
       <c r="D81" t="n">
-        <v>688</v>
+        <v>717</v>
       </c>
       <c r="E81" t="n">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="F81" t="n">
-        <v>219.1</v>
+        <v>4006.6039</v>
       </c>
       <c r="G81" t="n">
-        <v>707.8666666666667</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>325</v>
+        <v>700</v>
       </c>
       <c r="K81" t="n">
-        <v>-24.24242424242424</v>
-      </c>
-      <c r="L81" t="n">
-        <v>694.5</v>
+        <v>723</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>700</v>
-      </c>
-      <c r="N81" t="n">
-        <v>704.5</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
-        <v>1</v>
+        <v>0.986701244813278</v>
       </c>
     </row>
     <row r="82">
@@ -4405,49 +3853,41 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>688</v>
+        <v>717</v>
       </c>
       <c r="C82" t="n">
-        <v>686</v>
+        <v>720</v>
       </c>
       <c r="D82" t="n">
-        <v>688</v>
+        <v>722</v>
       </c>
       <c r="E82" t="n">
-        <v>686</v>
+        <v>717</v>
       </c>
       <c r="F82" t="n">
-        <v>1007.6458</v>
+        <v>12035.275</v>
       </c>
       <c r="G82" t="n">
-        <v>707.6666666666666</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>327</v>
+        <v>717</v>
       </c>
       <c r="K82" t="n">
-        <v>-15.25423728813559</v>
-      </c>
-      <c r="L82" t="n">
-        <v>692.7</v>
+        <v>700</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>699.2</v>
-      </c>
-      <c r="N82" t="n">
-        <v>703.3666666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,49 +3896,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>686</v>
+        <v>721</v>
       </c>
       <c r="C83" t="n">
-        <v>676</v>
+        <v>720</v>
       </c>
       <c r="D83" t="n">
-        <v>686</v>
+        <v>721</v>
       </c>
       <c r="E83" t="n">
-        <v>676</v>
+        <v>720</v>
       </c>
       <c r="F83" t="n">
-        <v>2830.278129781022</v>
+        <v>10.775</v>
       </c>
       <c r="G83" t="n">
-        <v>707.35</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>337</v>
+        <v>720</v>
       </c>
       <c r="K83" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L83" t="n">
-        <v>690.8</v>
+        <v>700</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>697.95</v>
-      </c>
-      <c r="N83" t="n">
-        <v>701.9</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,49 +3939,41 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>673</v>
+        <v>719</v>
       </c>
       <c r="C84" t="n">
-        <v>672</v>
+        <v>720</v>
       </c>
       <c r="D84" t="n">
-        <v>673</v>
+        <v>720</v>
       </c>
       <c r="E84" t="n">
-        <v>672</v>
+        <v>719</v>
       </c>
       <c r="F84" t="n">
-        <v>422.0303</v>
+        <v>1943.6333</v>
       </c>
       <c r="G84" t="n">
-        <v>706.9166666666666</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>341</v>
+        <v>720</v>
       </c>
       <c r="K84" t="n">
-        <v>-21.875</v>
-      </c>
-      <c r="L84" t="n">
-        <v>688.9</v>
+        <v>700</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>696.3</v>
-      </c>
-      <c r="N84" t="n">
-        <v>700.3</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,49 +3982,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="C85" t="n">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="D85" t="n">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="E85" t="n">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>634.2564</v>
       </c>
       <c r="G85" t="n">
-        <v>706.8</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="K85" t="n">
-        <v>6.024096385542169</v>
-      </c>
-      <c r="L85" t="n">
-        <v>689.4</v>
+        <v>700</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>695.35</v>
-      </c>
-      <c r="N85" t="n">
-        <v>699.5333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4609,49 +4025,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="C86" t="n">
-        <v>687</v>
+        <v>715</v>
       </c>
       <c r="D86" t="n">
-        <v>687</v>
+        <v>720</v>
       </c>
       <c r="E86" t="n">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>67.34</v>
       </c>
       <c r="G86" t="n">
-        <v>706.5833333333334</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>364</v>
+        <v>714</v>
       </c>
       <c r="K86" t="n">
-        <v>-4.878048780487805</v>
-      </c>
-      <c r="L86" t="n">
-        <v>689.5</v>
+        <v>700</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>694.6</v>
-      </c>
-      <c r="N86" t="n">
-        <v>698.6</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,49 +4068,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="C87" t="n">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="D87" t="n">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="E87" t="n">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>384.8154</v>
       </c>
       <c r="G87" t="n">
-        <v>706.3666666666667</v>
+        <v>31.25</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>371</v>
+        <v>715</v>
       </c>
       <c r="K87" t="n">
-        <v>-40.84507042253522</v>
-      </c>
-      <c r="L87" t="n">
-        <v>688.4</v>
+        <v>700</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>693.2</v>
-      </c>
-      <c r="N87" t="n">
-        <v>697.4666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4711,49 +4111,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="C88" t="n">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="D88" t="n">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="E88" t="n">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>706.3</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>387</v>
+        <v>714</v>
       </c>
       <c r="K88" t="n">
-        <v>-14.94252873563219</v>
-      </c>
-      <c r="L88" t="n">
-        <v>687.1</v>
+        <v>700</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>692.6</v>
-      </c>
-      <c r="N88" t="n">
-        <v>696.8333333333334</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4762,49 +4154,41 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="C89" t="n">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="D89" t="n">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="E89" t="n">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="F89" t="n">
-        <v>985.4604</v>
+        <v>150</v>
       </c>
       <c r="G89" t="n">
-        <v>705.95</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>397</v>
+        <v>715</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>684.8</v>
+        <v>700</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>691.45</v>
-      </c>
-      <c r="N89" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4813,49 +4197,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="C90" t="n">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="D90" t="n">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="E90" t="n">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="F90" t="n">
-        <v>88.3565</v>
+        <v>2097.9026</v>
       </c>
       <c r="G90" t="n">
-        <v>705.8</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>409</v>
+        <v>714</v>
       </c>
       <c r="K90" t="n">
-        <v>11.9047619047619</v>
-      </c>
-      <c r="L90" t="n">
-        <v>686</v>
+        <v>700</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>690.85</v>
-      </c>
-      <c r="N90" t="n">
-        <v>695.5</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,49 +4240,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="C91" t="n">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="D91" t="n">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="E91" t="n">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F91" t="n">
-        <v>595.6288</v>
+        <v>13400.9083</v>
       </c>
       <c r="G91" t="n">
-        <v>705.3833333333333</v>
+        <v>-87.09677419354838</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>417</v>
+        <v>710</v>
       </c>
       <c r="K91" t="n">
-        <v>4.444444444444445</v>
-      </c>
-      <c r="L91" t="n">
-        <v>686.2</v>
+        <v>700</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>690.35</v>
-      </c>
-      <c r="N91" t="n">
-        <v>695.4</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4915,49 +4283,41 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="C92" t="n">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="D92" t="n">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="E92" t="n">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="F92" t="n">
-        <v>795.0866</v>
+        <v>927.2435</v>
       </c>
       <c r="G92" t="n">
-        <v>704.7833333333333</v>
+        <v>-45</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>421</v>
+        <v>693</v>
       </c>
       <c r="K92" t="n">
-        <v>11.9047619047619</v>
-      </c>
-      <c r="L92" t="n">
-        <v>686.2</v>
+        <v>700</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>689.45</v>
-      </c>
-      <c r="N92" t="n">
-        <v>694.8666666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,49 +4326,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>701</v>
+      </c>
+      <c r="C93" t="n">
+        <v>701</v>
+      </c>
+      <c r="D93" t="n">
+        <v>701</v>
+      </c>
+      <c r="E93" t="n">
+        <v>701</v>
+      </c>
+      <c r="F93" t="n">
+        <v>546.4466</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-46.34146341463415</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
         <v>702</v>
       </c>
-      <c r="C93" t="n">
-        <v>702</v>
-      </c>
-      <c r="D93" t="n">
-        <v>702</v>
-      </c>
-      <c r="E93" t="n">
-        <v>702</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" t="n">
-        <v>704.3</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>17</v>
-      </c>
-      <c r="J93" t="n">
-        <v>437</v>
-      </c>
       <c r="K93" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="L93" t="n">
-        <v>688.8</v>
+        <v>700</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>689.8</v>
-      </c>
-      <c r="N93" t="n">
-        <v>694.9</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5017,49 +4369,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="C94" t="n">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="D94" t="n">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="E94" t="n">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>410.8349</v>
       </c>
       <c r="G94" t="n">
-        <v>703.6666666666666</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>440</v>
+        <v>701</v>
       </c>
       <c r="K94" t="n">
-        <v>10</v>
-      </c>
-      <c r="L94" t="n">
-        <v>691.5</v>
+        <v>700</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>690.2</v>
-      </c>
-      <c r="N94" t="n">
-        <v>694.7</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,50 +4412,42 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="C95" t="n">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="D95" t="n">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="E95" t="n">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="F95" t="n">
-        <v>596.499</v>
+        <v>101</v>
       </c>
       <c r="G95" t="n">
-        <v>702.9833333333333</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>445</v>
+        <v>705</v>
       </c>
       <c r="K95" t="n">
-        <v>8.641975308641975</v>
-      </c>
-      <c r="L95" t="n">
-        <v>691.8</v>
+        <v>700</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>690.6</v>
-      </c>
-      <c r="N95" t="n">
-        <v>694.1666666666666</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
-        <v>1</v>
+        <v>1.009285714285714</v>
       </c>
     </row>
     <row r="96">
@@ -5119,49 +4455,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="C96" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="D96" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="E96" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="F96" t="n">
-        <v>136.336</v>
+        <v>387.7222</v>
       </c>
       <c r="G96" t="n">
-        <v>702.35</v>
+        <v>-24</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>448</v>
+        <v>710</v>
       </c>
       <c r="K96" t="n">
-        <v>22.07792207792208</v>
-      </c>
-      <c r="L96" t="n">
-        <v>692.8</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>691.15</v>
-      </c>
-      <c r="N96" t="n">
-        <v>694</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5170,49 +4494,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="C97" t="n">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="D97" t="n">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="E97" t="n">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="F97" t="n">
-        <v>513.8505</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>701.8666666666667</v>
+        <v>-12.72727272727273</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>449</v>
+        <v>702</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>694.4</v>
+        <v>710</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>691.4</v>
-      </c>
-      <c r="N97" t="n">
-        <v>693.6</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5221,49 +4537,41 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="C98" t="n">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="D98" t="n">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="E98" t="n">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="F98" t="n">
-        <v>496.9573</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>701.4</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>450</v>
+        <v>708</v>
       </c>
       <c r="K98" t="n">
-        <v>16.9811320754717</v>
-      </c>
-      <c r="L98" t="n">
-        <v>694.3</v>
+        <v>710</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>690.7</v>
-      </c>
-      <c r="N98" t="n">
-        <v>693.1666666666666</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5272,49 +4580,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C99" t="n">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="D99" t="n">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="E99" t="n">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F99" t="n">
-        <v>1.9501</v>
+        <v>1419.8833</v>
       </c>
       <c r="G99" t="n">
-        <v>701.3</v>
+        <v>-1.96078431372549</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>457</v>
+        <v>708</v>
       </c>
       <c r="K99" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="L99" t="n">
-        <v>695.9</v>
+        <v>710</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>690.35</v>
-      </c>
-      <c r="N99" t="n">
-        <v>692.9333333333333</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5323,49 +4623,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C100" t="n">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="D100" t="n">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="E100" t="n">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="F100" t="n">
-        <v>2047.076</v>
+        <v>410.2738</v>
       </c>
       <c r="G100" t="n">
-        <v>700.8666666666667</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>473</v>
+        <v>709</v>
       </c>
       <c r="K100" t="n">
-        <v>-7.142857142857142</v>
-      </c>
-      <c r="L100" t="n">
-        <v>694.7</v>
+        <v>710</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>690.35</v>
-      </c>
-      <c r="N100" t="n">
-        <v>692.1333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5374,49 +4666,41 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="C101" t="n">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="D101" t="n">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="E101" t="n">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="F101" t="n">
-        <v>1205.1327</v>
+        <v>339.9547</v>
       </c>
       <c r="G101" t="n">
-        <v>700.3833333333333</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>476</v>
+        <v>710</v>
       </c>
       <c r="K101" t="n">
-        <v>-5.454545454545454</v>
-      </c>
-      <c r="L101" t="n">
-        <v>694</v>
+        <v>710</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>690.1</v>
-      </c>
-      <c r="N101" t="n">
-        <v>691.5666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5425,49 +4709,41 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="C102" t="n">
-        <v>684</v>
+        <v>704</v>
       </c>
       <c r="D102" t="n">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="E102" t="n">
-        <v>684</v>
+        <v>704</v>
       </c>
       <c r="F102" t="n">
-        <v>292.0179</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>699.9166666666666</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>477</v>
+        <v>700</v>
       </c>
       <c r="K102" t="n">
-        <v>-45</v>
-      </c>
-      <c r="L102" t="n">
-        <v>693.8</v>
+        <v>710</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>690</v>
-      </c>
-      <c r="N102" t="n">
-        <v>690.9</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5476,49 +4752,41 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="C103" t="n">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="D103" t="n">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="E103" t="n">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="F103" t="n">
-        <v>17.8296</v>
+        <v>933.4361</v>
       </c>
       <c r="G103" t="n">
-        <v>699.4333333333333</v>
+        <v>-22.72727272727273</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>477</v>
+        <v>704</v>
       </c>
       <c r="K103" t="n">
-        <v>-40.54054054054054</v>
-      </c>
-      <c r="L103" t="n">
-        <v>692</v>
+        <v>710</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>690.4</v>
-      </c>
-      <c r="N103" t="n">
-        <v>690.5333333333333</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5527,49 +4795,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="C104" t="n">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="D104" t="n">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="E104" t="n">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="F104" t="n">
-        <v>1899.8238</v>
+        <v>399.4978</v>
       </c>
       <c r="G104" t="n">
-        <v>698.95</v>
+        <v>-44.18604651162791</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>481</v>
+        <v>695</v>
       </c>
       <c r="K104" t="n">
-        <v>-38.88888888888889</v>
-      </c>
-      <c r="L104" t="n">
-        <v>690.1</v>
+        <v>710</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>690.8</v>
-      </c>
-      <c r="N104" t="n">
-        <v>690.1666666666666</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5578,49 +4838,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="C105" t="n">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="D105" t="n">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="E105" t="n">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="F105" t="n">
-        <v>105.445</v>
+        <v>821.4627</v>
       </c>
       <c r="G105" t="n">
-        <v>698.4333333333333</v>
+        <v>-40</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>482</v>
+        <v>691</v>
       </c>
       <c r="K105" t="n">
-        <v>-47.05882352941176</v>
-      </c>
-      <c r="L105" t="n">
-        <v>688.8</v>
+        <v>710</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>690.3</v>
-      </c>
-      <c r="N105" t="n">
-        <v>690</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5629,49 +4881,858 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>687</v>
+      </c>
+      <c r="C106" t="n">
+        <v>686</v>
+      </c>
+      <c r="D106" t="n">
+        <v>687</v>
+      </c>
+      <c r="E106" t="n">
+        <v>686</v>
+      </c>
+      <c r="F106" t="n">
+        <v>170.139</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-64.70588235294117</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>686</v>
+      </c>
+      <c r="K106" t="n">
+        <v>710</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>691</v>
+      </c>
+      <c r="C107" t="n">
+        <v>691</v>
+      </c>
+      <c r="D107" t="n">
+        <v>691</v>
+      </c>
+      <c r="E107" t="n">
+        <v>691</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-43.58974358974359</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>686</v>
+      </c>
+      <c r="K107" t="n">
+        <v>710</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>689</v>
+      </c>
+      <c r="C108" t="n">
+        <v>709</v>
+      </c>
+      <c r="D108" t="n">
+        <v>709</v>
+      </c>
+      <c r="E108" t="n">
+        <v>689</v>
+      </c>
+      <c r="F108" t="n">
+        <v>999.7</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>691</v>
+      </c>
+      <c r="K108" t="n">
+        <v>710</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>709</v>
+      </c>
+      <c r="C109" t="n">
+        <v>709</v>
+      </c>
+      <c r="D109" t="n">
+        <v>709</v>
+      </c>
+      <c r="E109" t="n">
+        <v>709</v>
+      </c>
+      <c r="F109" t="n">
+        <v>381.1563</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1.818181818181818</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>709</v>
+      </c>
+      <c r="K109" t="n">
+        <v>710</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>686</v>
+      </c>
+      <c r="C110" t="n">
+        <v>686</v>
+      </c>
+      <c r="D110" t="n">
+        <v>686</v>
+      </c>
+      <c r="E110" t="n">
+        <v>686</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-20.58823529411764</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>709</v>
+      </c>
+      <c r="K110" t="n">
+        <v>710</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>0.9611971830985916</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>688</v>
+      </c>
+      <c r="C111" t="n">
+        <v>688</v>
+      </c>
+      <c r="D111" t="n">
+        <v>688</v>
+      </c>
+      <c r="E111" t="n">
+        <v>688</v>
+      </c>
+      <c r="F111" t="n">
+        <v>219.1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-24.24242424242424</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>686</v>
+      </c>
+      <c r="K111" t="n">
+        <v>709</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>688</v>
+      </c>
+      <c r="C112" t="n">
+        <v>686</v>
+      </c>
+      <c r="D112" t="n">
+        <v>688</v>
+      </c>
+      <c r="E112" t="n">
+        <v>686</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1007.6458</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-15.25423728813559</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>688</v>
+      </c>
+      <c r="K112" t="n">
+        <v>709</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>686</v>
+      </c>
+      <c r="C113" t="n">
+        <v>676</v>
+      </c>
+      <c r="D113" t="n">
+        <v>686</v>
+      </c>
+      <c r="E113" t="n">
+        <v>676</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2830.278129781022</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-23.07692307692308</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>686</v>
+      </c>
+      <c r="K113" t="n">
+        <v>709</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>673</v>
+      </c>
+      <c r="C114" t="n">
+        <v>672</v>
+      </c>
+      <c r="D114" t="n">
+        <v>673</v>
+      </c>
+      <c r="E114" t="n">
+        <v>672</v>
+      </c>
+      <c r="F114" t="n">
+        <v>422.0303</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-21.875</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>676</v>
+      </c>
+      <c r="K114" t="n">
+        <v>709</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>691</v>
+      </c>
+      <c r="C115" t="n">
+        <v>691</v>
+      </c>
+      <c r="D115" t="n">
+        <v>691</v>
+      </c>
+      <c r="E115" t="n">
+        <v>691</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>6.024096385542169</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>672</v>
+      </c>
+      <c r="K115" t="n">
+        <v>709</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
         <v>680</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C116" t="n">
+        <v>687</v>
+      </c>
+      <c r="D116" t="n">
+        <v>687</v>
+      </c>
+      <c r="E116" t="n">
         <v>680</v>
       </c>
-      <c r="D106" t="n">
+      <c r="F116" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-4.878048780487805</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>691</v>
+      </c>
+      <c r="K116" t="n">
+        <v>709</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
         <v>680</v>
       </c>
-      <c r="E106" t="n">
+      <c r="C117" t="n">
         <v>680</v>
       </c>
-      <c r="F106" t="n">
-        <v>99.95350000000001</v>
-      </c>
-      <c r="G106" t="n">
-        <v>697.95</v>
-      </c>
-      <c r="H106" t="n">
+      <c r="D117" t="n">
+        <v>680</v>
+      </c>
+      <c r="E117" t="n">
+        <v>680</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-40.84507042253522</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>687</v>
+      </c>
+      <c r="K117" t="n">
+        <v>709</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>695</v>
+      </c>
+      <c r="C118" t="n">
+        <v>696</v>
+      </c>
+      <c r="D118" t="n">
+        <v>696</v>
+      </c>
+      <c r="E118" t="n">
+        <v>695</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-14.94252873563219</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>680</v>
+      </c>
+      <c r="K118" t="n">
+        <v>709</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>687</v>
+      </c>
+      <c r="C119" t="n">
+        <v>686</v>
+      </c>
+      <c r="D119" t="n">
+        <v>687</v>
+      </c>
+      <c r="E119" t="n">
+        <v>686</v>
+      </c>
+      <c r="F119" t="n">
+        <v>985.4604</v>
+      </c>
+      <c r="G119" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J106" t="n">
-        <v>483</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-47.05882352941176</v>
-      </c>
-      <c r="L106" t="n">
-        <v>687.1</v>
-      </c>
-      <c r="M106" t="n">
-        <v>689.95</v>
-      </c>
-      <c r="N106" t="n">
-        <v>689.8</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>696</v>
+      </c>
+      <c r="K119" t="n">
+        <v>709</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>690</v>
+      </c>
+      <c r="C120" t="n">
+        <v>698</v>
+      </c>
+      <c r="D120" t="n">
+        <v>698</v>
+      </c>
+      <c r="E120" t="n">
+        <v>690</v>
+      </c>
+      <c r="F120" t="n">
+        <v>88.3565</v>
+      </c>
+      <c r="G120" t="n">
+        <v>11.9047619047619</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>686</v>
+      </c>
+      <c r="K120" t="n">
+        <v>709</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>690</v>
+      </c>
+      <c r="C121" t="n">
+        <v>690</v>
+      </c>
+      <c r="D121" t="n">
+        <v>690</v>
+      </c>
+      <c r="E121" t="n">
+        <v>690</v>
+      </c>
+      <c r="F121" t="n">
+        <v>595.6288</v>
+      </c>
+      <c r="G121" t="n">
+        <v>4.444444444444445</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>698</v>
+      </c>
+      <c r="K121" t="n">
+        <v>709</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>688</v>
+      </c>
+      <c r="C122" t="n">
+        <v>686</v>
+      </c>
+      <c r="D122" t="n">
+        <v>688</v>
+      </c>
+      <c r="E122" t="n">
+        <v>686</v>
+      </c>
+      <c r="F122" t="n">
+        <v>795.0866</v>
+      </c>
+      <c r="G122" t="n">
+        <v>11.9047619047619</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>690</v>
+      </c>
+      <c r="K122" t="n">
+        <v>709</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>702</v>
+      </c>
+      <c r="C123" t="n">
+        <v>702</v>
+      </c>
+      <c r="D123" t="n">
+        <v>702</v>
+      </c>
+      <c r="E123" t="n">
+        <v>702</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>686</v>
+      </c>
+      <c r="K123" t="n">
+        <v>709</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>0.9851269393511989</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>686</v>
+      </c>
+      <c r="C124" t="n">
+        <v>699</v>
+      </c>
+      <c r="D124" t="n">
+        <v>699</v>
+      </c>
+      <c r="E124" t="n">
+        <v>686</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2</v>
+      </c>
+      <c r="G124" t="n">
+        <v>10</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>702</v>
+      </c>
+      <c r="K124" t="n">
+        <v>686</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>694</v>
+      </c>
+      <c r="C125" t="n">
+        <v>694</v>
+      </c>
+      <c r="D125" t="n">
+        <v>698</v>
+      </c>
+      <c r="E125" t="n">
+        <v>694</v>
+      </c>
+      <c r="F125" t="n">
+        <v>596.499</v>
+      </c>
+      <c r="G125" t="n">
+        <v>8.641975308641975</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>699</v>
+      </c>
+      <c r="K125" t="n">
+        <v>686</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-12 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-12 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -425,6 +425,11 @@
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
         </is>
       </c>
     </row>
@@ -448,13 +453,13 @@
         <v>517.8114</v>
       </c>
       <c r="G2" t="n">
-        <v>-29.41176470588236</v>
+        <v>-11376.1278</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,24 +489,21 @@
         <v>182</v>
       </c>
       <c r="G3" t="n">
-        <v>-29.41176470588236</v>
+        <v>-11376.1278</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>677</v>
-      </c>
-      <c r="K3" t="n">
-        <v>677</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,28 +525,21 @@
         <v>0.1886</v>
       </c>
       <c r="G4" t="n">
-        <v>-29.41176470588236</v>
+        <v>-11376.1278</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>677</v>
-      </c>
-      <c r="K4" t="n">
-        <v>677</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,28 +561,21 @@
         <v>950.6187</v>
       </c>
       <c r="G5" t="n">
-        <v>-23.52941176470588</v>
+        <v>-10425.5091</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>677</v>
-      </c>
-      <c r="K5" t="n">
-        <v>677</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -608,28 +597,21 @@
         <v>367</v>
       </c>
       <c r="G6" t="n">
-        <v>-23.52941176470588</v>
+        <v>-10058.5091</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>678</v>
-      </c>
-      <c r="K6" t="n">
-        <v>677</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -651,28 +633,21 @@
         <v>135.846</v>
       </c>
       <c r="G7" t="n">
-        <v>14.28571428571428</v>
+        <v>-9922.663100000003</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>679</v>
-      </c>
-      <c r="K7" t="n">
-        <v>677</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -694,28 +669,25 @@
         <v>290.748</v>
       </c>
       <c r="G8" t="n">
-        <v>21.42857142857143</v>
+        <v>-9631.915100000004</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>682</v>
       </c>
       <c r="K8" t="n">
-        <v>677</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -737,28 +709,29 @@
         <v>146.6275</v>
       </c>
       <c r="G9" t="n">
-        <v>17.24137931034483</v>
+        <v>-9778.542600000004</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>683</v>
       </c>
       <c r="K9" t="n">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -780,28 +753,29 @@
         <v>53.3263</v>
       </c>
       <c r="G10" t="n">
-        <v>-40</v>
+        <v>-9831.868900000005</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>682</v>
       </c>
       <c r="K10" t="n">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -823,19 +797,19 @@
         <v>9.0938</v>
       </c>
       <c r="G11" t="n">
-        <v>33.33333333333333</v>
+        <v>-9831.868900000005</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>680</v>
       </c>
       <c r="K11" t="n">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -845,6 +819,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -866,19 +841,17 @@
         <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>33.33333333333333</v>
+        <v>-9831.868900000005</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -888,6 +861,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -909,19 +883,17 @@
         <v>145.7832</v>
       </c>
       <c r="G13" t="n">
-        <v>33.33333333333333</v>
+        <v>-9831.868900000005</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -931,6 +903,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -952,19 +925,17 @@
         <v>1591.6707</v>
       </c>
       <c r="G14" t="n">
-        <v>11.11111111111111</v>
+        <v>-11423.53960000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -974,6 +945,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -995,19 +967,19 @@
         <v>8.3293</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-11423.53960000001</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>679</v>
       </c>
       <c r="K15" t="n">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1017,6 +989,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,19 +1011,19 @@
         <v>290</v>
       </c>
       <c r="G16" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11133.53960000001</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>679</v>
       </c>
       <c r="K16" t="n">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1060,6 +1033,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1081,28 +1055,29 @@
         <v>0.748</v>
       </c>
       <c r="G17" t="n">
-        <v>-33.33333333333333</v>
+        <v>-11133.53960000001</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>681</v>
       </c>
       <c r="K17" t="n">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1.000908419497784</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1124,24 +1099,29 @@
         <v>286.8788</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-10846.66080000001</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>681</v>
       </c>
       <c r="K18" t="n">
-        <v>681</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
+        <v>682</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1163,28 +1143,27 @@
         <v>1903.9652</v>
       </c>
       <c r="G19" t="n">
-        <v>-33.33333333333333</v>
+        <v>-12750.62600000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1206,19 +1185,17 @@
         <v>9.7254</v>
       </c>
       <c r="G20" t="n">
-        <v>29.41176470588236</v>
+        <v>-12740.90060000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>677</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1228,6 +1205,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1249,19 +1227,17 @@
         <v>255.3233</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>-12996.22390000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1271,6 +1247,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1292,19 +1269,17 @@
         <v>116.0603</v>
       </c>
       <c r="G22" t="n">
-        <v>-15.38461538461539</v>
+        <v>-13112.28420000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1314,6 +1289,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1335,19 +1311,17 @@
         <v>65.3815</v>
       </c>
       <c r="G23" t="n">
-        <v>-15.38461538461539</v>
+        <v>-13177.66570000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1357,6 +1331,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1378,19 +1353,17 @@
         <v>333.9391</v>
       </c>
       <c r="G24" t="n">
-        <v>-11.11111111111111</v>
+        <v>-12843.72660000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1400,6 +1373,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1421,19 +1395,17 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-20</v>
+        <v>-12843.72660000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1443,6 +1415,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1464,19 +1437,17 @@
         <v>140</v>
       </c>
       <c r="G26" t="n">
-        <v>9.090909090909092</v>
+        <v>-12703.72660000001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1486,6 +1457,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1507,19 +1479,19 @@
         <v>142.3434</v>
       </c>
       <c r="G27" t="n">
-        <v>-15</v>
+        <v>-12846.07000000001</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>684</v>
       </c>
       <c r="K27" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1529,6 +1501,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1550,19 +1523,17 @@
         <v>30</v>
       </c>
       <c r="G28" t="n">
-        <v>14.28571428571428</v>
+        <v>-12816.07000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1572,6 +1543,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1593,19 +1565,17 @@
         <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-12786.07000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1615,6 +1585,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1636,28 +1607,27 @@
         <v>74.5887</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.263157894736842</v>
+        <v>-12860.65870000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>0.9905947136563876</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1679,28 +1649,27 @@
         <v>155.8222</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-13016.48090000001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>678</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1722,19 +1691,17 @@
         <v>28.9313</v>
       </c>
       <c r="G32" t="n">
-        <v>22.72727272727273</v>
+        <v>-12987.54960000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1744,6 +1711,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1765,19 +1733,17 @@
         <v>2400</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>-15387.54960000001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1787,6 +1753,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1808,19 +1775,17 @@
         <v>843.0599</v>
       </c>
       <c r="G34" t="n">
-        <v>11.86440677966102</v>
+        <v>-14544.48970000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1830,6 +1795,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1851,19 +1817,17 @@
         <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.96078431372549</v>
+        <v>-14544.48970000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1873,6 +1837,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1894,19 +1859,17 @@
         <v>15</v>
       </c>
       <c r="G36" t="n">
-        <v>20</v>
+        <v>-14529.48970000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1916,6 +1879,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1937,19 +1901,17 @@
         <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-14540.48970000001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1959,6 +1921,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1980,19 +1943,17 @@
         <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14545.48970000001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2002,6 +1963,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2023,19 +1985,19 @@
         <v>15.5646</v>
       </c>
       <c r="G39" t="n">
-        <v>17.64705882352941</v>
+        <v>-14529.92510000001</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>682</v>
       </c>
       <c r="K39" t="n">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2045,6 +2007,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2066,19 +2029,19 @@
         <v>317.4693297810219</v>
       </c>
       <c r="G40" t="n">
-        <v>27.27272727272727</v>
+        <v>-14212.45577021898</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>684</v>
       </c>
       <c r="K40" t="n">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2088,6 +2051,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2109,19 +2073,17 @@
         <v>35</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>-14177.45577021898</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2131,6 +2093,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2152,28 +2115,27 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>62.5</v>
+        <v>-14177.45577021898</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1.009792899408284</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2195,28 +2157,27 @@
         <v>12</v>
       </c>
       <c r="G43" t="n">
-        <v>33.33333333333333</v>
+        <v>-14177.45577021898</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2238,28 +2199,27 @@
         <v>526.4404702189781</v>
       </c>
       <c r="G44" t="n">
-        <v>33.33333333333333</v>
+        <v>-14177.45577021898</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2281,28 +2241,27 @@
         <v>1631.7564</v>
       </c>
       <c r="G45" t="n">
-        <v>45.45454545454545</v>
+        <v>-12545.69937021898</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2324,19 +2283,17 @@
         <v>386.1897</v>
       </c>
       <c r="G46" t="n">
-        <v>77.77777777777779</v>
+        <v>-12545.69937021898</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2346,6 +2303,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2367,19 +2325,17 @@
         <v>86.1237</v>
       </c>
       <c r="G47" t="n">
-        <v>33.33333333333333</v>
+        <v>-12631.82307021898</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2389,6 +2345,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2410,19 +2367,19 @@
         <v>17</v>
       </c>
       <c r="G48" t="n">
-        <v>42.85714285714285</v>
+        <v>-12614.82307021898</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
         <v>686</v>
       </c>
       <c r="K48" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2432,6 +2389,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2453,19 +2411,19 @@
         <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>38.46153846153847</v>
+        <v>-12614.82307021898</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>690</v>
       </c>
       <c r="K49" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2475,6 +2433,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2496,19 +2455,19 @@
         <v>3.4551</v>
       </c>
       <c r="G50" t="n">
-        <v>33.33333333333333</v>
+        <v>-12614.82307021898</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>690</v>
       </c>
       <c r="K50" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2518,6 +2477,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2539,19 +2499,17 @@
         <v>305.7723</v>
       </c>
       <c r="G51" t="n">
-        <v>33.33333333333333</v>
+        <v>-12614.82307021898</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2561,6 +2519,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2582,19 +2541,19 @@
         <v>273.1518</v>
       </c>
       <c r="G52" t="n">
-        <v>60</v>
+        <v>-12341.67127021898</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>690</v>
       </c>
       <c r="K52" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2604,6 +2563,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2625,19 +2585,17 @@
         <v>811.7913</v>
       </c>
       <c r="G53" t="n">
-        <v>39.1304347826087</v>
+        <v>-13153.46257021898</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2647,6 +2605,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2668,19 +2627,17 @@
         <v>711.3327</v>
       </c>
       <c r="G54" t="n">
-        <v>36.36363636363637</v>
+        <v>-12442.12987021898</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2690,6 +2647,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2711,19 +2669,17 @@
         <v>907.3094</v>
       </c>
       <c r="G55" t="n">
-        <v>36.36363636363637</v>
+        <v>-12442.12987021898</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2733,6 +2689,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2754,28 +2711,27 @@
         <v>623.9759</v>
       </c>
       <c r="G56" t="n">
-        <v>70</v>
+        <v>-11818.15397021898</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1.015408163265306</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2797,28 +2753,27 @@
         <v>92</v>
       </c>
       <c r="G57" t="n">
-        <v>13.04347826086956</v>
+        <v>-11910.15397021898</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2840,19 +2795,17 @@
         <v>46.4312</v>
       </c>
       <c r="G58" t="n">
-        <v>33.33333333333333</v>
+        <v>-11863.72277021898</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2862,6 +2815,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2883,19 +2837,17 @@
         <v>2949.4677</v>
       </c>
       <c r="G59" t="n">
-        <v>45.94594594594595</v>
+        <v>-8914.255070218984</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2905,6 +2857,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2926,19 +2879,17 @@
         <v>800</v>
       </c>
       <c r="G60" t="n">
-        <v>45.94594594594595</v>
+        <v>-8914.255070218984</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>707</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2948,6 +2899,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2969,19 +2921,17 @@
         <v>884.785</v>
       </c>
       <c r="G61" t="n">
-        <v>45.94594594594595</v>
+        <v>-8029.470070218984</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>707</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2991,6 +2941,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3012,19 +2963,17 @@
         <v>2288.2228</v>
       </c>
       <c r="G62" t="n">
-        <v>65.85365853658537</v>
+        <v>-5741.247270218984</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>715</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3034,6 +2983,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3055,19 +3005,17 @@
         <v>16293.7104</v>
       </c>
       <c r="G63" t="n">
-        <v>70.21276595744681</v>
+        <v>10552.46312978102</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>722</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3077,6 +3025,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3098,19 +3047,17 @@
         <v>10272.7509</v>
       </c>
       <c r="G64" t="n">
-        <v>73.58490566037736</v>
+        <v>20825.21402978101</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>731</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3120,6 +3067,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3141,19 +3089,17 @@
         <v>12885.05793972789</v>
       </c>
       <c r="G65" t="n">
-        <v>66.0377358490566</v>
+        <v>7940.156090053124</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>737</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3163,6 +3109,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3184,19 +3131,17 @@
         <v>440.2394</v>
       </c>
       <c r="G66" t="n">
-        <v>91.30434782608695</v>
+        <v>7940.156090053124</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3206,6 +3151,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3227,19 +3173,17 @@
         <v>462.6474</v>
       </c>
       <c r="G67" t="n">
-        <v>51.02040816326531</v>
+        <v>7477.508690053124</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3249,6 +3193,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3270,28 +3215,27 @@
         <v>197.2136</v>
       </c>
       <c r="G68" t="n">
-        <v>36.36363636363637</v>
+        <v>7280.295090053124</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>1.035287769784173</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3313,24 +3257,27 @@
         <v>176.2241</v>
       </c>
       <c r="G69" t="n">
-        <v>1.694915254237288</v>
+        <v>7104.070990053124</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>723</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>723</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
+        <v>682</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3352,28 +3299,27 @@
         <v>1795.2618</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.454545454545454</v>
+        <v>8899.332790053124</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3395,19 +3341,17 @@
         <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>-20.83333333333334</v>
+        <v>8899.332790053124</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3417,6 +3361,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3438,19 +3383,17 @@
         <v>337.0830949438202</v>
       </c>
       <c r="G72" t="n">
-        <v>-48.71794871794872</v>
+        <v>8899.332790053124</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3460,6 +3403,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3481,19 +3425,17 @@
         <v>864.8949</v>
       </c>
       <c r="G73" t="n">
-        <v>-70.58823529411765</v>
+        <v>9764.227690053123</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3503,6 +3445,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3524,19 +3467,17 @@
         <v>99.75</v>
       </c>
       <c r="G74" t="n">
-        <v>-72.22222222222221</v>
+        <v>9664.477690053123</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3546,6 +3487,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3567,19 +3509,17 @@
         <v>1069.4467</v>
       </c>
       <c r="G75" t="n">
-        <v>-58.97435897435898</v>
+        <v>10733.92439005312</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3589,6 +3529,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3610,19 +3551,17 @@
         <v>1708.29</v>
       </c>
       <c r="G76" t="n">
-        <v>-50</v>
+        <v>9025.634390053125</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3632,6 +3571,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3653,19 +3593,17 @@
         <v>1032.8815</v>
       </c>
       <c r="G77" t="n">
-        <v>-41.93548387096774</v>
+        <v>10058.51589005312</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3675,6 +3613,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3696,19 +3635,17 @@
         <v>874.4203</v>
       </c>
       <c r="G78" t="n">
-        <v>-18.18181818181818</v>
+        <v>9184.095590053124</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3718,6 +3655,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3739,19 +3677,17 @@
         <v>4599.0366</v>
       </c>
       <c r="G79" t="n">
-        <v>-54.54545454545454</v>
+        <v>4585.058990053124</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>704</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3761,6 +3697,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3782,19 +3719,17 @@
         <v>2354.7693</v>
       </c>
       <c r="G80" t="n">
-        <v>-54.54545454545454</v>
+        <v>4585.058990053124</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3804,6 +3739,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3825,28 +3761,27 @@
         <v>4006.6039</v>
       </c>
       <c r="G81" t="n">
-        <v>12.82051282051282</v>
+        <v>8591.662890053125</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>0.986701244813278</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3868,28 +3803,27 @@
         <v>12035.275</v>
       </c>
       <c r="G82" t="n">
-        <v>17.07317073170732</v>
+        <v>20626.93789005312</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3911,27 +3845,28 @@
         <v>10.775</v>
       </c>
       <c r="G83" t="n">
-        <v>29.72972972972973</v>
+        <v>20626.93789005312</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
-      <c r="J83" t="n">
-        <v>720</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>1.050718475073314</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1.008862629246676</v>
       </c>
     </row>
     <row r="84">
@@ -3954,28 +3889,21 @@
         <v>1943.6333</v>
       </c>
       <c r="G84" t="n">
-        <v>23.52941176470588</v>
+        <v>20626.93789005312</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
-      <c r="J84" t="n">
-        <v>720</v>
-      </c>
-      <c r="K84" t="n">
-        <v>700</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3997,28 +3925,21 @@
         <v>634.2564</v>
       </c>
       <c r="G85" t="n">
-        <v>13.51351351351351</v>
+        <v>19992.68149005312</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
-      <c r="J85" t="n">
-        <v>720</v>
-      </c>
-      <c r="K85" t="n">
-        <v>700</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4040,28 +3961,21 @@
         <v>67.34</v>
       </c>
       <c r="G86" t="n">
-        <v>13.51351351351351</v>
+        <v>20060.02149005312</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="J86" t="n">
-        <v>714</v>
-      </c>
-      <c r="K86" t="n">
-        <v>700</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4083,28 +3997,21 @@
         <v>384.8154</v>
       </c>
       <c r="G87" t="n">
-        <v>31.25</v>
+        <v>19675.20609005313</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
-      <c r="J87" t="n">
-        <v>715</v>
-      </c>
-      <c r="K87" t="n">
-        <v>700</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4126,28 +4033,21 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>51.72413793103448</v>
+        <v>19676.20609005313</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
-      <c r="J88" t="n">
-        <v>714</v>
-      </c>
-      <c r="K88" t="n">
-        <v>700</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4169,28 +4069,21 @@
         <v>150</v>
       </c>
       <c r="G89" t="n">
-        <v>46.66666666666666</v>
+        <v>19526.20609005313</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
-      <c r="J89" t="n">
-        <v>715</v>
-      </c>
-      <c r="K89" t="n">
-        <v>700</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4212,28 +4105,21 @@
         <v>2097.9026</v>
       </c>
       <c r="G90" t="n">
-        <v>-41.17647058823529</v>
+        <v>17428.30349005312</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
       </c>
-      <c r="J90" t="n">
-        <v>714</v>
-      </c>
-      <c r="K90" t="n">
-        <v>700</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4255,28 +4141,21 @@
         <v>13400.9083</v>
       </c>
       <c r="G91" t="n">
-        <v>-87.09677419354838</v>
+        <v>4027.395190053125</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
-      <c r="J91" t="n">
-        <v>710</v>
-      </c>
-      <c r="K91" t="n">
-        <v>700</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4298,28 +4177,21 @@
         <v>927.2435</v>
       </c>
       <c r="G92" t="n">
-        <v>-45</v>
+        <v>4954.638690053125</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
-      <c r="J92" t="n">
-        <v>693</v>
-      </c>
-      <c r="K92" t="n">
-        <v>700</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4341,28 +4213,21 @@
         <v>546.4466</v>
       </c>
       <c r="G93" t="n">
-        <v>-46.34146341463415</v>
+        <v>4408.192090053125</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>702</v>
-      </c>
-      <c r="K93" t="n">
-        <v>700</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4384,28 +4249,21 @@
         <v>410.8349</v>
       </c>
       <c r="G94" t="n">
-        <v>-23.07692307692308</v>
+        <v>4819.026990053125</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>701</v>
-      </c>
-      <c r="K94" t="n">
-        <v>700</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4427,28 +4285,21 @@
         <v>101</v>
       </c>
       <c r="G95" t="n">
-        <v>-11.62790697674419</v>
+        <v>4920.026990053125</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>705</v>
-      </c>
-      <c r="K95" t="n">
-        <v>700</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>1.009285714285714</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4470,24 +4321,21 @@
         <v>387.7222</v>
       </c>
       <c r="G96" t="n">
-        <v>-24</v>
+        <v>4532.304790053125</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>710</v>
-      </c>
-      <c r="K96" t="n">
-        <v>710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4509,28 +4357,21 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>-12.72727272727273</v>
+        <v>4533.304790053125</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>702</v>
-      </c>
-      <c r="K97" t="n">
-        <v>710</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4552,28 +4393,21 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>-11.11111111111111</v>
+        <v>4533.304790053125</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>708</v>
-      </c>
-      <c r="K98" t="n">
-        <v>710</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4595,28 +4429,21 @@
         <v>1419.8833</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.96078431372549</v>
+        <v>5953.188090053125</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>708</v>
-      </c>
-      <c r="K99" t="n">
-        <v>710</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4638,28 +4465,21 @@
         <v>410.2738</v>
       </c>
       <c r="G100" t="n">
-        <v>48.57142857142857</v>
+        <v>6363.461890053125</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>709</v>
-      </c>
-      <c r="K100" t="n">
-        <v>710</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4681,28 +4501,21 @@
         <v>339.9547</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.555555555555555</v>
+        <v>6023.507190053125</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>710</v>
-      </c>
-      <c r="K101" t="n">
-        <v>710</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4724,28 +4537,21 @@
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>7.692307692307693</v>
+        <v>6024.507190053125</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>700</v>
-      </c>
-      <c r="K102" t="n">
-        <v>710</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4767,28 +4573,21 @@
         <v>933.4361</v>
       </c>
       <c r="G103" t="n">
-        <v>-22.72727272727273</v>
+        <v>5091.071090053125</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>704</v>
-      </c>
-      <c r="K103" t="n">
-        <v>710</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4810,28 +4609,21 @@
         <v>399.4978</v>
       </c>
       <c r="G104" t="n">
-        <v>-44.18604651162791</v>
+        <v>4691.573290053125</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>695</v>
-      </c>
-      <c r="K104" t="n">
-        <v>710</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4853,28 +4645,21 @@
         <v>821.4627</v>
       </c>
       <c r="G105" t="n">
-        <v>-40</v>
+        <v>3870.110590053125</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>691</v>
-      </c>
-      <c r="K105" t="n">
-        <v>710</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4896,28 +4681,21 @@
         <v>170.139</v>
       </c>
       <c r="G106" t="n">
-        <v>-64.70588235294117</v>
+        <v>3870.110590053125</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>686</v>
-      </c>
-      <c r="K106" t="n">
-        <v>710</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4939,28 +4717,21 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>-43.58974358974359</v>
+        <v>3871.110590053125</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>686</v>
-      </c>
-      <c r="K107" t="n">
-        <v>710</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4982,28 +4753,27 @@
         <v>999.7</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>4870.810590053125</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
         <v>691</v>
       </c>
-      <c r="K108" t="n">
-        <v>710</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5025,20 +4795,16 @@
         <v>381.1563</v>
       </c>
       <c r="G109" t="n">
-        <v>-1.818181818181818</v>
+        <v>4870.810590053125</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>709</v>
-      </c>
-      <c r="K109" t="n">
-        <v>710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5047,6 +4813,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5068,28 +4835,25 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>-20.58823529411764</v>
+        <v>4869.810590053125</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>709</v>
-      </c>
-      <c r="K110" t="n">
-        <v>710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>0.9611971830985916</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5111,28 +4875,25 @@
         <v>219.1</v>
       </c>
       <c r="G111" t="n">
-        <v>-24.24242424242424</v>
+        <v>5088.910590053125</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>686</v>
-      </c>
-      <c r="K111" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5154,28 +4915,25 @@
         <v>1007.6458</v>
       </c>
       <c r="G112" t="n">
-        <v>-15.25423728813559</v>
+        <v>4081.264790053125</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>688</v>
-      </c>
-      <c r="K112" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5197,20 +4955,16 @@
         <v>2830.278129781022</v>
       </c>
       <c r="G113" t="n">
-        <v>-23.07692307692308</v>
+        <v>1250.986660272103</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>686</v>
-      </c>
-      <c r="K113" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5219,6 +4973,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5240,20 +4995,16 @@
         <v>422.0303</v>
       </c>
       <c r="G114" t="n">
-        <v>-21.875</v>
+        <v>828.9563602721026</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>676</v>
-      </c>
-      <c r="K114" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5262,6 +5013,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5283,20 +5035,16 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>6.024096385542169</v>
+        <v>829.9563602721026</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>672</v>
-      </c>
-      <c r="K115" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5305,6 +5053,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5326,20 +5075,16 @@
         <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>-4.878048780487805</v>
+        <v>827.9563602721026</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>691</v>
-      </c>
-      <c r="K116" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5348,6 +5093,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5369,20 +5115,16 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>-40.84507042253522</v>
+        <v>826.9563602721026</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>687</v>
-      </c>
-      <c r="K117" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5391,6 +5133,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5412,20 +5155,16 @@
         <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>-14.94252873563219</v>
+        <v>828.9563602721026</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>680</v>
-      </c>
-      <c r="K118" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5434,6 +5173,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5455,20 +5195,16 @@
         <v>985.4604</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>-156.5040397278974</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>696</v>
-      </c>
-      <c r="K119" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5477,6 +5213,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5498,20 +5235,16 @@
         <v>88.3565</v>
       </c>
       <c r="G120" t="n">
-        <v>11.9047619047619</v>
+        <v>-68.14753972789741</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>686</v>
-      </c>
-      <c r="K120" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5520,6 +5253,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5541,20 +5275,16 @@
         <v>595.6288</v>
       </c>
       <c r="G121" t="n">
-        <v>4.444444444444445</v>
+        <v>-663.7763397278974</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>698</v>
-      </c>
-      <c r="K121" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5563,6 +5293,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5584,20 +5315,16 @@
         <v>795.0866</v>
       </c>
       <c r="G122" t="n">
-        <v>11.9047619047619</v>
+        <v>-1458.862939727897</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>690</v>
-      </c>
-      <c r="K122" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5606,6 +5333,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5627,28 +5355,25 @@
         <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>31.25</v>
+        <v>-1457.862939727897</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>686</v>
-      </c>
-      <c r="K123" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>0.9851269393511989</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5670,28 +5395,25 @@
         <v>2</v>
       </c>
       <c r="G124" t="n">
-        <v>10</v>
+        <v>-1459.862939727897</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>702</v>
-      </c>
-      <c r="K124" t="n">
-        <v>686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5713,20 +5435,16 @@
         <v>596.499</v>
       </c>
       <c r="G125" t="n">
-        <v>8.641975308641975</v>
+        <v>-2056.361939727897</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>699</v>
-      </c>
-      <c r="K125" t="n">
-        <v>686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5735,6 +5453,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-12 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-12 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C2" t="n">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="D2" t="n">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="E2" t="n">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="F2" t="n">
-        <v>517.8114</v>
+        <v>298.6</v>
       </c>
       <c r="G2" t="n">
-        <v>-11376.1278</v>
+        <v>-5202.8086</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="C3" t="n">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D3" t="n">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="E3" t="n">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="F3" t="n">
-        <v>182</v>
+        <v>500</v>
       </c>
       <c r="G3" t="n">
-        <v>-11376.1278</v>
+        <v>-4702.8086</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>682</v>
+      </c>
+      <c r="K3" t="n">
+        <v>682</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="C4" t="n">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="D4" t="n">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="E4" t="n">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1886</v>
+        <v>360.865</v>
       </c>
       <c r="G4" t="n">
-        <v>-11376.1278</v>
+        <v>-4341.943600000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>685</v>
+      </c>
+      <c r="K4" t="n">
+        <v>682</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="C5" t="n">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="D5" t="n">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="E5" t="n">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="F5" t="n">
-        <v>950.6187</v>
+        <v>777.5585</v>
       </c>
       <c r="G5" t="n">
-        <v>-10425.5091</v>
+        <v>-3564.3851</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>686</v>
+      </c>
+      <c r="K5" t="n">
+        <v>682</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,31 +602,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="C6" t="n">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="D6" t="n">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="E6" t="n">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="F6" t="n">
-        <v>367</v>
+        <v>5.2612</v>
       </c>
       <c r="G6" t="n">
-        <v>-10058.5091</v>
+        <v>-3559.123900000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>688</v>
+      </c>
+      <c r="K6" t="n">
+        <v>688</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,32 +642,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="C7" t="n">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="D7" t="n">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="E7" t="n">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="F7" t="n">
-        <v>135.846</v>
+        <v>110</v>
       </c>
       <c r="G7" t="n">
-        <v>-9922.663100000003</v>
+        <v>-3449.123900000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>691</v>
+      </c>
+      <c r="K7" t="n">
+        <v>688</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +686,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="C8" t="n">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="D8" t="n">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="E8" t="n">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="F8" t="n">
-        <v>290.748</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>-9631.915100000004</v>
+        <v>-3449.123900000001</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -678,12 +710,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="K8" t="n">
-        <v>682</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -694,22 +730,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="C9" t="n">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="D9" t="n">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="E9" t="n">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="F9" t="n">
-        <v>146.6275</v>
+        <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>-9778.542600000004</v>
+        <v>-3449.123900000001</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -718,14 +754,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="K9" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -738,22 +774,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="C10" t="n">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="D10" t="n">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="E10" t="n">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="F10" t="n">
-        <v>53.3263</v>
+        <v>28</v>
       </c>
       <c r="G10" t="n">
-        <v>-9831.868900000005</v>
+        <v>-3449.123900000001</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -762,14 +798,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="K10" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -782,22 +818,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="C11" t="n">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="D11" t="n">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="E11" t="n">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="F11" t="n">
-        <v>9.0938</v>
+        <v>68.1079</v>
       </c>
       <c r="G11" t="n">
-        <v>-9831.868900000005</v>
+        <v>-3381.016000000001</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -806,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="K11" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -826,32 +862,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="C12" t="n">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="D12" t="n">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="E12" t="n">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="F12" t="n">
-        <v>27</v>
+        <v>2000</v>
       </c>
       <c r="G12" t="n">
-        <v>-9831.868900000005</v>
+        <v>-5381.016000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>695</v>
+      </c>
       <c r="K12" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -868,32 +906,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="C13" t="n">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="D13" t="n">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="E13" t="n">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="F13" t="n">
-        <v>145.7832</v>
+        <v>2290</v>
       </c>
       <c r="G13" t="n">
-        <v>-9831.868900000005</v>
+        <v>-3091.016000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>689</v>
+      </c>
       <c r="K13" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -910,32 +950,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="C14" t="n">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="D14" t="n">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="E14" t="n">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="F14" t="n">
-        <v>1591.6707</v>
+        <v>32.7914</v>
       </c>
       <c r="G14" t="n">
-        <v>-11423.53960000001</v>
+        <v>-3123.807400000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>695</v>
+      </c>
       <c r="K14" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -952,22 +994,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="C15" t="n">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="D15" t="n">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="E15" t="n">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="F15" t="n">
-        <v>8.3293</v>
+        <v>458.0592</v>
       </c>
       <c r="G15" t="n">
-        <v>-11423.53960000001</v>
+        <v>-2665.7482</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -976,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="K15" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -996,34 +1038,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>681</v>
+        <v>706</v>
       </c>
       <c r="C16" t="n">
-        <v>681</v>
+        <v>706</v>
       </c>
       <c r="D16" t="n">
-        <v>681</v>
+        <v>706</v>
       </c>
       <c r="E16" t="n">
-        <v>681</v>
+        <v>706</v>
       </c>
       <c r="F16" t="n">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>-11133.53960000001</v>
+        <v>-2660.7482</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>679</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1040,34 +1080,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="C17" t="n">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="D17" t="n">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="E17" t="n">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="F17" t="n">
-        <v>0.748</v>
+        <v>272.988</v>
       </c>
       <c r="G17" t="n">
-        <v>-11133.53960000001</v>
+        <v>-2933.7362</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>681</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1084,34 +1122,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="C18" t="n">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="D18" t="n">
-        <v>682</v>
+        <v>703</v>
       </c>
       <c r="E18" t="n">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="F18" t="n">
-        <v>286.8788</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>-10846.66080000001</v>
+        <v>-2914.7362</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>681</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1128,22 +1164,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="C19" t="n">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="D19" t="n">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="E19" t="n">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="F19" t="n">
-        <v>1903.9652</v>
+        <v>31.9408</v>
       </c>
       <c r="G19" t="n">
-        <v>-12750.62600000001</v>
+        <v>-2946.677</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1153,7 +1189,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1170,22 +1206,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="C20" t="n">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D20" t="n">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="E20" t="n">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F20" t="n">
-        <v>9.7254</v>
+        <v>2507.8906</v>
       </c>
       <c r="G20" t="n">
-        <v>-12740.90060000001</v>
+        <v>-5454.5676</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1195,7 +1231,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1212,22 +1248,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="C21" t="n">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="D21" t="n">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="E21" t="n">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="F21" t="n">
-        <v>255.3233</v>
+        <v>4548.0163</v>
       </c>
       <c r="G21" t="n">
-        <v>-12996.22390000001</v>
+        <v>-5454.5676</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1237,7 +1273,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1254,22 +1290,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="C22" t="n">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="D22" t="n">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="E22" t="n">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="F22" t="n">
-        <v>116.0603</v>
+        <v>6.9825</v>
       </c>
       <c r="G22" t="n">
-        <v>-13112.28420000001</v>
+        <v>-5447.5851</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1279,7 +1315,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1296,22 +1332,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="C23" t="n">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="D23" t="n">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="E23" t="n">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="F23" t="n">
-        <v>65.3815</v>
+        <v>35.4614</v>
       </c>
       <c r="G23" t="n">
-        <v>-13177.66570000001</v>
+        <v>-5447.5851</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1321,7 +1357,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1338,22 +1374,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="C24" t="n">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="D24" t="n">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="E24" t="n">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="F24" t="n">
-        <v>333.9391</v>
+        <v>251.4173</v>
       </c>
       <c r="G24" t="n">
-        <v>-12843.72660000001</v>
+        <v>-5447.5851</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1363,7 +1399,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1380,22 +1416,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="C25" t="n">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="D25" t="n">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="E25" t="n">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0005999999999999999</v>
+        <v>4505.0802</v>
       </c>
       <c r="G25" t="n">
-        <v>-12843.72660000001</v>
+        <v>-9952.665300000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1405,7 +1441,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1422,22 +1458,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C26" t="n">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D26" t="n">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="E26" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F26" t="n">
-        <v>140</v>
+        <v>341.2196</v>
       </c>
       <c r="G26" t="n">
-        <v>-12703.72660000001</v>
+        <v>-9611.4457</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1447,7 +1483,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1464,34 +1500,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C27" t="n">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D27" t="n">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E27" t="n">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F27" t="n">
-        <v>142.3434</v>
+        <v>566.0758</v>
       </c>
       <c r="G27" t="n">
-        <v>-12846.07000000001</v>
+        <v>-10177.5215</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>684</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1508,22 +1542,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C28" t="n">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D28" t="n">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E28" t="n">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F28" t="n">
-        <v>30</v>
+        <v>691.7949</v>
       </c>
       <c r="G28" t="n">
-        <v>-12816.07000000001</v>
+        <v>-10869.3164</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1533,7 +1567,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1550,32 +1584,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C29" t="n">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="D29" t="n">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="E29" t="n">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>8.2051</v>
       </c>
       <c r="G29" t="n">
-        <v>-12786.07000000001</v>
+        <v>-10869.3164</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>677</v>
+      </c>
       <c r="K29" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1592,22 +1628,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C30" t="n">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="D30" t="n">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="E30" t="n">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F30" t="n">
-        <v>74.5887</v>
+        <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>-12860.65870000001</v>
+        <v>-10858.3164</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1617,7 +1653,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1634,22 +1670,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>678</v>
+      </c>
+      <c r="C31" t="n">
         <v>677</v>
       </c>
-      <c r="C31" t="n">
-        <v>676</v>
-      </c>
       <c r="D31" t="n">
+        <v>678</v>
+      </c>
+      <c r="E31" t="n">
         <v>677</v>
       </c>
-      <c r="E31" t="n">
-        <v>676</v>
-      </c>
       <c r="F31" t="n">
-        <v>155.8222</v>
+        <v>517.8114</v>
       </c>
       <c r="G31" t="n">
-        <v>-13016.48090000001</v>
+        <v>-11376.1278</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1659,7 +1695,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1676,22 +1712,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C32" t="n">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="D32" t="n">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="E32" t="n">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F32" t="n">
-        <v>28.9313</v>
+        <v>182</v>
       </c>
       <c r="G32" t="n">
-        <v>-12987.54960000001</v>
+        <v>-11376.1278</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1701,7 +1737,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1721,19 +1757,19 @@
         <v>677</v>
       </c>
       <c r="C33" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D33" t="n">
         <v>677</v>
       </c>
       <c r="E33" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F33" t="n">
-        <v>2400</v>
+        <v>0.1886</v>
       </c>
       <c r="G33" t="n">
-        <v>-15387.54960000001</v>
+        <v>-11376.1278</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1743,7 +1779,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1760,22 +1796,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C34" t="n">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D34" t="n">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E34" t="n">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="F34" t="n">
-        <v>843.0599</v>
+        <v>950.6187</v>
       </c>
       <c r="G34" t="n">
-        <v>-14544.48970000001</v>
+        <v>-10425.5091</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1785,7 +1821,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1802,22 +1838,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C35" t="n">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D35" t="n">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E35" t="n">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="G35" t="n">
-        <v>-14544.48970000001</v>
+        <v>-10058.5091</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1827,7 +1863,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1844,22 +1880,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C36" t="n">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D36" t="n">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E36" t="n">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F36" t="n">
-        <v>15</v>
+        <v>135.846</v>
       </c>
       <c r="G36" t="n">
-        <v>-14529.48970000001</v>
+        <v>-9922.663100000003</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1869,7 +1905,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1886,22 +1922,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C37" t="n">
         <v>683</v>
       </c>
       <c r="D37" t="n">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E37" t="n">
         <v>683</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>290.748</v>
       </c>
       <c r="G37" t="n">
-        <v>-14540.48970000001</v>
+        <v>-9631.915100000004</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1911,7 +1947,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1940,10 +1976,10 @@
         <v>682</v>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>146.6275</v>
       </c>
       <c r="G38" t="n">
-        <v>-14545.48970000001</v>
+        <v>-9778.542600000004</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1953,7 +1989,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1970,34 +2006,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C39" t="n">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D39" t="n">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E39" t="n">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F39" t="n">
-        <v>15.5646</v>
+        <v>53.3263</v>
       </c>
       <c r="G39" t="n">
-        <v>-14529.92510000001</v>
+        <v>-9831.868900000005</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>682</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2014,34 +2048,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C40" t="n">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D40" t="n">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E40" t="n">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F40" t="n">
-        <v>317.4693297810219</v>
+        <v>9.0938</v>
       </c>
       <c r="G40" t="n">
-        <v>-14212.45577021898</v>
+        <v>-9831.868900000005</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>684</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2058,22 +2090,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C41" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D41" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E41" t="n">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F41" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G41" t="n">
-        <v>-14177.45577021898</v>
+        <v>-9831.868900000005</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2083,7 +2115,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2100,22 +2132,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C42" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D42" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E42" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>145.7832</v>
       </c>
       <c r="G42" t="n">
-        <v>-14177.45577021898</v>
+        <v>-9831.868900000005</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2125,7 +2157,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2142,22 +2174,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C43" t="n">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D43" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E43" t="n">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="F43" t="n">
-        <v>12</v>
+        <v>1591.6707</v>
       </c>
       <c r="G43" t="n">
-        <v>-14177.45577021898</v>
+        <v>-11423.53960000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2167,7 +2199,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2184,22 +2216,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C44" t="n">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D44" t="n">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="E44" t="n">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="F44" t="n">
-        <v>526.4404702189781</v>
+        <v>8.3293</v>
       </c>
       <c r="G44" t="n">
-        <v>-14177.45577021898</v>
+        <v>-11423.53960000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2209,7 +2241,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2226,22 +2258,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C45" t="n">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="D45" t="n">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="E45" t="n">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F45" t="n">
-        <v>1631.7564</v>
+        <v>290</v>
       </c>
       <c r="G45" t="n">
-        <v>-12545.69937021898</v>
+        <v>-11133.53960000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2251,7 +2283,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2268,22 +2300,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="C46" t="n">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="D46" t="n">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="E46" t="n">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="F46" t="n">
-        <v>386.1897</v>
+        <v>0.748</v>
       </c>
       <c r="G46" t="n">
-        <v>-12545.69937021898</v>
+        <v>-11133.53960000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2293,7 +2325,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2310,22 +2342,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C47" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D47" t="n">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="E47" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F47" t="n">
-        <v>86.1237</v>
+        <v>286.8788</v>
       </c>
       <c r="G47" t="n">
-        <v>-12631.82307021898</v>
+        <v>-10846.66080000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2335,7 +2367,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2352,34 +2384,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C48" t="n">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="D48" t="n">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="E48" t="n">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="F48" t="n">
-        <v>17</v>
+        <v>1903.9652</v>
       </c>
       <c r="G48" t="n">
-        <v>-12614.82307021898</v>
+        <v>-12750.62600000001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>686</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2396,34 +2426,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C49" t="n">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D49" t="n">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E49" t="n">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>9.7254</v>
       </c>
       <c r="G49" t="n">
-        <v>-12614.82307021898</v>
+        <v>-12740.90060000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>690</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2440,34 +2468,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C50" t="n">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="D50" t="n">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="E50" t="n">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="F50" t="n">
-        <v>3.4551</v>
+        <v>255.3233</v>
       </c>
       <c r="G50" t="n">
-        <v>-12614.82307021898</v>
+        <v>-12996.22390000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>690</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2484,22 +2510,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="C51" t="n">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="D51" t="n">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="E51" t="n">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="F51" t="n">
-        <v>305.7723</v>
+        <v>116.0603</v>
       </c>
       <c r="G51" t="n">
-        <v>-12614.82307021898</v>
+        <v>-13112.28420000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2509,7 +2535,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2526,34 +2552,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>697</v>
+        <v>675</v>
       </c>
       <c r="C52" t="n">
-        <v>698</v>
+        <v>675</v>
       </c>
       <c r="D52" t="n">
-        <v>698</v>
+        <v>675</v>
       </c>
       <c r="E52" t="n">
-        <v>697</v>
+        <v>675</v>
       </c>
       <c r="F52" t="n">
-        <v>273.1518</v>
+        <v>65.3815</v>
       </c>
       <c r="G52" t="n">
-        <v>-12341.67127021898</v>
+        <v>-13177.66570000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>690</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2570,32 +2594,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="C53" t="n">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="D53" t="n">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="E53" t="n">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="F53" t="n">
-        <v>811.7913</v>
+        <v>333.9391</v>
       </c>
       <c r="G53" t="n">
-        <v>-13153.46257021898</v>
+        <v>-12843.72660000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>675</v>
+      </c>
       <c r="K53" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2612,32 +2638,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="C54" t="n">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="D54" t="n">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="E54" t="n">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="F54" t="n">
-        <v>711.3327</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>-12442.12987021898</v>
+        <v>-12843.72660000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>676</v>
+      </c>
       <c r="K54" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2654,32 +2682,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="C55" t="n">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="D55" t="n">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="E55" t="n">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="F55" t="n">
-        <v>907.3094</v>
+        <v>140</v>
       </c>
       <c r="G55" t="n">
-        <v>-12442.12987021898</v>
+        <v>-12703.72660000001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>676</v>
+      </c>
       <c r="K55" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2696,32 +2726,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="C56" t="n">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="D56" t="n">
-        <v>700</v>
+        <v>677</v>
       </c>
       <c r="E56" t="n">
-        <v>699</v>
+        <v>676</v>
       </c>
       <c r="F56" t="n">
-        <v>623.9759</v>
+        <v>142.3434</v>
       </c>
       <c r="G56" t="n">
-        <v>-11818.15397021898</v>
+        <v>-12846.07000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>684</v>
+      </c>
       <c r="K56" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2738,32 +2770,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="C57" t="n">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="D57" t="n">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="E57" t="n">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F57" t="n">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G57" t="n">
-        <v>-11910.15397021898</v>
+        <v>-12816.07000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>676</v>
+      </c>
       <c r="K57" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2780,32 +2814,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="C58" t="n">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="D58" t="n">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="E58" t="n">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="F58" t="n">
-        <v>46.4312</v>
+        <v>30</v>
       </c>
       <c r="G58" t="n">
-        <v>-11863.72277021898</v>
+        <v>-12786.07000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>683</v>
+      </c>
       <c r="K58" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2822,22 +2858,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="C59" t="n">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="D59" t="n">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="E59" t="n">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="F59" t="n">
-        <v>2949.4677</v>
+        <v>74.5887</v>
       </c>
       <c r="G59" t="n">
-        <v>-8914.255070218984</v>
+        <v>-12860.65870000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2847,7 +2883,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2864,22 +2900,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="C60" t="n">
-        <v>707</v>
+        <v>676</v>
       </c>
       <c r="D60" t="n">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="E60" t="n">
-        <v>707</v>
+        <v>676</v>
       </c>
       <c r="F60" t="n">
-        <v>800</v>
+        <v>155.8222</v>
       </c>
       <c r="G60" t="n">
-        <v>-8914.255070218984</v>
+        <v>-13016.48090000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2889,7 +2925,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2906,22 +2942,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="C61" t="n">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="D61" t="n">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="E61" t="n">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="F61" t="n">
-        <v>884.785</v>
+        <v>28.9313</v>
       </c>
       <c r="G61" t="n">
-        <v>-8029.470070218984</v>
+        <v>-12987.54960000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2931,7 +2967,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2948,22 +2984,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>715</v>
+        <v>677</v>
       </c>
       <c r="C62" t="n">
-        <v>722</v>
+        <v>676</v>
       </c>
       <c r="D62" t="n">
-        <v>722</v>
+        <v>677</v>
       </c>
       <c r="E62" t="n">
-        <v>715</v>
+        <v>676</v>
       </c>
       <c r="F62" t="n">
-        <v>2288.2228</v>
+        <v>2400</v>
       </c>
       <c r="G62" t="n">
-        <v>-5741.247270218984</v>
+        <v>-15387.54960000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2973,7 +3009,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2990,22 +3026,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>721</v>
+        <v>676</v>
       </c>
       <c r="C63" t="n">
-        <v>731</v>
+        <v>683</v>
       </c>
       <c r="D63" t="n">
-        <v>731</v>
+        <v>683</v>
       </c>
       <c r="E63" t="n">
-        <v>721</v>
+        <v>673</v>
       </c>
       <c r="F63" t="n">
-        <v>16293.7104</v>
+        <v>843.0599</v>
       </c>
       <c r="G63" t="n">
-        <v>10552.46312978102</v>
+        <v>-14544.48970000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3015,7 +3051,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3032,22 +3068,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>731</v>
+        <v>683</v>
       </c>
       <c r="C64" t="n">
-        <v>737</v>
+        <v>683</v>
       </c>
       <c r="D64" t="n">
-        <v>737</v>
+        <v>683</v>
       </c>
       <c r="E64" t="n">
-        <v>730</v>
+        <v>683</v>
       </c>
       <c r="F64" t="n">
-        <v>10272.7509</v>
+        <v>4</v>
       </c>
       <c r="G64" t="n">
-        <v>20825.21402978101</v>
+        <v>-14544.48970000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3057,7 +3093,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3074,22 +3110,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>737</v>
+        <v>685</v>
       </c>
       <c r="C65" t="n">
-        <v>735</v>
+        <v>685</v>
       </c>
       <c r="D65" t="n">
-        <v>737</v>
+        <v>685</v>
       </c>
       <c r="E65" t="n">
-        <v>730</v>
+        <v>685</v>
       </c>
       <c r="F65" t="n">
-        <v>12885.05793972789</v>
+        <v>15</v>
       </c>
       <c r="G65" t="n">
-        <v>7940.156090053124</v>
+        <v>-14529.48970000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3099,7 +3135,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3116,22 +3152,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>735</v>
+        <v>684</v>
       </c>
       <c r="C66" t="n">
-        <v>735</v>
+        <v>683</v>
       </c>
       <c r="D66" t="n">
-        <v>735</v>
+        <v>684</v>
       </c>
       <c r="E66" t="n">
-        <v>735</v>
+        <v>683</v>
       </c>
       <c r="F66" t="n">
-        <v>440.2394</v>
+        <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>7940.156090053124</v>
+        <v>-14540.48970000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3141,7 +3177,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3158,22 +3194,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>726</v>
+        <v>682</v>
       </c>
       <c r="C67" t="n">
-        <v>725</v>
+        <v>682</v>
       </c>
       <c r="D67" t="n">
-        <v>726</v>
+        <v>682</v>
       </c>
       <c r="E67" t="n">
-        <v>725</v>
+        <v>682</v>
       </c>
       <c r="F67" t="n">
-        <v>462.6474</v>
+        <v>5</v>
       </c>
       <c r="G67" t="n">
-        <v>7477.508690053124</v>
+        <v>-14545.48970000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3183,7 +3219,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3200,22 +3236,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="C68" t="n">
-        <v>723</v>
+        <v>684</v>
       </c>
       <c r="D68" t="n">
-        <v>723</v>
+        <v>684</v>
       </c>
       <c r="E68" t="n">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="F68" t="n">
-        <v>197.2136</v>
+        <v>15.5646</v>
       </c>
       <c r="G68" t="n">
-        <v>7280.295090053124</v>
+        <v>-14529.92510000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3225,7 +3261,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3242,22 +3278,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="C69" t="n">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="D69" t="n">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="E69" t="n">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="F69" t="n">
-        <v>176.2241</v>
+        <v>317.4693297810219</v>
       </c>
       <c r="G69" t="n">
-        <v>7104.070990053124</v>
+        <v>-14212.45577021898</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3267,7 +3303,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3284,22 +3320,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="C70" t="n">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="D70" t="n">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="E70" t="n">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="F70" t="n">
-        <v>1795.2618</v>
+        <v>35</v>
       </c>
       <c r="G70" t="n">
-        <v>8899.332790053124</v>
+        <v>-14177.45577021898</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3309,7 +3345,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3326,22 +3362,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="C71" t="n">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="D71" t="n">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="E71" t="n">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>8899.332790053124</v>
+        <v>-14177.45577021898</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3351,7 +3387,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3368,22 +3404,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="C72" t="n">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="D72" t="n">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="E72" t="n">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="F72" t="n">
-        <v>337.0830949438202</v>
+        <v>12</v>
       </c>
       <c r="G72" t="n">
-        <v>8899.332790053124</v>
+        <v>-14177.45577021898</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3393,7 +3429,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3410,22 +3446,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="C73" t="n">
-        <v>713</v>
+        <v>686</v>
       </c>
       <c r="D73" t="n">
-        <v>713</v>
+        <v>686</v>
       </c>
       <c r="E73" t="n">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="F73" t="n">
-        <v>864.8949</v>
+        <v>526.4404702189781</v>
       </c>
       <c r="G73" t="n">
-        <v>9764.227690053123</v>
+        <v>-14177.45577021898</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3435,7 +3471,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3452,22 +3488,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="C74" t="n">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="D74" t="n">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="E74" t="n">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="F74" t="n">
-        <v>99.75</v>
+        <v>1631.7564</v>
       </c>
       <c r="G74" t="n">
-        <v>9664.477690053123</v>
+        <v>-12545.69937021898</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3477,7 +3513,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3494,22 +3530,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="C75" t="n">
-        <v>712</v>
+        <v>690</v>
       </c>
       <c r="D75" t="n">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="E75" t="n">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="F75" t="n">
-        <v>1069.4467</v>
+        <v>386.1897</v>
       </c>
       <c r="G75" t="n">
-        <v>10733.92439005312</v>
+        <v>-12545.69937021898</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3519,7 +3555,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3536,22 +3572,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="C76" t="n">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="D76" t="n">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="E76" t="n">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="F76" t="n">
-        <v>1708.29</v>
+        <v>86.1237</v>
       </c>
       <c r="G76" t="n">
-        <v>9025.634390053125</v>
+        <v>-12631.82307021898</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3561,7 +3597,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3578,22 +3614,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="C77" t="n">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="D77" t="n">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="E77" t="n">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="F77" t="n">
-        <v>1032.8815</v>
+        <v>17</v>
       </c>
       <c r="G77" t="n">
-        <v>10058.51589005312</v>
+        <v>-12614.82307021898</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3603,7 +3639,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3620,22 +3656,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="C78" t="n">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="D78" t="n">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="E78" t="n">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="F78" t="n">
-        <v>874.4203</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
-        <v>9184.095590053124</v>
+        <v>-12614.82307021898</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3645,7 +3681,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3662,22 +3698,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="C79" t="n">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="D79" t="n">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="E79" t="n">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="F79" t="n">
-        <v>4599.0366</v>
+        <v>3.4551</v>
       </c>
       <c r="G79" t="n">
-        <v>4585.058990053124</v>
+        <v>-12614.82307021898</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3687,7 +3723,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3704,32 +3740,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="C80" t="n">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="D80" t="n">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="E80" t="n">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="F80" t="n">
-        <v>2354.7693</v>
+        <v>305.7723</v>
       </c>
       <c r="G80" t="n">
-        <v>4585.058990053124</v>
+        <v>-12614.82307021898</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>690</v>
+      </c>
       <c r="K80" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3746,32 +3784,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="C81" t="n">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="D81" t="n">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="E81" t="n">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="F81" t="n">
-        <v>4006.6039</v>
+        <v>273.1518</v>
       </c>
       <c r="G81" t="n">
-        <v>8591.662890053125</v>
+        <v>-12341.67127021898</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>690</v>
+      </c>
       <c r="K81" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3788,22 +3828,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>717</v>
+        <v>694</v>
       </c>
       <c r="C82" t="n">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="D82" t="n">
-        <v>722</v>
+        <v>695</v>
       </c>
       <c r="E82" t="n">
-        <v>717</v>
+        <v>694</v>
       </c>
       <c r="F82" t="n">
-        <v>12035.275</v>
+        <v>811.7913</v>
       </c>
       <c r="G82" t="n">
-        <v>20626.93789005312</v>
+        <v>-13153.46257021898</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3813,7 +3853,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3830,76 +3870,80 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="C83" t="n">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="D83" t="n">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="E83" t="n">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="F83" t="n">
-        <v>10.775</v>
+        <v>711.3327</v>
       </c>
       <c r="G83" t="n">
-        <v>20626.93789005312</v>
+        <v>-12442.12987021898</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1.050718475073314</v>
-      </c>
-      <c r="N83" t="n">
-        <v>1.008862629246676</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="C84" t="n">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="D84" t="n">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="E84" t="n">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="F84" t="n">
-        <v>1943.6333</v>
+        <v>907.3094</v>
       </c>
       <c r="G84" t="n">
-        <v>20626.93789005312</v>
+        <v>-12442.12987021898</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>688</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3910,32 +3954,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="C85" t="n">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="D85" t="n">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="E85" t="n">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="F85" t="n">
-        <v>634.2564</v>
+        <v>623.9759</v>
       </c>
       <c r="G85" t="n">
-        <v>19992.68149005312</v>
+        <v>-11818.15397021898</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>688</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3946,32 +3996,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="C86" t="n">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="D86" t="n">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="E86" t="n">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="F86" t="n">
-        <v>67.34</v>
+        <v>92</v>
       </c>
       <c r="G86" t="n">
-        <v>20060.02149005312</v>
+        <v>-11910.15397021898</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>688</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3982,32 +4038,38 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="C87" t="n">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="D87" t="n">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="E87" t="n">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="F87" t="n">
-        <v>384.8154</v>
+        <v>46.4312</v>
       </c>
       <c r="G87" t="n">
-        <v>19675.20609005313</v>
+        <v>-11863.72277021898</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>688</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4018,32 +4080,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="C88" t="n">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="D88" t="n">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="E88" t="n">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>2949.4677</v>
       </c>
       <c r="G88" t="n">
-        <v>19676.20609005313</v>
+        <v>-8914.255070218984</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>688</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4054,32 +4122,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C89" t="n">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="D89" t="n">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E89" t="n">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="F89" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="G89" t="n">
-        <v>19526.20609005313</v>
+        <v>-8914.255070218984</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>688</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4090,32 +4164,38 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C90" t="n">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="D90" t="n">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E90" t="n">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F90" t="n">
-        <v>2097.9026</v>
+        <v>884.785</v>
       </c>
       <c r="G90" t="n">
-        <v>17428.30349005312</v>
+        <v>-8029.470070218984</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>688</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4126,32 +4206,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="C91" t="n">
-        <v>693</v>
+        <v>722</v>
       </c>
       <c r="D91" t="n">
-        <v>704</v>
+        <v>722</v>
       </c>
       <c r="E91" t="n">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="F91" t="n">
-        <v>13400.9083</v>
+        <v>2288.2228</v>
       </c>
       <c r="G91" t="n">
-        <v>4027.395190053125</v>
+        <v>-5741.247270218984</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>688</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4162,32 +4248,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="C92" t="n">
-        <v>702</v>
+        <v>731</v>
       </c>
       <c r="D92" t="n">
-        <v>702</v>
+        <v>731</v>
       </c>
       <c r="E92" t="n">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="F92" t="n">
-        <v>927.2435</v>
+        <v>16293.7104</v>
       </c>
       <c r="G92" t="n">
-        <v>4954.638690053125</v>
+        <v>10552.46312978102</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>688</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4198,22 +4290,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="C93" t="n">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="D93" t="n">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="E93" t="n">
-        <v>701</v>
+        <v>730</v>
       </c>
       <c r="F93" t="n">
-        <v>546.4466</v>
+        <v>10272.7509</v>
       </c>
       <c r="G93" t="n">
-        <v>4408.192090053125</v>
+        <v>20825.21402978101</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4222,8 +4314,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>688</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4234,22 +4332,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="C94" t="n">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="D94" t="n">
-        <v>705</v>
+        <v>737</v>
       </c>
       <c r="E94" t="n">
-        <v>701</v>
+        <v>730</v>
       </c>
       <c r="F94" t="n">
-        <v>410.8349</v>
+        <v>12885.05793972789</v>
       </c>
       <c r="G94" t="n">
-        <v>4819.026990053125</v>
+        <v>7940.156090053124</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4258,8 +4356,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>688</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4270,64 +4374,72 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>703</v>
+        <v>735</v>
       </c>
       <c r="C95" t="n">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="D95" t="n">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="E95" t="n">
-        <v>703</v>
+        <v>735</v>
       </c>
       <c r="F95" t="n">
-        <v>101</v>
+        <v>440.2394</v>
       </c>
       <c r="G95" t="n">
-        <v>4920.026990053125</v>
+        <v>7940.156090053124</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>688</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>1.063313953488372</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.013196480938416</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>702</v>
+        <v>726</v>
       </c>
       <c r="C96" t="n">
-        <v>702</v>
+        <v>725</v>
       </c>
       <c r="D96" t="n">
-        <v>702</v>
+        <v>726</v>
       </c>
       <c r="E96" t="n">
-        <v>702</v>
+        <v>725</v>
       </c>
       <c r="F96" t="n">
-        <v>387.7222</v>
+        <v>462.6474</v>
       </c>
       <c r="G96" t="n">
-        <v>4532.304790053125</v>
+        <v>7477.508690053124</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4342,28 +4454,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C97" t="n">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="D97" t="n">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="E97" t="n">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>197.2136</v>
       </c>
       <c r="G97" t="n">
-        <v>4533.304790053125</v>
+        <v>7280.295090053124</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4390,10 +4502,10 @@
         <v>708</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>176.2241</v>
       </c>
       <c r="G98" t="n">
-        <v>4533.304790053125</v>
+        <v>7104.070990053124</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4414,22 +4526,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="C99" t="n">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D99" t="n">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="E99" t="n">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="F99" t="n">
-        <v>1419.8833</v>
+        <v>1795.2618</v>
       </c>
       <c r="G99" t="n">
-        <v>5953.188090053125</v>
+        <v>8899.332790053124</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4450,22 +4562,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="C100" t="n">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D100" t="n">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E100" t="n">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="F100" t="n">
-        <v>410.2738</v>
+        <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>6363.461890053125</v>
+        <v>8899.332790053124</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4486,22 +4598,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="C101" t="n">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="D101" t="n">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="E101" t="n">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="F101" t="n">
-        <v>339.9547</v>
+        <v>337.0830949438202</v>
       </c>
       <c r="G101" t="n">
-        <v>6023.507190053125</v>
+        <v>8899.332790053124</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4522,22 +4634,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="C102" t="n">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="D102" t="n">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="E102" t="n">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>864.8949</v>
       </c>
       <c r="G102" t="n">
-        <v>6024.507190053125</v>
+        <v>9764.227690053123</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4558,22 +4670,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="C103" t="n">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="D103" t="n">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="E103" t="n">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="F103" t="n">
-        <v>933.4361</v>
+        <v>99.75</v>
       </c>
       <c r="G103" t="n">
-        <v>5091.071090053125</v>
+        <v>9664.477690053123</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4594,22 +4706,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="C104" t="n">
-        <v>691</v>
+        <v>712</v>
       </c>
       <c r="D104" t="n">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="E104" t="n">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="F104" t="n">
-        <v>399.4978</v>
+        <v>1069.4467</v>
       </c>
       <c r="G104" t="n">
-        <v>4691.573290053125</v>
+        <v>10733.92439005312</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4630,28 +4742,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="C105" t="n">
-        <v>686</v>
+        <v>709</v>
       </c>
       <c r="D105" t="n">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="E105" t="n">
-        <v>686</v>
+        <v>709</v>
       </c>
       <c r="F105" t="n">
-        <v>821.4627</v>
+        <v>1708.29</v>
       </c>
       <c r="G105" t="n">
-        <v>3870.110590053125</v>
+        <v>9025.634390053125</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4666,22 +4778,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="C106" t="n">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="D106" t="n">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="E106" t="n">
-        <v>686</v>
+        <v>709</v>
       </c>
       <c r="F106" t="n">
-        <v>170.139</v>
+        <v>1032.8815</v>
       </c>
       <c r="G106" t="n">
-        <v>3870.110590053125</v>
+        <v>10058.51589005312</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4702,22 +4814,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="C107" t="n">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="D107" t="n">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="E107" t="n">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>874.4203</v>
       </c>
       <c r="G107" t="n">
-        <v>3871.110590053125</v>
+        <v>9184.095590053124</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4738,38 +4850,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="C108" t="n">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="D108" t="n">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="E108" t="n">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="F108" t="n">
-        <v>999.7</v>
+        <v>4599.0366</v>
       </c>
       <c r="G108" t="n">
-        <v>4870.810590053125</v>
+        <v>4585.058990053124</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>691</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4780,22 +4886,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C109" t="n">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="D109" t="n">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E109" t="n">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F109" t="n">
-        <v>381.1563</v>
+        <v>2354.7693</v>
       </c>
       <c r="G109" t="n">
-        <v>4870.810590053125</v>
+        <v>4585.058990053124</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4805,11 +4911,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4820,22 +4922,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="C110" t="n">
-        <v>686</v>
+        <v>717</v>
       </c>
       <c r="D110" t="n">
-        <v>686</v>
+        <v>717</v>
       </c>
       <c r="E110" t="n">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>4006.6039</v>
       </c>
       <c r="G110" t="n">
-        <v>4869.810590053125</v>
+        <v>8591.662890053125</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4845,11 +4947,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4860,22 +4958,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>688</v>
+        <v>717</v>
       </c>
       <c r="C111" t="n">
-        <v>688</v>
+        <v>720</v>
       </c>
       <c r="D111" t="n">
-        <v>688</v>
+        <v>722</v>
       </c>
       <c r="E111" t="n">
-        <v>688</v>
+        <v>717</v>
       </c>
       <c r="F111" t="n">
-        <v>219.1</v>
+        <v>12035.275</v>
       </c>
       <c r="G111" t="n">
-        <v>5088.910590053125</v>
+        <v>20626.93789005312</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4885,11 +4983,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4900,36 +4994,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>688</v>
+        <v>721</v>
       </c>
       <c r="C112" t="n">
-        <v>686</v>
+        <v>720</v>
       </c>
       <c r="D112" t="n">
-        <v>688</v>
+        <v>721</v>
       </c>
       <c r="E112" t="n">
-        <v>686</v>
+        <v>720</v>
       </c>
       <c r="F112" t="n">
-        <v>1007.6458</v>
+        <v>10.775</v>
       </c>
       <c r="G112" t="n">
-        <v>4081.264790053125</v>
+        <v>20626.93789005312</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4940,36 +5030,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>686</v>
+        <v>719</v>
       </c>
       <c r="C113" t="n">
-        <v>676</v>
+        <v>720</v>
       </c>
       <c r="D113" t="n">
-        <v>686</v>
+        <v>720</v>
       </c>
       <c r="E113" t="n">
-        <v>676</v>
+        <v>719</v>
       </c>
       <c r="F113" t="n">
-        <v>2830.278129781022</v>
+        <v>1943.6333</v>
       </c>
       <c r="G113" t="n">
-        <v>1250.986660272103</v>
+        <v>20626.93789005312</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4980,36 +5066,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>673</v>
+        <v>714</v>
       </c>
       <c r="C114" t="n">
-        <v>672</v>
+        <v>714</v>
       </c>
       <c r="D114" t="n">
-        <v>673</v>
+        <v>714</v>
       </c>
       <c r="E114" t="n">
-        <v>672</v>
+        <v>714</v>
       </c>
       <c r="F114" t="n">
-        <v>422.0303</v>
+        <v>634.2564</v>
       </c>
       <c r="G114" t="n">
-        <v>828.9563602721026</v>
+        <v>19992.68149005312</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5020,36 +5102,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>691</v>
+        <v>720</v>
       </c>
       <c r="C115" t="n">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="D115" t="n">
-        <v>691</v>
+        <v>720</v>
       </c>
       <c r="E115" t="n">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>67.34</v>
       </c>
       <c r="G115" t="n">
-        <v>829.9563602721026</v>
+        <v>20060.02149005312</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5060,36 +5138,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="C116" t="n">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="D116" t="n">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="E116" t="n">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>384.8154</v>
       </c>
       <c r="G116" t="n">
-        <v>827.9563602721026</v>
+        <v>19675.20609005313</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5100,36 +5174,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="C117" t="n">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="D117" t="n">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="E117" t="n">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>826.9563602721026</v>
+        <v>19676.20609005313</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5140,36 +5210,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="C118" t="n">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="D118" t="n">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="E118" t="n">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="F118" t="n">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="G118" t="n">
-        <v>828.9563602721026</v>
+        <v>19526.20609005313</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5180,36 +5246,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="C119" t="n">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="D119" t="n">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="E119" t="n">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="F119" t="n">
-        <v>985.4604</v>
+        <v>2097.9026</v>
       </c>
       <c r="G119" t="n">
-        <v>-156.5040397278974</v>
+        <v>17428.30349005312</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5220,36 +5282,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="C120" t="n">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D120" t="n">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="E120" t="n">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F120" t="n">
-        <v>88.3565</v>
+        <v>13400.9083</v>
       </c>
       <c r="G120" t="n">
-        <v>-68.14753972789741</v>
+        <v>4027.395190053125</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5260,36 +5318,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="C121" t="n">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="D121" t="n">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="E121" t="n">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="F121" t="n">
-        <v>595.6288</v>
+        <v>927.2435</v>
       </c>
       <c r="G121" t="n">
-        <v>-663.7763397278974</v>
+        <v>4954.638690053125</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5300,22 +5354,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="C122" t="n">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="D122" t="n">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="E122" t="n">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="F122" t="n">
-        <v>795.0866</v>
+        <v>546.4466</v>
       </c>
       <c r="G122" t="n">
-        <v>-1458.862939727897</v>
+        <v>4408.192090053125</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5325,11 +5379,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5340,22 +5390,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C123" t="n">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D123" t="n">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="E123" t="n">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>410.8349</v>
       </c>
       <c r="G123" t="n">
-        <v>-1457.862939727897</v>
+        <v>4819.026990053125</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5365,11 +5415,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5380,22 +5426,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="C124" t="n">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="D124" t="n">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="E124" t="n">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="F124" t="n">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G124" t="n">
-        <v>-1459.862939727897</v>
+        <v>4920.026990053125</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5405,11 +5451,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5420,22 +5462,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="C125" t="n">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="D125" t="n">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="E125" t="n">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="F125" t="n">
-        <v>596.499</v>
+        <v>387.7222</v>
       </c>
       <c r="G125" t="n">
-        <v>-2056.361939727897</v>
+        <v>4532.304790053125</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5445,15 +5487,1055 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
       <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>708</v>
+      </c>
+      <c r="C126" t="n">
+        <v>708</v>
+      </c>
+      <c r="D126" t="n">
+        <v>708</v>
+      </c>
+      <c r="E126" t="n">
+        <v>708</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4533.304790053125</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>708</v>
+      </c>
+      <c r="C127" t="n">
+        <v>708</v>
+      </c>
+      <c r="D127" t="n">
+        <v>708</v>
+      </c>
+      <c r="E127" t="n">
+        <v>708</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>4533.304790053125</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>699</v>
+      </c>
+      <c r="C128" t="n">
+        <v>709</v>
+      </c>
+      <c r="D128" t="n">
+        <v>709</v>
+      </c>
+      <c r="E128" t="n">
+        <v>698</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1419.8833</v>
+      </c>
+      <c r="G128" t="n">
+        <v>5953.188090053125</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>701</v>
+      </c>
+      <c r="C129" t="n">
+        <v>710</v>
+      </c>
+      <c r="D129" t="n">
+        <v>710</v>
+      </c>
+      <c r="E129" t="n">
+        <v>701</v>
+      </c>
+      <c r="F129" t="n">
+        <v>410.2738</v>
+      </c>
+      <c r="G129" t="n">
+        <v>6363.461890053125</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>700</v>
+      </c>
+      <c r="C130" t="n">
+        <v>700</v>
+      </c>
+      <c r="D130" t="n">
+        <v>700</v>
+      </c>
+      <c r="E130" t="n">
+        <v>700</v>
+      </c>
+      <c r="F130" t="n">
+        <v>339.9547</v>
+      </c>
+      <c r="G130" t="n">
+        <v>6023.507190053125</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>704</v>
+      </c>
+      <c r="C131" t="n">
+        <v>704</v>
+      </c>
+      <c r="D131" t="n">
+        <v>704</v>
+      </c>
+      <c r="E131" t="n">
+        <v>704</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>6024.507190053125</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>698</v>
+      </c>
+      <c r="C132" t="n">
+        <v>695</v>
+      </c>
+      <c r="D132" t="n">
+        <v>698</v>
+      </c>
+      <c r="E132" t="n">
+        <v>695</v>
+      </c>
+      <c r="F132" t="n">
+        <v>933.4361</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5091.071090053125</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>695</v>
+      </c>
+      <c r="C133" t="n">
+        <v>691</v>
+      </c>
+      <c r="D133" t="n">
+        <v>695</v>
+      </c>
+      <c r="E133" t="n">
+        <v>691</v>
+      </c>
+      <c r="F133" t="n">
+        <v>399.4978</v>
+      </c>
+      <c r="G133" t="n">
+        <v>4691.573290053125</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>691</v>
+      </c>
+      <c r="C134" t="n">
+        <v>686</v>
+      </c>
+      <c r="D134" t="n">
+        <v>691</v>
+      </c>
+      <c r="E134" t="n">
+        <v>686</v>
+      </c>
+      <c r="F134" t="n">
+        <v>821.4627</v>
+      </c>
+      <c r="G134" t="n">
+        <v>3870.110590053125</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>687</v>
+      </c>
+      <c r="C135" t="n">
+        <v>686</v>
+      </c>
+      <c r="D135" t="n">
+        <v>687</v>
+      </c>
+      <c r="E135" t="n">
+        <v>686</v>
+      </c>
+      <c r="F135" t="n">
+        <v>170.139</v>
+      </c>
+      <c r="G135" t="n">
+        <v>3870.110590053125</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>691</v>
+      </c>
+      <c r="C136" t="n">
+        <v>691</v>
+      </c>
+      <c r="D136" t="n">
+        <v>691</v>
+      </c>
+      <c r="E136" t="n">
+        <v>691</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>3871.110590053125</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>689</v>
+      </c>
+      <c r="C137" t="n">
+        <v>709</v>
+      </c>
+      <c r="D137" t="n">
+        <v>709</v>
+      </c>
+      <c r="E137" t="n">
+        <v>689</v>
+      </c>
+      <c r="F137" t="n">
+        <v>999.7</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4870.810590053125</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>709</v>
+      </c>
+      <c r="C138" t="n">
+        <v>709</v>
+      </c>
+      <c r="D138" t="n">
+        <v>709</v>
+      </c>
+      <c r="E138" t="n">
+        <v>709</v>
+      </c>
+      <c r="F138" t="n">
+        <v>381.1563</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4870.810590053125</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>686</v>
+      </c>
+      <c r="C139" t="n">
+        <v>686</v>
+      </c>
+      <c r="D139" t="n">
+        <v>686</v>
+      </c>
+      <c r="E139" t="n">
+        <v>686</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4869.810590053125</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>688</v>
+      </c>
+      <c r="C140" t="n">
+        <v>688</v>
+      </c>
+      <c r="D140" t="n">
+        <v>688</v>
+      </c>
+      <c r="E140" t="n">
+        <v>688</v>
+      </c>
+      <c r="F140" t="n">
+        <v>219.1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>5088.910590053125</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>688</v>
+      </c>
+      <c r="C141" t="n">
+        <v>686</v>
+      </c>
+      <c r="D141" t="n">
+        <v>688</v>
+      </c>
+      <c r="E141" t="n">
+        <v>686</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1007.6458</v>
+      </c>
+      <c r="G141" t="n">
+        <v>4081.264790053125</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>686</v>
+      </c>
+      <c r="C142" t="n">
+        <v>676</v>
+      </c>
+      <c r="D142" t="n">
+        <v>686</v>
+      </c>
+      <c r="E142" t="n">
+        <v>676</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2830.278129781022</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1250.986660272103</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>673</v>
+      </c>
+      <c r="C143" t="n">
+        <v>672</v>
+      </c>
+      <c r="D143" t="n">
+        <v>673</v>
+      </c>
+      <c r="E143" t="n">
+        <v>672</v>
+      </c>
+      <c r="F143" t="n">
+        <v>422.0303</v>
+      </c>
+      <c r="G143" t="n">
+        <v>828.9563602721026</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>691</v>
+      </c>
+      <c r="C144" t="n">
+        <v>691</v>
+      </c>
+      <c r="D144" t="n">
+        <v>691</v>
+      </c>
+      <c r="E144" t="n">
+        <v>691</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>829.9563602721026</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>680</v>
+      </c>
+      <c r="C145" t="n">
+        <v>687</v>
+      </c>
+      <c r="D145" t="n">
+        <v>687</v>
+      </c>
+      <c r="E145" t="n">
+        <v>680</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="n">
+        <v>827.9563602721026</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>680</v>
+      </c>
+      <c r="C146" t="n">
+        <v>680</v>
+      </c>
+      <c r="D146" t="n">
+        <v>680</v>
+      </c>
+      <c r="E146" t="n">
+        <v>680</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>826.9563602721026</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>695</v>
+      </c>
+      <c r="C147" t="n">
+        <v>696</v>
+      </c>
+      <c r="D147" t="n">
+        <v>696</v>
+      </c>
+      <c r="E147" t="n">
+        <v>695</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2</v>
+      </c>
+      <c r="G147" t="n">
+        <v>828.9563602721026</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>687</v>
+      </c>
+      <c r="C148" t="n">
+        <v>686</v>
+      </c>
+      <c r="D148" t="n">
+        <v>687</v>
+      </c>
+      <c r="E148" t="n">
+        <v>686</v>
+      </c>
+      <c r="F148" t="n">
+        <v>985.4604</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-156.5040397278974</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>690</v>
+      </c>
+      <c r="C149" t="n">
+        <v>698</v>
+      </c>
+      <c r="D149" t="n">
+        <v>698</v>
+      </c>
+      <c r="E149" t="n">
+        <v>690</v>
+      </c>
+      <c r="F149" t="n">
+        <v>88.3565</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-68.14753972789741</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>690</v>
+      </c>
+      <c r="C150" t="n">
+        <v>690</v>
+      </c>
+      <c r="D150" t="n">
+        <v>690</v>
+      </c>
+      <c r="E150" t="n">
+        <v>690</v>
+      </c>
+      <c r="F150" t="n">
+        <v>595.6288</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-663.7763397278974</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>688</v>
+      </c>
+      <c r="C151" t="n">
+        <v>686</v>
+      </c>
+      <c r="D151" t="n">
+        <v>688</v>
+      </c>
+      <c r="E151" t="n">
+        <v>686</v>
+      </c>
+      <c r="F151" t="n">
+        <v>795.0866</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1458.862939727897</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>702</v>
+      </c>
+      <c r="C152" t="n">
+        <v>702</v>
+      </c>
+      <c r="D152" t="n">
+        <v>702</v>
+      </c>
+      <c r="E152" t="n">
+        <v>702</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-1457.862939727897</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>686</v>
+      </c>
+      <c r="C153" t="n">
+        <v>699</v>
+      </c>
+      <c r="D153" t="n">
+        <v>699</v>
+      </c>
+      <c r="E153" t="n">
+        <v>686</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-1459.862939727897</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>694</v>
+      </c>
+      <c r="C154" t="n">
+        <v>694</v>
+      </c>
+      <c r="D154" t="n">
+        <v>698</v>
+      </c>
+      <c r="E154" t="n">
+        <v>694</v>
+      </c>
+      <c r="F154" t="n">
+        <v>596.499</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-2056.361939727897</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-12 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-12 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-5202.8086</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-4702.8086</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="J3" t="n">
         <v>682</v>
       </c>
-      <c r="K3" t="n">
-        <v>682</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-4341.943600000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="J4" t="n">
-        <v>685</v>
-      </c>
-      <c r="K4" t="n">
         <v>682</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-3564.3851</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="J5" t="n">
-        <v>686</v>
-      </c>
-      <c r="K5" t="n">
         <v>682</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>-3559.123900000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="J6" t="n">
         <v>688</v>
       </c>
-      <c r="K6" t="n">
-        <v>688</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,21 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>691</v>
-      </c>
-      <c r="K7" t="n">
-        <v>688</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>688</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +679,21 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>694</v>
-      </c>
-      <c r="K8" t="n">
-        <v>688</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,26 +718,21 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>694</v>
-      </c>
-      <c r="K9" t="n">
-        <v>688</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,26 +757,21 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>694</v>
-      </c>
-      <c r="K10" t="n">
-        <v>688</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,26 +796,21 @@
         <v>-3381.016000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>694</v>
-      </c>
-      <c r="K11" t="n">
-        <v>688</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -880,26 +835,21 @@
         <v>-5381.016000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>695</v>
-      </c>
-      <c r="K12" t="n">
-        <v>688</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -924,26 +874,21 @@
         <v>-3091.016000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>689</v>
-      </c>
-      <c r="K13" t="n">
-        <v>688</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -968,26 +913,21 @@
         <v>-3123.807400000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>695</v>
-      </c>
-      <c r="K14" t="n">
-        <v>688</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1012,26 +952,21 @@
         <v>-2665.7482</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>694</v>
-      </c>
-      <c r="K15" t="n">
-        <v>688</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1058,22 +993,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>688</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>688</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1100,22 +1032,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>688</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>688</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1142,22 +1071,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>688</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>688</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1184,22 +1110,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>688</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>688</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1226,22 +1149,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>688</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>688</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1268,22 +1188,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>688</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>688</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1310,22 +1227,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>688</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>688</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1352,22 +1266,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>688</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>688</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1392,24 +1303,21 @@
         <v>-5447.5851</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>688</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>688</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1434,24 +1342,21 @@
         <v>-9952.665300000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>688</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>688</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1476,24 +1381,21 @@
         <v>-9611.4457</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>688</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>688</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1518,24 +1420,21 @@
         <v>-10177.5215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>688</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>688</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1560,24 +1459,21 @@
         <v>-10869.3164</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>688</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>688</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1602,26 +1498,21 @@
         <v>-10869.3164</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>677</v>
-      </c>
-      <c r="K29" t="n">
-        <v>688</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1648,22 +1539,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>688</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>688</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1690,22 +1578,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>688</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>688</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1732,22 +1617,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>688</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>688</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1774,22 +1656,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>688</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>688</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1816,22 +1695,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>688</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>688</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1858,22 +1734,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>688</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>688</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1900,22 +1773,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>688</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>688</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1942,22 +1812,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>688</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>688</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1984,22 +1851,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>688</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>688</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2026,22 +1890,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>688</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>688</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2068,22 +1929,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>688</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>688</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2110,22 +1968,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>688</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>688</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2152,22 +2007,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>688</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>688</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2194,22 +2046,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>688</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>688</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2236,22 +2085,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>688</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>688</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2278,22 +2124,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>688</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>688</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2320,22 +2163,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>688</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>688</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2362,22 +2202,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>688</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>688</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2404,22 +2241,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>688</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>688</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2446,22 +2280,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>688</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>688</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2488,22 +2319,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>688</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>688</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2530,22 +2358,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>688</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>688</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2572,22 +2397,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>688</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>688</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2612,26 +2434,21 @@
         <v>-12843.72660000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>675</v>
-      </c>
-      <c r="K53" t="n">
-        <v>688</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2656,26 +2473,21 @@
         <v>-12843.72660000001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>676</v>
-      </c>
-      <c r="K54" t="n">
-        <v>688</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2700,26 +2512,21 @@
         <v>-12703.72660000001</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>676</v>
-      </c>
-      <c r="K55" t="n">
-        <v>688</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2744,26 +2551,21 @@
         <v>-12846.07000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>684</v>
-      </c>
-      <c r="K56" t="n">
-        <v>688</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2788,26 +2590,21 @@
         <v>-12816.07000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>676</v>
-      </c>
-      <c r="K57" t="n">
-        <v>688</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2832,26 +2629,21 @@
         <v>-12786.07000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>683</v>
-      </c>
-      <c r="K58" t="n">
-        <v>688</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2878,22 +2670,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>688</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>688</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2920,22 +2709,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>688</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>688</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2962,22 +2748,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>688</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>688</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3004,22 +2787,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>688</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>688</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3046,22 +2826,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>688</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>688</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3088,22 +2865,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>688</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>688</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3130,22 +2904,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>688</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>688</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3172,22 +2943,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>688</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>688</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3214,22 +2982,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>688</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>688</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3256,22 +3021,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>688</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>688</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3298,22 +3060,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>688</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>688</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3340,22 +3099,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>688</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>688</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3382,22 +3138,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>688</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>688</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3424,22 +3177,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>688</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>688</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3466,22 +3216,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>688</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>688</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3508,22 +3255,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>688</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>688</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3550,22 +3294,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>688</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>688</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3592,22 +3333,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>688</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>688</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3634,22 +3372,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>688</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>688</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3676,22 +3411,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>688</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>688</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3718,22 +3450,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>688</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>688</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3758,26 +3487,21 @@
         <v>-12614.82307021898</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>690</v>
-      </c>
-      <c r="K80" t="n">
-        <v>688</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3802,26 +3526,21 @@
         <v>-12341.67127021898</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>690</v>
-      </c>
-      <c r="K81" t="n">
-        <v>688</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3848,22 +3567,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>688</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>688</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3890,22 +3606,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>688</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>688</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3932,22 +3645,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>688</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>688</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3974,22 +3684,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>688</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>688</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4016,22 +3723,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>688</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>688</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4058,22 +3762,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>688</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>688</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4100,22 +3801,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>688</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>688</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4142,22 +3840,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>688</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>688</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4184,22 +3879,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>688</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>688</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4224,24 +3916,21 @@
         <v>-5741.247270218984</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>688</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>688</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.044418604651163</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4268,22 +3957,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>688</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4308,24 +3988,15 @@
         <v>20825.21402978101</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>688</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4350,24 +4021,15 @@
         <v>7940.156090053124</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>688</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4392,26 +4054,15 @@
         <v>7940.156090053124</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>688</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1.063313953488372</v>
-      </c>
-      <c r="N95" t="n">
-        <v>1.013196480938416</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4436,18 +4087,15 @@
         <v>7477.508690053124</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4472,18 +4120,15 @@
         <v>7280.295090053124</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4510,16 +4155,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4546,16 +4188,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4580,18 +4219,15 @@
         <v>8899.332790053124</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4618,16 +4254,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4654,16 +4287,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4690,16 +4320,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4726,16 +4353,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4762,16 +4386,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4798,16 +4419,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4834,16 +4452,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4870,16 +4485,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4906,16 +4518,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4942,16 +4551,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4978,16 +4584,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5012,18 +4615,15 @@
         <v>20626.93789005312</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5048,18 +4648,15 @@
         <v>20626.93789005312</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5084,18 +4681,15 @@
         <v>19992.68149005312</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5120,18 +4714,15 @@
         <v>20060.02149005312</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5156,18 +4747,15 @@
         <v>19675.20609005313</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5194,16 +4782,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5230,16 +4815,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5266,16 +4848,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5302,16 +4881,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5338,16 +4914,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5374,16 +4947,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5408,18 +4978,15 @@
         <v>4819.026990053125</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5446,16 +5013,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5482,16 +5046,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5518,16 +5079,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5554,16 +5112,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5590,16 +5145,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5626,16 +5178,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5662,16 +5211,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5698,16 +5244,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5734,16 +5277,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5770,16 +5310,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5806,16 +5343,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5840,18 +5374,15 @@
         <v>3870.110590053125</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5876,18 +5407,15 @@
         <v>3871.110590053125</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5912,18 +5440,15 @@
         <v>4870.810590053125</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5948,18 +5473,15 @@
         <v>4870.810590053125</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5984,18 +5506,15 @@
         <v>4869.810590053125</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6020,18 +5539,15 @@
         <v>5088.910590053125</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6056,18 +5572,15 @@
         <v>4081.264790053125</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6094,16 +5607,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6130,16 +5640,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6166,16 +5673,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6202,16 +5706,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6238,16 +5739,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6274,16 +5772,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6310,16 +5805,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6346,16 +5838,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6382,16 +5871,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6418,16 +5904,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6454,16 +5937,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6490,16 +5970,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6526,18 +6003,15 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-12 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-12 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5202.8086</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4702.8086</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>682</v>
@@ -521,7 +521,7 @@
         <v>-4341.943600000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>685</v>
@@ -562,7 +562,7 @@
         <v>-3564.3851</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>686</v>
@@ -603,7 +603,7 @@
         <v>-3559.123900000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>688</v>
@@ -640,9 +640,11 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>691</v>
+      </c>
       <c r="J7" t="n">
         <v>688</v>
       </c>
@@ -679,9 +681,11 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>694</v>
+      </c>
       <c r="J8" t="n">
         <v>688</v>
       </c>
@@ -718,9 +722,11 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>694</v>
+      </c>
       <c r="J9" t="n">
         <v>688</v>
       </c>
@@ -757,9 +763,11 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>694</v>
+      </c>
       <c r="J10" t="n">
         <v>688</v>
       </c>
@@ -796,9 +804,11 @@
         <v>-3381.016000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>694</v>
+      </c>
       <c r="J11" t="n">
         <v>688</v>
       </c>
@@ -1303,7 +1313,7 @@
         <v>-5447.5851</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
@@ -1342,7 +1352,7 @@
         <v>-9952.665300000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
@@ -1381,7 +1391,7 @@
         <v>-9611.4457</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
@@ -1420,7 +1430,7 @@
         <v>-10177.5215</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
@@ -1459,7 +1469,7 @@
         <v>-10869.3164</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
@@ -1498,9 +1508,11 @@
         <v>-10869.3164</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>677</v>
+      </c>
       <c r="J29" t="n">
         <v>688</v>
       </c>
@@ -1654,9 +1666,11 @@
         <v>-11376.1278</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>677</v>
+      </c>
       <c r="J33" t="n">
         <v>688</v>
       </c>
@@ -2434,9 +2448,11 @@
         <v>-12843.72660000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>675</v>
+      </c>
       <c r="J53" t="n">
         <v>688</v>
       </c>
@@ -2473,9 +2489,11 @@
         <v>-12843.72660000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>676</v>
+      </c>
       <c r="J54" t="n">
         <v>688</v>
       </c>
@@ -2512,9 +2530,11 @@
         <v>-12703.72660000001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>676</v>
+      </c>
       <c r="J55" t="n">
         <v>688</v>
       </c>
@@ -2551,9 +2571,11 @@
         <v>-12846.07000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>684</v>
+      </c>
       <c r="J56" t="n">
         <v>688</v>
       </c>
@@ -2590,9 +2612,11 @@
         <v>-12816.07000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>676</v>
+      </c>
       <c r="J57" t="n">
         <v>688</v>
       </c>
@@ -2746,9 +2770,11 @@
         <v>-12987.54960000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>676</v>
+      </c>
       <c r="J61" t="n">
         <v>688</v>
       </c>
@@ -2785,9 +2811,11 @@
         <v>-15387.54960000001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>685</v>
+      </c>
       <c r="J62" t="n">
         <v>688</v>
       </c>
@@ -2824,9 +2852,11 @@
         <v>-14544.48970000001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>676</v>
+      </c>
       <c r="J63" t="n">
         <v>688</v>
       </c>
@@ -2863,9 +2893,11 @@
         <v>-14544.48970000001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>683</v>
+      </c>
       <c r="J64" t="n">
         <v>688</v>
       </c>
@@ -2902,9 +2934,11 @@
         <v>-14529.48970000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>683</v>
+      </c>
       <c r="J65" t="n">
         <v>688</v>
       </c>
@@ -3916,7 +3950,7 @@
         <v>-5741.247270218984</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
@@ -3924,11 +3958,11 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.044418604651163</v>
+        <v>1</v>
       </c>
       <c r="M91" t="inlineStr"/>
     </row>
@@ -3958,8 +3992,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>688</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3988,11 +4028,17 @@
         <v>20825.21402978101</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>688</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4021,11 +4067,17 @@
         <v>7940.156090053124</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>688</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4054,11 +4106,17 @@
         <v>7940.156090053124</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>688</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4087,11 +4145,17 @@
         <v>7477.508690053124</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>688</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4120,11 +4184,17 @@
         <v>7280.295090053124</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>688</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4156,8 +4226,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>688</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4189,8 +4265,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>688</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4219,11 +4301,17 @@
         <v>8899.332790053124</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>688</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4255,8 +4343,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>688</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4288,8 +4382,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>688</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4321,8 +4421,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>688</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4354,8 +4460,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>688</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4387,8 +4499,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>688</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4420,8 +4538,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>688</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4453,8 +4577,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>688</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4486,8 +4616,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>688</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4519,8 +4655,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>688</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4552,8 +4694,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>688</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4585,8 +4733,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>688</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4615,11 +4769,17 @@
         <v>20626.93789005312</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>688</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4648,11 +4808,17 @@
         <v>20626.93789005312</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>688</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4681,11 +4847,17 @@
         <v>19992.68149005312</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>688</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4714,11 +4886,17 @@
         <v>20060.02149005312</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>688</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4747,11 +4925,17 @@
         <v>19675.20609005313</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>688</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4783,8 +4967,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>688</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4813,13 +5003,19 @@
         <v>19526.20609005313</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>688</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L118" t="n">
-        <v>1</v>
+        <v>1.032790697674419</v>
       </c>
       <c r="M118" t="inlineStr"/>
     </row>
@@ -4846,7 +5042,7 @@
         <v>17428.30349005312</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4879,7 +5075,7 @@
         <v>4027.395190053125</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4912,7 +5108,7 @@
         <v>4954.638690053125</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4945,7 +5141,7 @@
         <v>4408.192090053125</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4978,7 +5174,7 @@
         <v>4819.026990053125</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5143,7 +5339,7 @@
         <v>5953.188090053125</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5209,7 +5405,7 @@
         <v>6023.507190053125</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5242,7 +5438,7 @@
         <v>6024.507190053125</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5275,7 +5471,7 @@
         <v>5091.071090053125</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5308,7 +5504,7 @@
         <v>4691.573290053125</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5341,7 +5537,7 @@
         <v>3870.110590053125</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5374,7 +5570,7 @@
         <v>3870.110590053125</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5407,7 +5603,7 @@
         <v>3871.110590053125</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5440,7 +5636,7 @@
         <v>4870.810590053125</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5473,7 +5669,7 @@
         <v>4870.810590053125</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5506,7 +5702,7 @@
         <v>4869.810590053125</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5539,7 +5735,7 @@
         <v>5088.910590053125</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5572,7 +5768,7 @@
         <v>4081.264790053125</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5605,7 +5801,7 @@
         <v>1250.986660272103</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5638,7 +5834,7 @@
         <v>828.9563602721026</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5671,7 +5867,7 @@
         <v>829.9563602721026</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5704,7 +5900,7 @@
         <v>827.9563602721026</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6012,6 +6208,6 @@
       <c r="M154" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-12 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-12 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5202.8086</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-4702.8086</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>682</v>
-      </c>
-      <c r="J3" t="n">
-        <v>682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-4341.943600000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>685</v>
-      </c>
-      <c r="J4" t="n">
-        <v>682</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-3564.3851</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>686</v>
-      </c>
-      <c r="J5" t="n">
-        <v>682</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-3559.123900000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>688</v>
-      </c>
-      <c r="J6" t="n">
-        <v>688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>691</v>
-      </c>
-      <c r="J7" t="n">
-        <v>688</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>694</v>
-      </c>
-      <c r="J8" t="n">
-        <v>688</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,19 +682,11 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>694</v>
-      </c>
-      <c r="J9" t="n">
-        <v>688</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,19 +715,11 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>694</v>
-      </c>
-      <c r="J10" t="n">
-        <v>688</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -804,19 +748,11 @@
         <v>-3381.016000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>694</v>
-      </c>
-      <c r="J11" t="n">
-        <v>688</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -845,17 +781,11 @@
         <v>-5381.016000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>688</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -884,17 +814,11 @@
         <v>-3091.016000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>688</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -923,17 +847,11 @@
         <v>-3123.807400000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>688</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -965,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>688</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1004,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>688</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1043,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>688</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1082,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>688</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1121,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>688</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1160,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>688</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1199,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>688</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1238,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>688</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1277,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>688</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1316,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>688</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1355,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>688</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1394,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>688</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1433,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>688</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1472,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>688</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1508,19 +1342,11 @@
         <v>-10869.3164</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>677</v>
-      </c>
-      <c r="J29" t="n">
-        <v>688</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1552,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>688</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1591,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>688</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1630,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>688</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1672,13 +1480,9 @@
         <v>677</v>
       </c>
       <c r="J33" t="n">
-        <v>688</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1707,15 +1511,17 @@
         <v>-10425.5091</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>677</v>
+      </c>
       <c r="J34" t="n">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1746,15 +1552,17 @@
         <v>-10058.5091</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>678</v>
+      </c>
       <c r="J35" t="n">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1785,17 +1593,15 @@
         <v>-9922.663100000003</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>679</v>
+      </c>
       <c r="J36" t="n">
-        <v>688</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1824,15 +1630,17 @@
         <v>-9631.915100000004</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>682</v>
+      </c>
       <c r="J37" t="n">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1867,11 +1675,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1905,14 +1713,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>688</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1944,14 +1746,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>688</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1983,14 +1779,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>688</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2022,14 +1812,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>688</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2061,14 +1845,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>688</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2100,14 +1878,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>688</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2139,14 +1911,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>688</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2178,14 +1944,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>688</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2217,14 +1977,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>688</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2256,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>688</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2295,14 +2043,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>688</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2334,14 +2076,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>688</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2373,14 +2109,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>688</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2412,14 +2142,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>688</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2448,19 +2172,11 @@
         <v>-12843.72660000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>675</v>
-      </c>
-      <c r="J53" t="n">
-        <v>688</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2489,19 +2205,11 @@
         <v>-12843.72660000001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>676</v>
-      </c>
-      <c r="J54" t="n">
-        <v>688</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2535,12 +2243,10 @@
       <c r="I55" t="n">
         <v>676</v>
       </c>
-      <c r="J55" t="n">
-        <v>688</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2571,14 +2277,10 @@
         <v>-12846.07000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>684</v>
-      </c>
-      <c r="J56" t="n">
-        <v>688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2617,9 +2319,7 @@
       <c r="I57" t="n">
         <v>676</v>
       </c>
-      <c r="J57" t="n">
-        <v>688</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2656,9 +2356,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>688</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2692,12 +2390,12 @@
         <v>-12860.65870000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>688</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>685</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2731,12 +2429,12 @@
         <v>-13016.48090000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>688</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>678</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2775,9 +2473,7 @@
       <c r="I61" t="n">
         <v>676</v>
       </c>
-      <c r="J61" t="n">
-        <v>688</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2811,14 +2507,10 @@
         <v>-15387.54960000001</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>685</v>
-      </c>
-      <c r="J62" t="n">
-        <v>688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2857,9 +2549,7 @@
       <c r="I63" t="n">
         <v>676</v>
       </c>
-      <c r="J63" t="n">
-        <v>688</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2898,9 +2588,7 @@
       <c r="I64" t="n">
         <v>683</v>
       </c>
-      <c r="J64" t="n">
-        <v>688</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2934,14 +2622,10 @@
         <v>-14529.48970000001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>683</v>
-      </c>
-      <c r="J65" t="n">
-        <v>688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2978,9 +2662,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>688</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3014,12 +2696,12 @@
         <v>-14545.48970000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>688</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>683</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3053,12 +2735,12 @@
         <v>-14529.92510000001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>688</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>682</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3095,9 +2777,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>688</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3134,9 +2814,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>688</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3173,9 +2851,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>688</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3212,9 +2888,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>688</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3251,9 +2925,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>688</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3290,9 +2962,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>688</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3329,9 +2999,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>688</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3368,9 +3036,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>688</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3407,9 +3073,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>688</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3446,9 +3110,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>688</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3485,9 +3147,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>688</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3524,9 +3184,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>688</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3563,9 +3221,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>688</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3602,9 +3258,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>688</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3641,9 +3295,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>688</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3680,9 +3332,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>688</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3719,9 +3369,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>688</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3758,9 +3406,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>688</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3797,9 +3443,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>688</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3836,9 +3480,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>688</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3875,9 +3517,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>688</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3914,9 +3554,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>688</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3953,9 +3591,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>688</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3992,9 +3628,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>688</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4031,9 +3665,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>688</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4070,9 +3702,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>688</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4109,9 +3739,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>688</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4148,9 +3776,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>688</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4187,9 +3813,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>688</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4226,9 +3850,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>688</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4265,9 +3887,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>688</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4304,9 +3924,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>688</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4343,9 +3961,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>688</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4382,9 +3998,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>688</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4421,9 +4035,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>688</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,9 +4072,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>688</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4499,9 +4109,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>688</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4538,9 +4146,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>688</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4577,9 +4183,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>688</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4616,9 +4220,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>688</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4655,9 +4257,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>688</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4694,9 +4294,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>688</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4733,9 +4331,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>688</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4772,9 +4368,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>688</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4811,9 +4405,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>688</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4850,9 +4442,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>688</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4889,9 +4479,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>688</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4928,9 +4516,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>688</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4967,9 +4553,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>688</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5003,19 +4587,17 @@
         <v>19526.20609005313</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>688</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.032790697674419</v>
+        <v>1</v>
       </c>
       <c r="M118" t="inlineStr"/>
     </row>
@@ -5042,11 +4624,15 @@
         <v>17428.30349005312</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5075,11 +4661,15 @@
         <v>4027.395190053125</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5108,11 +4698,15 @@
         <v>4954.638690053125</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5141,11 +4735,15 @@
         <v>4408.192090053125</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5174,11 +4772,15 @@
         <v>4819.026990053125</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5211,7 +4813,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5244,7 +4850,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5277,7 +4887,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5310,7 +4924,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5339,11 +4957,15 @@
         <v>5953.188090053125</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5376,7 +4998,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5405,11 +5031,15 @@
         <v>6023.507190053125</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5438,11 +5068,15 @@
         <v>6024.507190053125</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5471,11 +5105,15 @@
         <v>5091.071090053125</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5504,11 +5142,15 @@
         <v>4691.573290053125</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5537,11 +5179,15 @@
         <v>3870.110590053125</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5570,11 +5216,15 @@
         <v>3870.110590053125</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5603,11 +5253,15 @@
         <v>3871.110590053125</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5636,11 +5290,15 @@
         <v>4870.810590053125</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5669,11 +5327,15 @@
         <v>4870.810590053125</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5702,11 +5364,15 @@
         <v>4869.810590053125</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5735,11 +5401,15 @@
         <v>5088.910590053125</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5768,11 +5438,15 @@
         <v>4081.264790053125</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5801,11 +5475,15 @@
         <v>1250.986660272103</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5834,11 +5512,15 @@
         <v>828.9563602721026</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5867,11 +5549,15 @@
         <v>829.9563602721026</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5900,11 +5586,15 @@
         <v>827.9563602721026</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5937,7 +5627,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5970,7 +5664,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6003,7 +5701,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6036,7 +5738,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6069,7 +5775,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6102,7 +5812,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6135,7 +5849,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6168,7 +5886,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6201,13 +5923,17 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
       <c r="M154" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-12 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-12 BackTest VALOR.xlsx
@@ -451,7 +451,7 @@
         <v>-5202.8086</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-4702.8086</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>682</v>
+      </c>
+      <c r="J3" t="n">
+        <v>682</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -520,8 +524,14 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>682</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +563,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>682</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -616,7 +632,7 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +665,7 @@
         <v>-3449.123900000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +764,7 @@
         <v>-3381.016000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +797,7 @@
         <v>-5381.016000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +830,7 @@
         <v>-3091.016000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +863,7 @@
         <v>-3123.807400000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1474,14 +1490,10 @@
         <v>-11376.1278</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>677</v>
-      </c>
-      <c r="J33" t="n">
-        <v>677</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1511,19 +1523,11 @@
         <v>-10425.5091</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>677</v>
-      </c>
-      <c r="J34" t="n">
-        <v>677</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1552,19 +1556,11 @@
         <v>-10058.5091</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>678</v>
-      </c>
-      <c r="J35" t="n">
-        <v>677</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1593,14 +1589,10 @@
         <v>-9922.663100000003</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>679</v>
-      </c>
-      <c r="J36" t="n">
-        <v>679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1630,19 +1622,11 @@
         <v>-9631.915100000004</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>682</v>
-      </c>
-      <c r="J37" t="n">
-        <v>679</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1674,14 +1658,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>679</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -2277,9 +2255,11 @@
         <v>-12846.07000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>684</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2314,11 +2294,9 @@
         <v>-12816.07000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2390,11 +2368,9 @@
         <v>-12860.65870000001</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2429,11 +2405,9 @@
         <v>-13016.48090000001</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>678</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2544,11 +2518,9 @@
         <v>-14544.48970000001</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2696,11 +2668,9 @@
         <v>-14545.48970000001</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2735,11 +2705,9 @@
         <v>-14529.92510000001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>682</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2848,9 +2816,11 @@
         <v>-14177.45577021898</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>686</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -2885,9 +2855,11 @@
         <v>-14177.45577021898</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>686</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -2922,9 +2894,11 @@
         <v>-14177.45577021898</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>686</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -2959,9 +2933,11 @@
         <v>-12545.69937021898</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>686</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -2996,9 +2972,11 @@
         <v>-12545.69937021898</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>690</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3033,9 +3011,11 @@
         <v>-12631.82307021898</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>690</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3070,9 +3050,11 @@
         <v>-12614.82307021898</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>686</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3107,9 +3089,11 @@
         <v>-12614.82307021898</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>690</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3144,9 +3128,11 @@
         <v>-12614.82307021898</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>690</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3181,9 +3167,11 @@
         <v>-12614.82307021898</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>690</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3218,9 +3206,11 @@
         <v>-12341.67127021898</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>690</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3255,9 +3245,11 @@
         <v>-13153.46257021898</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>698</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3292,9 +3284,11 @@
         <v>-12442.12987021898</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>695</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3329,9 +3323,11 @@
         <v>-12442.12987021898</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>698</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3366,9 +3362,11 @@
         <v>-11818.15397021898</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>698</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3403,9 +3401,11 @@
         <v>-11910.15397021898</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>700</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3440,9 +3440,11 @@
         <v>-11863.72277021898</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>693</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3477,9 +3479,11 @@
         <v>-8914.255070218984</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>700</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3514,9 +3518,11 @@
         <v>-8914.255070218984</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>707</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3662,18 +3668,16 @@
         <v>20825.21402978101</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -3699,15 +3703,11 @@
         <v>7940.156090053124</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3736,15 +3736,11 @@
         <v>7940.156090053124</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3773,15 +3769,11 @@
         <v>7477.508690053124</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3814,11 +3806,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3851,11 +3839,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3888,11 +3872,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3925,11 +3905,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3962,11 +3938,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3999,11 +3971,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4036,11 +4004,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4073,11 +4037,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4110,11 +4070,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4103,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4184,11 +4136,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4221,11 +4169,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4258,11 +4202,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4295,11 +4235,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4332,11 +4268,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4365,15 +4297,11 @@
         <v>20626.93789005312</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4402,15 +4330,11 @@
         <v>20626.93789005312</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4439,15 +4363,11 @@
         <v>19992.68149005312</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4476,15 +4396,11 @@
         <v>20060.02149005312</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4513,15 +4429,11 @@
         <v>19675.20609005313</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4550,15 +4462,11 @@
         <v>19676.20609005313</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4587,15 +4495,11 @@
         <v>19526.20609005313</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4624,15 +4528,11 @@
         <v>17428.30349005312</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4661,15 +4561,11 @@
         <v>4027.395190053125</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4698,15 +4594,11 @@
         <v>4954.638690053125</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4739,11 +4631,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4776,11 +4664,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4813,11 +4697,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4850,11 +4730,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4887,11 +4763,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4924,11 +4796,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4961,11 +4829,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4998,11 +4862,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5035,11 +4895,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5072,11 +4928,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5109,11 +4961,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5146,11 +4994,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5183,11 +5027,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5220,11 +5060,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5257,11 +5093,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5294,11 +5126,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5331,11 +5159,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5192,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5405,11 +5225,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5442,11 +5258,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5479,11 +5291,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5516,11 +5324,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5553,11 +5357,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5590,11 +5390,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5627,11 +5423,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5664,11 +5456,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5701,11 +5489,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5738,11 +5522,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5775,11 +5555,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5812,11 +5588,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5849,11 +5621,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5886,11 +5654,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5923,11 +5687,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-12 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-12 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>298.6</v>
       </c>
       <c r="G2" t="n">
-        <v>-5202.8086</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>500</v>
       </c>
       <c r="G3" t="n">
-        <v>-4702.8086</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>682</v>
       </c>
       <c r="I3" t="n">
         <v>682</v>
       </c>
-      <c r="J3" t="n">
-        <v>682</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,24 +507,21 @@
         <v>360.865</v>
       </c>
       <c r="G4" t="n">
-        <v>-4341.943600000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
         <v>682</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,24 +543,23 @@
         <v>777.5585</v>
       </c>
       <c r="G5" t="n">
-        <v>-3564.3851</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+        <v>686</v>
+      </c>
+      <c r="I5" t="n">
         <v>682</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -596,18 +581,19 @@
         <v>5.2612</v>
       </c>
       <c r="G6" t="n">
-        <v>-3559.123900000001</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="I6" t="n">
+        <v>688</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,18 +615,23 @@
         <v>110</v>
       </c>
       <c r="G7" t="n">
-        <v>-3449.123900000001</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>691</v>
+      </c>
+      <c r="I7" t="n">
+        <v>688</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -662,18 +653,21 @@
         <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>-3449.123900000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>688</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -695,18 +689,23 @@
         <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>-3449.123900000001</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>694</v>
+      </c>
+      <c r="I9" t="n">
+        <v>688</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,18 +727,21 @@
         <v>28</v>
       </c>
       <c r="G10" t="n">
-        <v>-3449.123900000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>688</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -761,18 +763,23 @@
         <v>68.1079</v>
       </c>
       <c r="G11" t="n">
-        <v>-3381.016000000001</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>694</v>
+      </c>
+      <c r="I11" t="n">
+        <v>688</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -794,18 +801,21 @@
         <v>2000</v>
       </c>
       <c r="G12" t="n">
-        <v>-5381.016000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>688</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -827,18 +837,23 @@
         <v>2290</v>
       </c>
       <c r="G13" t="n">
-        <v>-3091.016000000001</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>689</v>
+      </c>
+      <c r="I13" t="n">
+        <v>688</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -860,18 +875,23 @@
         <v>32.7914</v>
       </c>
       <c r="G14" t="n">
-        <v>-3123.807400000001</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>695</v>
+      </c>
+      <c r="I14" t="n">
+        <v>688</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -893,18 +913,23 @@
         <v>458.0592</v>
       </c>
       <c r="G15" t="n">
-        <v>-2665.7482</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>694</v>
+      </c>
+      <c r="I15" t="n">
+        <v>688</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -926,18 +951,23 @@
         <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>-2660.7482</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>695</v>
+      </c>
+      <c r="I16" t="n">
+        <v>688</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -959,18 +989,21 @@
         <v>272.988</v>
       </c>
       <c r="G17" t="n">
-        <v>-2933.7362</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>688</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -992,18 +1025,21 @@
         <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>-2914.7362</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>688</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1025,18 +1061,21 @@
         <v>31.9408</v>
       </c>
       <c r="G19" t="n">
-        <v>-2946.677</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>688</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1058,18 +1097,21 @@
         <v>2507.8906</v>
       </c>
       <c r="G20" t="n">
-        <v>-5454.5676</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>688</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1091,18 +1133,23 @@
         <v>4548.0163</v>
       </c>
       <c r="G21" t="n">
-        <v>-5454.5676</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>686</v>
+      </c>
+      <c r="I21" t="n">
+        <v>688</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1124,18 +1171,21 @@
         <v>6.9825</v>
       </c>
       <c r="G22" t="n">
-        <v>-5447.5851</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>688</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1157,18 +1207,21 @@
         <v>35.4614</v>
       </c>
       <c r="G23" t="n">
-        <v>-5447.5851</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>688</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1190,18 +1243,21 @@
         <v>251.4173</v>
       </c>
       <c r="G24" t="n">
-        <v>-5447.5851</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>688</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1223,18 +1279,21 @@
         <v>4505.0802</v>
       </c>
       <c r="G25" t="n">
-        <v>-9952.665300000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>688</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1256,18 +1315,21 @@
         <v>341.2196</v>
       </c>
       <c r="G26" t="n">
-        <v>-9611.4457</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>688</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1289,18 +1351,21 @@
         <v>566.0758</v>
       </c>
       <c r="G27" t="n">
-        <v>-10177.5215</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>688</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1322,18 +1387,21 @@
         <v>691.7949</v>
       </c>
       <c r="G28" t="n">
-        <v>-10869.3164</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>688</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1355,18 +1423,21 @@
         <v>8.2051</v>
       </c>
       <c r="G29" t="n">
-        <v>-10869.3164</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>688</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1388,18 +1459,23 @@
         <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>-10858.3164</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>677</v>
+      </c>
+      <c r="I30" t="n">
+        <v>688</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1421,18 +1497,23 @@
         <v>517.8114</v>
       </c>
       <c r="G31" t="n">
-        <v>-11376.1278</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="I31" t="n">
+        <v>688</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1454,18 +1535,21 @@
         <v>182</v>
       </c>
       <c r="G32" t="n">
-        <v>-11376.1278</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>688</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1487,18 +1571,23 @@
         <v>0.1886</v>
       </c>
       <c r="G33" t="n">
-        <v>-11376.1278</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>677</v>
+      </c>
+      <c r="I33" t="n">
+        <v>688</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1520,18 +1609,23 @@
         <v>950.6187</v>
       </c>
       <c r="G34" t="n">
-        <v>-10425.5091</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>677</v>
+      </c>
+      <c r="I34" t="n">
+        <v>688</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1553,18 +1647,23 @@
         <v>367</v>
       </c>
       <c r="G35" t="n">
-        <v>-10058.5091</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>678</v>
+      </c>
+      <c r="I35" t="n">
+        <v>688</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1586,18 +1685,23 @@
         <v>135.846</v>
       </c>
       <c r="G36" t="n">
-        <v>-9922.663100000003</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>679</v>
+      </c>
+      <c r="I36" t="n">
+        <v>688</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1619,18 +1723,23 @@
         <v>290.748</v>
       </c>
       <c r="G37" t="n">
-        <v>-9631.915100000004</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>682</v>
+      </c>
+      <c r="I37" t="n">
+        <v>688</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1652,18 +1761,23 @@
         <v>146.6275</v>
       </c>
       <c r="G38" t="n">
-        <v>-9778.542600000004</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>683</v>
+      </c>
+      <c r="I38" t="n">
+        <v>688</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1685,18 +1799,23 @@
         <v>53.3263</v>
       </c>
       <c r="G39" t="n">
-        <v>-9831.868900000005</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>682</v>
+      </c>
+      <c r="I39" t="n">
+        <v>688</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1718,18 +1837,21 @@
         <v>9.0938</v>
       </c>
       <c r="G40" t="n">
-        <v>-9831.868900000005</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>688</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1751,18 +1873,23 @@
         <v>27</v>
       </c>
       <c r="G41" t="n">
-        <v>-9831.868900000005</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>680</v>
+      </c>
+      <c r="I41" t="n">
+        <v>688</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1784,18 +1911,21 @@
         <v>145.7832</v>
       </c>
       <c r="G42" t="n">
-        <v>-9831.868900000005</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>688</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1817,18 +1947,21 @@
         <v>1591.6707</v>
       </c>
       <c r="G43" t="n">
-        <v>-11423.53960000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>688</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1850,18 +1983,23 @@
         <v>8.3293</v>
       </c>
       <c r="G44" t="n">
-        <v>-11423.53960000001</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>679</v>
+      </c>
+      <c r="I44" t="n">
+        <v>688</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1883,18 +2021,23 @@
         <v>290</v>
       </c>
       <c r="G45" t="n">
-        <v>-11133.53960000001</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>679</v>
+      </c>
+      <c r="I45" t="n">
+        <v>688</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1916,18 +2059,23 @@
         <v>0.748</v>
       </c>
       <c r="G46" t="n">
-        <v>-11133.53960000001</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>681</v>
+      </c>
+      <c r="I46" t="n">
+        <v>688</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1949,18 +2097,23 @@
         <v>286.8788</v>
       </c>
       <c r="G47" t="n">
-        <v>-10846.66080000001</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>681</v>
+      </c>
+      <c r="I47" t="n">
+        <v>688</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1982,18 +2135,23 @@
         <v>1903.9652</v>
       </c>
       <c r="G48" t="n">
-        <v>-12750.62600000001</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>682</v>
+      </c>
+      <c r="I48" t="n">
+        <v>688</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2015,18 +2173,23 @@
         <v>9.7254</v>
       </c>
       <c r="G49" t="n">
-        <v>-12740.90060000001</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>677</v>
+      </c>
+      <c r="I49" t="n">
+        <v>688</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2048,18 +2211,21 @@
         <v>255.3233</v>
       </c>
       <c r="G50" t="n">
-        <v>-12996.22390000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>688</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2081,18 +2247,21 @@
         <v>116.0603</v>
       </c>
       <c r="G51" t="n">
-        <v>-13112.28420000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>688</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2114,18 +2283,23 @@
         <v>65.3815</v>
       </c>
       <c r="G52" t="n">
-        <v>-13177.66570000001</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>676</v>
+      </c>
+      <c r="I52" t="n">
+        <v>688</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2147,18 +2321,23 @@
         <v>333.9391</v>
       </c>
       <c r="G53" t="n">
-        <v>-12843.72660000001</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>675</v>
+      </c>
+      <c r="I53" t="n">
+        <v>688</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2180,18 +2359,23 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>-12843.72660000001</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>676</v>
+      </c>
+      <c r="I54" t="n">
+        <v>688</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2213,24 +2397,23 @@
         <v>140</v>
       </c>
       <c r="G55" t="n">
-        <v>-12703.72660000001</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>676</v>
       </c>
       <c r="I55" t="n">
-        <v>676</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2252,24 +2435,23 @@
         <v>142.3434</v>
       </c>
       <c r="G56" t="n">
-        <v>-12846.07000000001</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>684</v>
       </c>
       <c r="I56" t="n">
-        <v>684</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2291,22 +2473,23 @@
         <v>30</v>
       </c>
       <c r="G57" t="n">
-        <v>-12816.07000000001</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>676</v>
+      </c>
+      <c r="I57" t="n">
+        <v>688</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2328,22 +2511,21 @@
         <v>30</v>
       </c>
       <c r="G58" t="n">
-        <v>-12786.07000000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>688</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2365,22 +2547,23 @@
         <v>74.5887</v>
       </c>
       <c r="G59" t="n">
-        <v>-12860.65870000001</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>685</v>
+      </c>
+      <c r="I59" t="n">
+        <v>688</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2402,22 +2585,23 @@
         <v>155.8222</v>
       </c>
       <c r="G60" t="n">
-        <v>-13016.48090000001</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>678</v>
+      </c>
+      <c r="I60" t="n">
+        <v>688</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2439,24 +2623,23 @@
         <v>28.9313</v>
       </c>
       <c r="G61" t="n">
-        <v>-12987.54960000001</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>676</v>
       </c>
       <c r="I61" t="n">
-        <v>676</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2478,22 +2661,23 @@
         <v>2400</v>
       </c>
       <c r="G62" t="n">
-        <v>-15387.54960000001</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>685</v>
+      </c>
+      <c r="I62" t="n">
+        <v>688</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2515,22 +2699,23 @@
         <v>843.0599</v>
       </c>
       <c r="G63" t="n">
-        <v>-14544.48970000001</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>676</v>
+      </c>
+      <c r="I63" t="n">
+        <v>688</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2552,24 +2737,23 @@
         <v>4</v>
       </c>
       <c r="G64" t="n">
-        <v>-14544.48970000001</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>683</v>
       </c>
       <c r="I64" t="n">
-        <v>683</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2591,22 +2775,21 @@
         <v>15</v>
       </c>
       <c r="G65" t="n">
-        <v>-14529.48970000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>688</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2628,22 +2811,23 @@
         <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>-14540.48970000001</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>685</v>
+      </c>
+      <c r="I66" t="n">
+        <v>688</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2665,22 +2849,21 @@
         <v>5</v>
       </c>
       <c r="G67" t="n">
-        <v>-14545.48970000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>688</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2702,22 +2885,21 @@
         <v>15.5646</v>
       </c>
       <c r="G68" t="n">
-        <v>-14529.92510000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>688</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2739,22 +2921,21 @@
         <v>317.4693297810219</v>
       </c>
       <c r="G69" t="n">
-        <v>-14212.45577021898</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>688</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2776,22 +2957,21 @@
         <v>35</v>
       </c>
       <c r="G70" t="n">
-        <v>-14177.45577021898</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>688</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2813,24 +2993,21 @@
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>-14177.45577021898</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>686</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2852,24 +3029,21 @@
         <v>12</v>
       </c>
       <c r="G72" t="n">
-        <v>-14177.45577021898</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>686</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2891,24 +3065,21 @@
         <v>526.4404702189781</v>
       </c>
       <c r="G73" t="n">
-        <v>-14177.45577021898</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>686</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2930,24 +3101,21 @@
         <v>1631.7564</v>
       </c>
       <c r="G74" t="n">
-        <v>-12545.69937021898</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>686</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2969,24 +3137,21 @@
         <v>386.1897</v>
       </c>
       <c r="G75" t="n">
-        <v>-12545.69937021898</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>690</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3008,24 +3173,21 @@
         <v>86.1237</v>
       </c>
       <c r="G76" t="n">
-        <v>-12631.82307021898</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>690</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3047,24 +3209,21 @@
         <v>17</v>
       </c>
       <c r="G77" t="n">
-        <v>-12614.82307021898</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>686</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3086,24 +3245,21 @@
         <v>3</v>
       </c>
       <c r="G78" t="n">
-        <v>-12614.82307021898</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>690</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3125,24 +3281,21 @@
         <v>3.4551</v>
       </c>
       <c r="G79" t="n">
-        <v>-12614.82307021898</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>690</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3164,24 +3317,21 @@
         <v>305.7723</v>
       </c>
       <c r="G80" t="n">
-        <v>-12614.82307021898</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>690</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3203,24 +3353,21 @@
         <v>273.1518</v>
       </c>
       <c r="G81" t="n">
-        <v>-12341.67127021898</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>690</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3242,24 +3389,21 @@
         <v>811.7913</v>
       </c>
       <c r="G82" t="n">
-        <v>-13153.46257021898</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>698</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3281,24 +3425,21 @@
         <v>711.3327</v>
       </c>
       <c r="G83" t="n">
-        <v>-12442.12987021898</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>695</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3320,24 +3461,21 @@
         <v>907.3094</v>
       </c>
       <c r="G84" t="n">
-        <v>-12442.12987021898</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>698</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3359,24 +3497,21 @@
         <v>623.9759</v>
       </c>
       <c r="G85" t="n">
-        <v>-11818.15397021898</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>698</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3398,24 +3533,21 @@
         <v>92</v>
       </c>
       <c r="G86" t="n">
-        <v>-11910.15397021898</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>700</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3437,24 +3569,21 @@
         <v>46.4312</v>
       </c>
       <c r="G87" t="n">
-        <v>-11863.72277021898</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>693</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3476,24 +3605,21 @@
         <v>2949.4677</v>
       </c>
       <c r="G88" t="n">
-        <v>-8914.255070218984</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>700</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3515,24 +3641,21 @@
         <v>800</v>
       </c>
       <c r="G89" t="n">
-        <v>-8914.255070218984</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>707</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3554,22 +3677,21 @@
         <v>884.785</v>
       </c>
       <c r="G90" t="n">
-        <v>-8029.470070218984</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>688</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3591,22 +3713,21 @@
         <v>2288.2228</v>
       </c>
       <c r="G91" t="n">
-        <v>-5741.247270218984</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>688</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3628,22 +3749,21 @@
         <v>16293.7104</v>
       </c>
       <c r="G92" t="n">
-        <v>10552.46312978102</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>688</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3665,20 +3785,21 @@
         <v>10272.7509</v>
       </c>
       <c r="G93" t="n">
-        <v>20825.21402978101</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>688</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
       </c>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3700,18 +3821,21 @@
         <v>12885.05793972789</v>
       </c>
       <c r="G94" t="n">
-        <v>7940.156090053124</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>688</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3733,18 +3857,23 @@
         <v>440.2394</v>
       </c>
       <c r="G95" t="n">
-        <v>7940.156090053124</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>688</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1.063313953488372</v>
+      </c>
       <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>1.013196480938416</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3766,18 +3895,15 @@
         <v>462.6474</v>
       </c>
       <c r="G96" t="n">
-        <v>7477.508690053124</v>
-      </c>
-      <c r="H96" t="n">
         <v>2</v>
       </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3799,18 +3925,15 @@
         <v>197.2136</v>
       </c>
       <c r="G97" t="n">
-        <v>7280.295090053124</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3832,18 +3955,15 @@
         <v>176.2241</v>
       </c>
       <c r="G98" t="n">
-        <v>7104.070990053124</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3865,18 +3985,15 @@
         <v>1795.2618</v>
       </c>
       <c r="G99" t="n">
-        <v>8899.332790053124</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3898,18 +4015,15 @@
         <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>8899.332790053124</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3931,18 +4045,15 @@
         <v>337.0830949438202</v>
       </c>
       <c r="G101" t="n">
-        <v>8899.332790053124</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3964,18 +4075,15 @@
         <v>864.8949</v>
       </c>
       <c r="G102" t="n">
-        <v>9764.227690053123</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3997,18 +4105,15 @@
         <v>99.75</v>
       </c>
       <c r="G103" t="n">
-        <v>9664.477690053123</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4030,18 +4135,15 @@
         <v>1069.4467</v>
       </c>
       <c r="G104" t="n">
-        <v>10733.92439005312</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4063,18 +4165,15 @@
         <v>1708.29</v>
       </c>
       <c r="G105" t="n">
-        <v>9025.634390053125</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4096,18 +4195,15 @@
         <v>1032.8815</v>
       </c>
       <c r="G106" t="n">
-        <v>10058.51589005312</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4129,18 +4225,15 @@
         <v>874.4203</v>
       </c>
       <c r="G107" t="n">
-        <v>9184.095590053124</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4162,18 +4255,15 @@
         <v>4599.0366</v>
       </c>
       <c r="G108" t="n">
-        <v>4585.058990053124</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4195,18 +4285,15 @@
         <v>2354.7693</v>
       </c>
       <c r="G109" t="n">
-        <v>4585.058990053124</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4228,18 +4315,15 @@
         <v>4006.6039</v>
       </c>
       <c r="G110" t="n">
-        <v>8591.662890053125</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4261,18 +4345,15 @@
         <v>12035.275</v>
       </c>
       <c r="G111" t="n">
-        <v>20626.93789005312</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4294,18 +4375,15 @@
         <v>10.775</v>
       </c>
       <c r="G112" t="n">
-        <v>20626.93789005312</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4327,18 +4405,15 @@
         <v>1943.6333</v>
       </c>
       <c r="G113" t="n">
-        <v>20626.93789005312</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4360,18 +4435,15 @@
         <v>634.2564</v>
       </c>
       <c r="G114" t="n">
-        <v>19992.68149005312</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4393,18 +4465,15 @@
         <v>67.34</v>
       </c>
       <c r="G115" t="n">
-        <v>20060.02149005312</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4426,18 +4495,15 @@
         <v>384.8154</v>
       </c>
       <c r="G116" t="n">
-        <v>19675.20609005313</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4459,18 +4525,15 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>19676.20609005313</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4492,18 +4555,15 @@
         <v>150</v>
       </c>
       <c r="G118" t="n">
-        <v>19526.20609005313</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4525,18 +4585,15 @@
         <v>2097.9026</v>
       </c>
       <c r="G119" t="n">
-        <v>17428.30349005312</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4558,18 +4615,15 @@
         <v>13400.9083</v>
       </c>
       <c r="G120" t="n">
-        <v>4027.395190053125</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4591,18 +4645,15 @@
         <v>927.2435</v>
       </c>
       <c r="G121" t="n">
-        <v>4954.638690053125</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4624,18 +4675,15 @@
         <v>546.4466</v>
       </c>
       <c r="G122" t="n">
-        <v>4408.192090053125</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4657,18 +4705,15 @@
         <v>410.8349</v>
       </c>
       <c r="G123" t="n">
-        <v>4819.026990053125</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4690,18 +4735,15 @@
         <v>101</v>
       </c>
       <c r="G124" t="n">
-        <v>4920.026990053125</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4723,18 +4765,15 @@
         <v>387.7222</v>
       </c>
       <c r="G125" t="n">
-        <v>4532.304790053125</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4756,18 +4795,15 @@
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>4533.304790053125</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4789,18 +4825,15 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>4533.304790053125</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4822,18 +4855,15 @@
         <v>1419.8833</v>
       </c>
       <c r="G128" t="n">
-        <v>5953.188090053125</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4855,18 +4885,15 @@
         <v>410.2738</v>
       </c>
       <c r="G129" t="n">
-        <v>6363.461890053125</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4888,18 +4915,15 @@
         <v>339.9547</v>
       </c>
       <c r="G130" t="n">
-        <v>6023.507190053125</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4921,18 +4945,15 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>6024.507190053125</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4954,18 +4975,15 @@
         <v>933.4361</v>
       </c>
       <c r="G132" t="n">
-        <v>5091.071090053125</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4987,18 +5005,15 @@
         <v>399.4978</v>
       </c>
       <c r="G133" t="n">
-        <v>4691.573290053125</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5020,18 +5035,15 @@
         <v>821.4627</v>
       </c>
       <c r="G134" t="n">
-        <v>3870.110590053125</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5053,18 +5065,15 @@
         <v>170.139</v>
       </c>
       <c r="G135" t="n">
-        <v>3870.110590053125</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5086,18 +5095,15 @@
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>3871.110590053125</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5119,18 +5125,15 @@
         <v>999.7</v>
       </c>
       <c r="G137" t="n">
-        <v>4870.810590053125</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5152,18 +5155,15 @@
         <v>381.1563</v>
       </c>
       <c r="G138" t="n">
-        <v>4870.810590053125</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5185,18 +5185,15 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>4869.810590053125</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5218,18 +5215,15 @@
         <v>219.1</v>
       </c>
       <c r="G140" t="n">
-        <v>5088.910590053125</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5251,18 +5245,15 @@
         <v>1007.6458</v>
       </c>
       <c r="G141" t="n">
-        <v>4081.264790053125</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5284,18 +5275,15 @@
         <v>2830.278129781022</v>
       </c>
       <c r="G142" t="n">
-        <v>1250.986660272103</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5317,18 +5305,15 @@
         <v>422.0303</v>
       </c>
       <c r="G143" t="n">
-        <v>828.9563602721026</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5350,18 +5335,15 @@
         <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>829.9563602721026</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5383,18 +5365,15 @@
         <v>2</v>
       </c>
       <c r="G145" t="n">
-        <v>827.9563602721026</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5416,18 +5395,15 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>826.9563602721026</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5449,18 +5425,15 @@
         <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>828.9563602721026</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5482,18 +5455,15 @@
         <v>985.4604</v>
       </c>
       <c r="G148" t="n">
-        <v>-156.5040397278974</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5515,18 +5485,15 @@
         <v>88.3565</v>
       </c>
       <c r="G149" t="n">
-        <v>-68.14753972789741</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5548,18 +5515,15 @@
         <v>595.6288</v>
       </c>
       <c r="G150" t="n">
-        <v>-663.7763397278974</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5581,18 +5545,15 @@
         <v>795.0866</v>
       </c>
       <c r="G151" t="n">
-        <v>-1458.862939727897</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5614,18 +5575,15 @@
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>-1457.862939727897</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5647,18 +5605,15 @@
         <v>2</v>
       </c>
       <c r="G153" t="n">
-        <v>-1459.862939727897</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5680,18 +5635,15 @@
         <v>596.499</v>
       </c>
       <c r="G154" t="n">
-        <v>-2056.361939727897</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
